--- a/Doc/10品質記録/レビュー結果/課題管理表.xlsx
+++ b/Doc/10品質記録/レビュー結果/課題管理表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\MyCentOS\pythonGames\Doc\10品質記録\レビュー結果\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{693BE876-860E-4111-931A-60FFE7E19735}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BC93201-D21A-497C-809F-ED8387B5E618}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{CFAEB6AA-FC9D-49F8-8BE6-86D0FBA28B0C}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="選択項目" sheetId="8" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">課題管理表!$A$1:$N$20</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">課題管理表!$A$1:$N$24</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">改版履歴!$A$1:$AV$16</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="61">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -529,6 +529,18 @@
   </si>
   <si>
     <t>ログイン画面の作成：ユーザIDとパスワードを入力しログインする仕様→データ選択</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DAOは今後プログラム名を活用→仮としてログイン画面はSql.py(DAO)を実装(DTOは必要ない？)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>user_id,passwordに対するエラーそれぞれを判別できるようにする</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DAOに同じようなDBの記述が入るのでDBAccessとして処理をまとめる。</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -788,9 +800,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -820,48 +874,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1187,860 +1199,853 @@
   <sheetFormatPr defaultColWidth="3.08203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
     <row r="1" spans="1:59" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="12" t="str">
+      <c r="A1" s="26" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>改版履歴</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="16" t="s">
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16" t="s">
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="16"/>
-      <c r="S1" s="16"/>
-      <c r="T1" s="16"/>
-      <c r="U1" s="16"/>
-      <c r="V1" s="16"/>
-      <c r="W1" s="16"/>
-      <c r="X1" s="16"/>
-      <c r="Y1" s="16" t="s">
+      <c r="R1" s="30"/>
+      <c r="S1" s="30"/>
+      <c r="T1" s="30"/>
+      <c r="U1" s="30"/>
+      <c r="V1" s="30"/>
+      <c r="W1" s="30"/>
+      <c r="X1" s="30"/>
+      <c r="Y1" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="Z1" s="16"/>
-      <c r="AA1" s="16"/>
-      <c r="AB1" s="16"/>
-      <c r="AC1" s="16"/>
-      <c r="AD1" s="16"/>
-      <c r="AE1" s="16"/>
-      <c r="AF1" s="16"/>
-      <c r="AG1" s="16" t="s">
+      <c r="Z1" s="30"/>
+      <c r="AA1" s="30"/>
+      <c r="AB1" s="30"/>
+      <c r="AC1" s="30"/>
+      <c r="AD1" s="30"/>
+      <c r="AE1" s="30"/>
+      <c r="AF1" s="30"/>
+      <c r="AG1" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="AH1" s="16"/>
-      <c r="AI1" s="16"/>
-      <c r="AJ1" s="16"/>
-      <c r="AK1" s="16"/>
-      <c r="AL1" s="16"/>
-      <c r="AM1" s="16"/>
-      <c r="AN1" s="16"/>
-      <c r="AO1" s="16" t="s">
+      <c r="AH1" s="30"/>
+      <c r="AI1" s="30"/>
+      <c r="AJ1" s="30"/>
+      <c r="AK1" s="30"/>
+      <c r="AL1" s="30"/>
+      <c r="AM1" s="30"/>
+      <c r="AN1" s="30"/>
+      <c r="AO1" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="AP1" s="16"/>
-      <c r="AQ1" s="16"/>
-      <c r="AR1" s="16"/>
-      <c r="AS1" s="16"/>
-      <c r="AT1" s="16"/>
-      <c r="AU1" s="16"/>
-      <c r="AV1" s="16"/>
+      <c r="AP1" s="30"/>
+      <c r="AQ1" s="30"/>
+      <c r="AR1" s="30"/>
+      <c r="AS1" s="30"/>
+      <c r="AT1" s="30"/>
+      <c r="AU1" s="30"/>
+      <c r="AV1" s="30"/>
     </row>
     <row r="2" spans="1:59" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="14"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="10" t="str">
+      <c r="A2" s="28"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="24" t="str">
         <f>AX3</f>
         <v>pythonGame</v>
       </c>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="17">
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="24"/>
+      <c r="Q2" s="31">
         <f ca="1">INDIRECT("A"&amp;(COUNTA(A:H)+2))</f>
         <v>43884</v>
       </c>
-      <c r="R2" s="17"/>
-      <c r="S2" s="17"/>
-      <c r="T2" s="17"/>
-      <c r="U2" s="17"/>
-      <c r="V2" s="17"/>
-      <c r="W2" s="17"/>
-      <c r="X2" s="17"/>
-      <c r="Y2" s="18" t="str">
+      <c r="R2" s="31"/>
+      <c r="S2" s="31"/>
+      <c r="T2" s="31"/>
+      <c r="U2" s="31"/>
+      <c r="V2" s="31"/>
+      <c r="W2" s="31"/>
+      <c r="X2" s="31"/>
+      <c r="Y2" s="32" t="str">
         <f ca="1">INDIRECT("AO"&amp;(COUNTA(AO:AV)+1))</f>
         <v>Giphe</v>
       </c>
-      <c r="Z2" s="18"/>
-      <c r="AA2" s="18"/>
-      <c r="AB2" s="18"/>
-      <c r="AC2" s="18"/>
-      <c r="AD2" s="18"/>
-      <c r="AE2" s="18"/>
-      <c r="AF2" s="18"/>
-      <c r="AG2" s="18" t="str">
+      <c r="Z2" s="32"/>
+      <c r="AA2" s="32"/>
+      <c r="AB2" s="32"/>
+      <c r="AC2" s="32"/>
+      <c r="AD2" s="32"/>
+      <c r="AE2" s="32"/>
+      <c r="AF2" s="32"/>
+      <c r="AG2" s="32" t="str">
         <f ca="1">INDIRECT("I"&amp;(COUNTA(I:L)+1))</f>
         <v>1.0</v>
       </c>
-      <c r="AH2" s="18"/>
-      <c r="AI2" s="18"/>
-      <c r="AJ2" s="18"/>
-      <c r="AK2" s="18"/>
-      <c r="AL2" s="18"/>
-      <c r="AM2" s="18"/>
-      <c r="AN2" s="18"/>
-      <c r="AO2" s="10" t="str">
+      <c r="AH2" s="32"/>
+      <c r="AI2" s="32"/>
+      <c r="AJ2" s="32"/>
+      <c r="AK2" s="32"/>
+      <c r="AL2" s="32"/>
+      <c r="AM2" s="32"/>
+      <c r="AN2" s="32"/>
+      <c r="AO2" s="24" t="str">
         <f>BC3</f>
         <v>詳細設計</v>
       </c>
-      <c r="AP2" s="10"/>
-      <c r="AQ2" s="10"/>
-      <c r="AR2" s="10"/>
-      <c r="AS2" s="10"/>
-      <c r="AT2" s="10"/>
-      <c r="AU2" s="10"/>
-      <c r="AV2" s="10"/>
-      <c r="AX2" s="30" t="s">
+      <c r="AP2" s="24"/>
+      <c r="AQ2" s="24"/>
+      <c r="AR2" s="24"/>
+      <c r="AS2" s="24"/>
+      <c r="AT2" s="24"/>
+      <c r="AU2" s="24"/>
+      <c r="AV2" s="24"/>
+      <c r="AX2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="AY2" s="30"/>
-      <c r="AZ2" s="30"/>
-      <c r="BA2" s="30"/>
-      <c r="BB2" s="30"/>
-      <c r="BC2" s="8" t="s">
+      <c r="AY2" s="10"/>
+      <c r="AZ2" s="10"/>
+      <c r="BA2" s="10"/>
+      <c r="BB2" s="10"/>
+      <c r="BC2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="BD2" s="8"/>
-      <c r="BE2" s="8"/>
-      <c r="BF2" s="8"/>
-      <c r="BG2" s="8"/>
+      <c r="BD2" s="11"/>
+      <c r="BE2" s="11"/>
+      <c r="BF2" s="11"/>
+      <c r="BG2" s="11"/>
     </row>
     <row r="3" spans="1:59" x14ac:dyDescent="0.55000000000000004">
-      <c r="AX3" s="30" t="s">
+      <c r="AX3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="AY3" s="30"/>
-      <c r="AZ3" s="30"/>
-      <c r="BA3" s="30"/>
-      <c r="BB3" s="30"/>
-      <c r="BC3" s="8" t="s">
+      <c r="AY3" s="10"/>
+      <c r="AZ3" s="10"/>
+      <c r="BA3" s="10"/>
+      <c r="BB3" s="10"/>
+      <c r="BC3" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="BD3" s="8"/>
-      <c r="BE3" s="8"/>
-      <c r="BF3" s="8"/>
-      <c r="BG3" s="8"/>
+      <c r="BD3" s="11"/>
+      <c r="BE3" s="11"/>
+      <c r="BF3" s="11"/>
+      <c r="BG3" s="11"/>
     </row>
     <row r="4" spans="1:59" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="26" t="s">
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="27"/>
-      <c r="K4" s="27"/>
-      <c r="L4" s="28"/>
-      <c r="M4" s="19" t="s">
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="N4" s="20"/>
-      <c r="O4" s="20"/>
-      <c r="P4" s="20"/>
-      <c r="Q4" s="20"/>
-      <c r="R4" s="20"/>
-      <c r="S4" s="20"/>
-      <c r="T4" s="20"/>
-      <c r="U4" s="20"/>
-      <c r="V4" s="20"/>
-      <c r="W4" s="20"/>
-      <c r="X4" s="20"/>
-      <c r="Y4" s="20"/>
-      <c r="Z4" s="20"/>
-      <c r="AA4" s="20"/>
-      <c r="AB4" s="20"/>
-      <c r="AC4" s="20"/>
-      <c r="AD4" s="20"/>
-      <c r="AE4" s="20"/>
-      <c r="AF4" s="20"/>
-      <c r="AG4" s="20"/>
-      <c r="AH4" s="20"/>
-      <c r="AI4" s="20"/>
-      <c r="AJ4" s="20"/>
-      <c r="AK4" s="20"/>
-      <c r="AL4" s="20"/>
-      <c r="AM4" s="20"/>
-      <c r="AN4" s="21"/>
-      <c r="AO4" s="19" t="s">
+      <c r="N4" s="17"/>
+      <c r="O4" s="17"/>
+      <c r="P4" s="17"/>
+      <c r="Q4" s="17"/>
+      <c r="R4" s="17"/>
+      <c r="S4" s="17"/>
+      <c r="T4" s="17"/>
+      <c r="U4" s="17"/>
+      <c r="V4" s="17"/>
+      <c r="W4" s="17"/>
+      <c r="X4" s="17"/>
+      <c r="Y4" s="17"/>
+      <c r="Z4" s="17"/>
+      <c r="AA4" s="17"/>
+      <c r="AB4" s="17"/>
+      <c r="AC4" s="17"/>
+      <c r="AD4" s="17"/>
+      <c r="AE4" s="17"/>
+      <c r="AF4" s="17"/>
+      <c r="AG4" s="17"/>
+      <c r="AH4" s="17"/>
+      <c r="AI4" s="17"/>
+      <c r="AJ4" s="17"/>
+      <c r="AK4" s="17"/>
+      <c r="AL4" s="17"/>
+      <c r="AM4" s="17"/>
+      <c r="AN4" s="18"/>
+      <c r="AO4" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="AP4" s="20"/>
-      <c r="AQ4" s="20"/>
-      <c r="AR4" s="20"/>
-      <c r="AS4" s="20"/>
-      <c r="AT4" s="20"/>
-      <c r="AU4" s="20"/>
-      <c r="AV4" s="21"/>
+      <c r="AP4" s="17"/>
+      <c r="AQ4" s="17"/>
+      <c r="AR4" s="17"/>
+      <c r="AS4" s="17"/>
+      <c r="AT4" s="17"/>
+      <c r="AU4" s="17"/>
+      <c r="AV4" s="18"/>
     </row>
     <row r="5" spans="1:59" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="9">
+      <c r="A5" s="23">
         <v>43884</v>
       </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="29" t="s">
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="29"/>
-      <c r="K5" s="29"/>
-      <c r="L5" s="29"/>
-      <c r="M5" s="22" t="s">
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="N5" s="23"/>
-      <c r="O5" s="23"/>
-      <c r="P5" s="23"/>
-      <c r="Q5" s="23"/>
-      <c r="R5" s="23"/>
-      <c r="S5" s="23"/>
-      <c r="T5" s="23"/>
-      <c r="U5" s="23"/>
-      <c r="V5" s="23"/>
-      <c r="W5" s="23"/>
-      <c r="X5" s="23"/>
-      <c r="Y5" s="23"/>
-      <c r="Z5" s="23"/>
-      <c r="AA5" s="23"/>
-      <c r="AB5" s="23"/>
-      <c r="AC5" s="23"/>
-      <c r="AD5" s="23"/>
-      <c r="AE5" s="23"/>
-      <c r="AF5" s="23"/>
-      <c r="AG5" s="23"/>
-      <c r="AH5" s="23"/>
-      <c r="AI5" s="23"/>
-      <c r="AJ5" s="23"/>
-      <c r="AK5" s="23"/>
-      <c r="AL5" s="23"/>
-      <c r="AM5" s="23"/>
-      <c r="AN5" s="24"/>
-      <c r="AO5" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="AP5" s="23"/>
-      <c r="AQ5" s="23"/>
-      <c r="AR5" s="23"/>
-      <c r="AS5" s="23"/>
-      <c r="AT5" s="23"/>
-      <c r="AU5" s="23"/>
-      <c r="AV5" s="24"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="13"/>
+      <c r="P5" s="13"/>
+      <c r="Q5" s="13"/>
+      <c r="R5" s="13"/>
+      <c r="S5" s="13"/>
+      <c r="T5" s="13"/>
+      <c r="U5" s="13"/>
+      <c r="V5" s="13"/>
+      <c r="W5" s="13"/>
+      <c r="X5" s="13"/>
+      <c r="Y5" s="13"/>
+      <c r="Z5" s="13"/>
+      <c r="AA5" s="13"/>
+      <c r="AB5" s="13"/>
+      <c r="AC5" s="13"/>
+      <c r="AD5" s="13"/>
+      <c r="AE5" s="13"/>
+      <c r="AF5" s="13"/>
+      <c r="AG5" s="13"/>
+      <c r="AH5" s="13"/>
+      <c r="AI5" s="13"/>
+      <c r="AJ5" s="13"/>
+      <c r="AK5" s="13"/>
+      <c r="AL5" s="13"/>
+      <c r="AM5" s="13"/>
+      <c r="AN5" s="14"/>
+      <c r="AO5" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="AP5" s="13"/>
+      <c r="AQ5" s="13"/>
+      <c r="AR5" s="13"/>
+      <c r="AS5" s="13"/>
+      <c r="AT5" s="13"/>
+      <c r="AU5" s="13"/>
+      <c r="AV5" s="14"/>
     </row>
     <row r="6" spans="1:59" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
-      <c r="L6" s="25"/>
-      <c r="M6" s="22"/>
-      <c r="N6" s="23"/>
-      <c r="O6" s="23"/>
-      <c r="P6" s="23"/>
-      <c r="Q6" s="23"/>
-      <c r="R6" s="23"/>
-      <c r="S6" s="23"/>
-      <c r="T6" s="23"/>
-      <c r="U6" s="23"/>
-      <c r="V6" s="23"/>
-      <c r="W6" s="23"/>
-      <c r="X6" s="23"/>
-      <c r="Y6" s="23"/>
-      <c r="Z6" s="23"/>
-      <c r="AA6" s="23"/>
-      <c r="AB6" s="23"/>
-      <c r="AC6" s="23"/>
-      <c r="AD6" s="23"/>
-      <c r="AE6" s="23"/>
-      <c r="AF6" s="23"/>
-      <c r="AG6" s="23"/>
-      <c r="AH6" s="23"/>
-      <c r="AI6" s="23"/>
-      <c r="AJ6" s="23"/>
-      <c r="AK6" s="23"/>
-      <c r="AL6" s="23"/>
-      <c r="AM6" s="23"/>
-      <c r="AN6" s="24"/>
-      <c r="AO6" s="22"/>
-      <c r="AP6" s="23"/>
-      <c r="AQ6" s="23"/>
-      <c r="AR6" s="23"/>
-      <c r="AS6" s="23"/>
-      <c r="AT6" s="23"/>
-      <c r="AU6" s="23"/>
-      <c r="AV6" s="24"/>
+      <c r="A6" s="11"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="13"/>
+      <c r="Q6" s="13"/>
+      <c r="R6" s="13"/>
+      <c r="S6" s="13"/>
+      <c r="T6" s="13"/>
+      <c r="U6" s="13"/>
+      <c r="V6" s="13"/>
+      <c r="W6" s="13"/>
+      <c r="X6" s="13"/>
+      <c r="Y6" s="13"/>
+      <c r="Z6" s="13"/>
+      <c r="AA6" s="13"/>
+      <c r="AB6" s="13"/>
+      <c r="AC6" s="13"/>
+      <c r="AD6" s="13"/>
+      <c r="AE6" s="13"/>
+      <c r="AF6" s="13"/>
+      <c r="AG6" s="13"/>
+      <c r="AH6" s="13"/>
+      <c r="AI6" s="13"/>
+      <c r="AJ6" s="13"/>
+      <c r="AK6" s="13"/>
+      <c r="AL6" s="13"/>
+      <c r="AM6" s="13"/>
+      <c r="AN6" s="14"/>
+      <c r="AO6" s="12"/>
+      <c r="AP6" s="13"/>
+      <c r="AQ6" s="13"/>
+      <c r="AR6" s="13"/>
+      <c r="AS6" s="13"/>
+      <c r="AT6" s="13"/>
+      <c r="AU6" s="13"/>
+      <c r="AV6" s="14"/>
     </row>
     <row r="7" spans="1:59" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="25"/>
-      <c r="J7" s="25"/>
-      <c r="K7" s="25"/>
-      <c r="L7" s="25"/>
-      <c r="M7" s="22"/>
-      <c r="N7" s="23"/>
-      <c r="O7" s="23"/>
-      <c r="P7" s="23"/>
-      <c r="Q7" s="23"/>
-      <c r="R7" s="23"/>
-      <c r="S7" s="23"/>
-      <c r="T7" s="23"/>
-      <c r="U7" s="23"/>
-      <c r="V7" s="23"/>
-      <c r="W7" s="23"/>
-      <c r="X7" s="23"/>
-      <c r="Y7" s="23"/>
-      <c r="Z7" s="23"/>
-      <c r="AA7" s="23"/>
-      <c r="AB7" s="23"/>
-      <c r="AC7" s="23"/>
-      <c r="AD7" s="23"/>
-      <c r="AE7" s="23"/>
-      <c r="AF7" s="23"/>
-      <c r="AG7" s="23"/>
-      <c r="AH7" s="23"/>
-      <c r="AI7" s="23"/>
-      <c r="AJ7" s="23"/>
-      <c r="AK7" s="23"/>
-      <c r="AL7" s="23"/>
-      <c r="AM7" s="23"/>
-      <c r="AN7" s="24"/>
-      <c r="AO7" s="22"/>
-      <c r="AP7" s="23"/>
-      <c r="AQ7" s="23"/>
-      <c r="AR7" s="23"/>
-      <c r="AS7" s="23"/>
-      <c r="AT7" s="23"/>
-      <c r="AU7" s="23"/>
-      <c r="AV7" s="24"/>
+      <c r="A7" s="11"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="13"/>
+      <c r="P7" s="13"/>
+      <c r="Q7" s="13"/>
+      <c r="R7" s="13"/>
+      <c r="S7" s="13"/>
+      <c r="T7" s="13"/>
+      <c r="U7" s="13"/>
+      <c r="V7" s="13"/>
+      <c r="W7" s="13"/>
+      <c r="X7" s="13"/>
+      <c r="Y7" s="13"/>
+      <c r="Z7" s="13"/>
+      <c r="AA7" s="13"/>
+      <c r="AB7" s="13"/>
+      <c r="AC7" s="13"/>
+      <c r="AD7" s="13"/>
+      <c r="AE7" s="13"/>
+      <c r="AF7" s="13"/>
+      <c r="AG7" s="13"/>
+      <c r="AH7" s="13"/>
+      <c r="AI7" s="13"/>
+      <c r="AJ7" s="13"/>
+      <c r="AK7" s="13"/>
+      <c r="AL7" s="13"/>
+      <c r="AM7" s="13"/>
+      <c r="AN7" s="14"/>
+      <c r="AO7" s="12"/>
+      <c r="AP7" s="13"/>
+      <c r="AQ7" s="13"/>
+      <c r="AR7" s="13"/>
+      <c r="AS7" s="13"/>
+      <c r="AT7" s="13"/>
+      <c r="AU7" s="13"/>
+      <c r="AV7" s="14"/>
     </row>
     <row r="8" spans="1:59" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="25"/>
-      <c r="J8" s="25"/>
-      <c r="K8" s="25"/>
-      <c r="L8" s="25"/>
-      <c r="M8" s="22"/>
-      <c r="N8" s="23"/>
-      <c r="O8" s="23"/>
-      <c r="P8" s="23"/>
-      <c r="Q8" s="23"/>
-      <c r="R8" s="23"/>
-      <c r="S8" s="23"/>
-      <c r="T8" s="23"/>
-      <c r="U8" s="23"/>
-      <c r="V8" s="23"/>
-      <c r="W8" s="23"/>
-      <c r="X8" s="23"/>
-      <c r="Y8" s="23"/>
-      <c r="Z8" s="23"/>
-      <c r="AA8" s="23"/>
-      <c r="AB8" s="23"/>
-      <c r="AC8" s="23"/>
-      <c r="AD8" s="23"/>
-      <c r="AE8" s="23"/>
-      <c r="AF8" s="23"/>
-      <c r="AG8" s="23"/>
-      <c r="AH8" s="23"/>
-      <c r="AI8" s="23"/>
-      <c r="AJ8" s="23"/>
-      <c r="AK8" s="23"/>
-      <c r="AL8" s="23"/>
-      <c r="AM8" s="23"/>
-      <c r="AN8" s="24"/>
-      <c r="AO8" s="22"/>
-      <c r="AP8" s="23"/>
-      <c r="AQ8" s="23"/>
-      <c r="AR8" s="23"/>
-      <c r="AS8" s="23"/>
-      <c r="AT8" s="23"/>
-      <c r="AU8" s="23"/>
-      <c r="AV8" s="24"/>
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="13"/>
+      <c r="P8" s="13"/>
+      <c r="Q8" s="13"/>
+      <c r="R8" s="13"/>
+      <c r="S8" s="13"/>
+      <c r="T8" s="13"/>
+      <c r="U8" s="13"/>
+      <c r="V8" s="13"/>
+      <c r="W8" s="13"/>
+      <c r="X8" s="13"/>
+      <c r="Y8" s="13"/>
+      <c r="Z8" s="13"/>
+      <c r="AA8" s="13"/>
+      <c r="AB8" s="13"/>
+      <c r="AC8" s="13"/>
+      <c r="AD8" s="13"/>
+      <c r="AE8" s="13"/>
+      <c r="AF8" s="13"/>
+      <c r="AG8" s="13"/>
+      <c r="AH8" s="13"/>
+      <c r="AI8" s="13"/>
+      <c r="AJ8" s="13"/>
+      <c r="AK8" s="13"/>
+      <c r="AL8" s="13"/>
+      <c r="AM8" s="13"/>
+      <c r="AN8" s="14"/>
+      <c r="AO8" s="12"/>
+      <c r="AP8" s="13"/>
+      <c r="AQ8" s="13"/>
+      <c r="AR8" s="13"/>
+      <c r="AS8" s="13"/>
+      <c r="AT8" s="13"/>
+      <c r="AU8" s="13"/>
+      <c r="AV8" s="14"/>
     </row>
     <row r="9" spans="1:59" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="25"/>
-      <c r="J9" s="25"/>
-      <c r="K9" s="25"/>
-      <c r="L9" s="25"/>
-      <c r="M9" s="22"/>
-      <c r="N9" s="23"/>
-      <c r="O9" s="23"/>
-      <c r="P9" s="23"/>
-      <c r="Q9" s="23"/>
-      <c r="R9" s="23"/>
-      <c r="S9" s="23"/>
-      <c r="T9" s="23"/>
-      <c r="U9" s="23"/>
-      <c r="V9" s="23"/>
-      <c r="W9" s="23"/>
-      <c r="X9" s="23"/>
-      <c r="Y9" s="23"/>
-      <c r="Z9" s="23"/>
-      <c r="AA9" s="23"/>
-      <c r="AB9" s="23"/>
-      <c r="AC9" s="23"/>
-      <c r="AD9" s="23"/>
-      <c r="AE9" s="23"/>
-      <c r="AF9" s="23"/>
-      <c r="AG9" s="23"/>
-      <c r="AH9" s="23"/>
-      <c r="AI9" s="23"/>
-      <c r="AJ9" s="23"/>
-      <c r="AK9" s="23"/>
-      <c r="AL9" s="23"/>
-      <c r="AM9" s="23"/>
-      <c r="AN9" s="24"/>
-      <c r="AO9" s="22"/>
-      <c r="AP9" s="23"/>
-      <c r="AQ9" s="23"/>
-      <c r="AR9" s="23"/>
-      <c r="AS9" s="23"/>
-      <c r="AT9" s="23"/>
-      <c r="AU9" s="23"/>
-      <c r="AV9" s="24"/>
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="13"/>
+      <c r="O9" s="13"/>
+      <c r="P9" s="13"/>
+      <c r="Q9" s="13"/>
+      <c r="R9" s="13"/>
+      <c r="S9" s="13"/>
+      <c r="T9" s="13"/>
+      <c r="U9" s="13"/>
+      <c r="V9" s="13"/>
+      <c r="W9" s="13"/>
+      <c r="X9" s="13"/>
+      <c r="Y9" s="13"/>
+      <c r="Z9" s="13"/>
+      <c r="AA9" s="13"/>
+      <c r="AB9" s="13"/>
+      <c r="AC9" s="13"/>
+      <c r="AD9" s="13"/>
+      <c r="AE9" s="13"/>
+      <c r="AF9" s="13"/>
+      <c r="AG9" s="13"/>
+      <c r="AH9" s="13"/>
+      <c r="AI9" s="13"/>
+      <c r="AJ9" s="13"/>
+      <c r="AK9" s="13"/>
+      <c r="AL9" s="13"/>
+      <c r="AM9" s="13"/>
+      <c r="AN9" s="14"/>
+      <c r="AO9" s="12"/>
+      <c r="AP9" s="13"/>
+      <c r="AQ9" s="13"/>
+      <c r="AR9" s="13"/>
+      <c r="AS9" s="13"/>
+      <c r="AT9" s="13"/>
+      <c r="AU9" s="13"/>
+      <c r="AV9" s="14"/>
     </row>
     <row r="10" spans="1:59" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="25"/>
-      <c r="J10" s="25"/>
-      <c r="K10" s="25"/>
-      <c r="L10" s="25"/>
-      <c r="M10" s="22"/>
-      <c r="N10" s="23"/>
-      <c r="O10" s="23"/>
-      <c r="P10" s="23"/>
-      <c r="Q10" s="23"/>
-      <c r="R10" s="23"/>
-      <c r="S10" s="23"/>
-      <c r="T10" s="23"/>
-      <c r="U10" s="23"/>
-      <c r="V10" s="23"/>
-      <c r="W10" s="23"/>
-      <c r="X10" s="23"/>
-      <c r="Y10" s="23"/>
-      <c r="Z10" s="23"/>
-      <c r="AA10" s="23"/>
-      <c r="AB10" s="23"/>
-      <c r="AC10" s="23"/>
-      <c r="AD10" s="23"/>
-      <c r="AE10" s="23"/>
-      <c r="AF10" s="23"/>
-      <c r="AG10" s="23"/>
-      <c r="AH10" s="23"/>
-      <c r="AI10" s="23"/>
-      <c r="AJ10" s="23"/>
-      <c r="AK10" s="23"/>
-      <c r="AL10" s="23"/>
-      <c r="AM10" s="23"/>
-      <c r="AN10" s="24"/>
-      <c r="AO10" s="22"/>
-      <c r="AP10" s="23"/>
-      <c r="AQ10" s="23"/>
-      <c r="AR10" s="23"/>
-      <c r="AS10" s="23"/>
-      <c r="AT10" s="23"/>
-      <c r="AU10" s="23"/>
-      <c r="AV10" s="24"/>
+      <c r="A10" s="11"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="13"/>
+      <c r="P10" s="13"/>
+      <c r="Q10" s="13"/>
+      <c r="R10" s="13"/>
+      <c r="S10" s="13"/>
+      <c r="T10" s="13"/>
+      <c r="U10" s="13"/>
+      <c r="V10" s="13"/>
+      <c r="W10" s="13"/>
+      <c r="X10" s="13"/>
+      <c r="Y10" s="13"/>
+      <c r="Z10" s="13"/>
+      <c r="AA10" s="13"/>
+      <c r="AB10" s="13"/>
+      <c r="AC10" s="13"/>
+      <c r="AD10" s="13"/>
+      <c r="AE10" s="13"/>
+      <c r="AF10" s="13"/>
+      <c r="AG10" s="13"/>
+      <c r="AH10" s="13"/>
+      <c r="AI10" s="13"/>
+      <c r="AJ10" s="13"/>
+      <c r="AK10" s="13"/>
+      <c r="AL10" s="13"/>
+      <c r="AM10" s="13"/>
+      <c r="AN10" s="14"/>
+      <c r="AO10" s="12"/>
+      <c r="AP10" s="13"/>
+      <c r="AQ10" s="13"/>
+      <c r="AR10" s="13"/>
+      <c r="AS10" s="13"/>
+      <c r="AT10" s="13"/>
+      <c r="AU10" s="13"/>
+      <c r="AV10" s="14"/>
     </row>
     <row r="11" spans="1:59" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="25"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="25"/>
-      <c r="M11" s="22"/>
-      <c r="N11" s="23"/>
-      <c r="O11" s="23"/>
-      <c r="P11" s="23"/>
-      <c r="Q11" s="23"/>
-      <c r="R11" s="23"/>
-      <c r="S11" s="23"/>
-      <c r="T11" s="23"/>
-      <c r="U11" s="23"/>
-      <c r="V11" s="23"/>
-      <c r="W11" s="23"/>
-      <c r="X11" s="23"/>
-      <c r="Y11" s="23"/>
-      <c r="Z11" s="23"/>
-      <c r="AA11" s="23"/>
-      <c r="AB11" s="23"/>
-      <c r="AC11" s="23"/>
-      <c r="AD11" s="23"/>
-      <c r="AE11" s="23"/>
-      <c r="AF11" s="23"/>
-      <c r="AG11" s="23"/>
-      <c r="AH11" s="23"/>
-      <c r="AI11" s="23"/>
-      <c r="AJ11" s="23"/>
-      <c r="AK11" s="23"/>
-      <c r="AL11" s="23"/>
-      <c r="AM11" s="23"/>
-      <c r="AN11" s="24"/>
-      <c r="AO11" s="22"/>
-      <c r="AP11" s="23"/>
-      <c r="AQ11" s="23"/>
-      <c r="AR11" s="23"/>
-      <c r="AS11" s="23"/>
-      <c r="AT11" s="23"/>
-      <c r="AU11" s="23"/>
-      <c r="AV11" s="24"/>
+      <c r="A11" s="11"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="13"/>
+      <c r="O11" s="13"/>
+      <c r="P11" s="13"/>
+      <c r="Q11" s="13"/>
+      <c r="R11" s="13"/>
+      <c r="S11" s="13"/>
+      <c r="T11" s="13"/>
+      <c r="U11" s="13"/>
+      <c r="V11" s="13"/>
+      <c r="W11" s="13"/>
+      <c r="X11" s="13"/>
+      <c r="Y11" s="13"/>
+      <c r="Z11" s="13"/>
+      <c r="AA11" s="13"/>
+      <c r="AB11" s="13"/>
+      <c r="AC11" s="13"/>
+      <c r="AD11" s="13"/>
+      <c r="AE11" s="13"/>
+      <c r="AF11" s="13"/>
+      <c r="AG11" s="13"/>
+      <c r="AH11" s="13"/>
+      <c r="AI11" s="13"/>
+      <c r="AJ11" s="13"/>
+      <c r="AK11" s="13"/>
+      <c r="AL11" s="13"/>
+      <c r="AM11" s="13"/>
+      <c r="AN11" s="14"/>
+      <c r="AO11" s="12"/>
+      <c r="AP11" s="13"/>
+      <c r="AQ11" s="13"/>
+      <c r="AR11" s="13"/>
+      <c r="AS11" s="13"/>
+      <c r="AT11" s="13"/>
+      <c r="AU11" s="13"/>
+      <c r="AV11" s="14"/>
     </row>
     <row r="12" spans="1:59" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="25"/>
-      <c r="M12" s="22"/>
-      <c r="N12" s="23"/>
-      <c r="O12" s="23"/>
-      <c r="P12" s="23"/>
-      <c r="Q12" s="23"/>
-      <c r="R12" s="23"/>
-      <c r="S12" s="23"/>
-      <c r="T12" s="23"/>
-      <c r="U12" s="23"/>
-      <c r="V12" s="23"/>
-      <c r="W12" s="23"/>
-      <c r="X12" s="23"/>
-      <c r="Y12" s="23"/>
-      <c r="Z12" s="23"/>
-      <c r="AA12" s="23"/>
-      <c r="AB12" s="23"/>
-      <c r="AC12" s="23"/>
-      <c r="AD12" s="23"/>
-      <c r="AE12" s="23"/>
-      <c r="AF12" s="23"/>
-      <c r="AG12" s="23"/>
-      <c r="AH12" s="23"/>
-      <c r="AI12" s="23"/>
-      <c r="AJ12" s="23"/>
-      <c r="AK12" s="23"/>
-      <c r="AL12" s="23"/>
-      <c r="AM12" s="23"/>
-      <c r="AN12" s="24"/>
-      <c r="AO12" s="22"/>
-      <c r="AP12" s="23"/>
-      <c r="AQ12" s="23"/>
-      <c r="AR12" s="23"/>
-      <c r="AS12" s="23"/>
-      <c r="AT12" s="23"/>
-      <c r="AU12" s="23"/>
-      <c r="AV12" s="24"/>
+      <c r="A12" s="11"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="13"/>
+      <c r="O12" s="13"/>
+      <c r="P12" s="13"/>
+      <c r="Q12" s="13"/>
+      <c r="R12" s="13"/>
+      <c r="S12" s="13"/>
+      <c r="T12" s="13"/>
+      <c r="U12" s="13"/>
+      <c r="V12" s="13"/>
+      <c r="W12" s="13"/>
+      <c r="X12" s="13"/>
+      <c r="Y12" s="13"/>
+      <c r="Z12" s="13"/>
+      <c r="AA12" s="13"/>
+      <c r="AB12" s="13"/>
+      <c r="AC12" s="13"/>
+      <c r="AD12" s="13"/>
+      <c r="AE12" s="13"/>
+      <c r="AF12" s="13"/>
+      <c r="AG12" s="13"/>
+      <c r="AH12" s="13"/>
+      <c r="AI12" s="13"/>
+      <c r="AJ12" s="13"/>
+      <c r="AK12" s="13"/>
+      <c r="AL12" s="13"/>
+      <c r="AM12" s="13"/>
+      <c r="AN12" s="14"/>
+      <c r="AO12" s="12"/>
+      <c r="AP12" s="13"/>
+      <c r="AQ12" s="13"/>
+      <c r="AR12" s="13"/>
+      <c r="AS12" s="13"/>
+      <c r="AT12" s="13"/>
+      <c r="AU12" s="13"/>
+      <c r="AV12" s="14"/>
     </row>
     <row r="13" spans="1:59" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="25"/>
-      <c r="K13" s="25"/>
-      <c r="L13" s="25"/>
-      <c r="M13" s="22"/>
-      <c r="N13" s="23"/>
-      <c r="O13" s="23"/>
-      <c r="P13" s="23"/>
-      <c r="Q13" s="23"/>
-      <c r="R13" s="23"/>
-      <c r="S13" s="23"/>
-      <c r="T13" s="23"/>
-      <c r="U13" s="23"/>
-      <c r="V13" s="23"/>
-      <c r="W13" s="23"/>
-      <c r="X13" s="23"/>
-      <c r="Y13" s="23"/>
-      <c r="Z13" s="23"/>
-      <c r="AA13" s="23"/>
-      <c r="AB13" s="23"/>
-      <c r="AC13" s="23"/>
-      <c r="AD13" s="23"/>
-      <c r="AE13" s="23"/>
-      <c r="AF13" s="23"/>
-      <c r="AG13" s="23"/>
-      <c r="AH13" s="23"/>
-      <c r="AI13" s="23"/>
-      <c r="AJ13" s="23"/>
-      <c r="AK13" s="23"/>
-      <c r="AL13" s="23"/>
-      <c r="AM13" s="23"/>
-      <c r="AN13" s="24"/>
-      <c r="AO13" s="22"/>
-      <c r="AP13" s="23"/>
-      <c r="AQ13" s="23"/>
-      <c r="AR13" s="23"/>
-      <c r="AS13" s="23"/>
-      <c r="AT13" s="23"/>
-      <c r="AU13" s="23"/>
-      <c r="AV13" s="24"/>
+      <c r="A13" s="11"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="13"/>
+      <c r="O13" s="13"/>
+      <c r="P13" s="13"/>
+      <c r="Q13" s="13"/>
+      <c r="R13" s="13"/>
+      <c r="S13" s="13"/>
+      <c r="T13" s="13"/>
+      <c r="U13" s="13"/>
+      <c r="V13" s="13"/>
+      <c r="W13" s="13"/>
+      <c r="X13" s="13"/>
+      <c r="Y13" s="13"/>
+      <c r="Z13" s="13"/>
+      <c r="AA13" s="13"/>
+      <c r="AB13" s="13"/>
+      <c r="AC13" s="13"/>
+      <c r="AD13" s="13"/>
+      <c r="AE13" s="13"/>
+      <c r="AF13" s="13"/>
+      <c r="AG13" s="13"/>
+      <c r="AH13" s="13"/>
+      <c r="AI13" s="13"/>
+      <c r="AJ13" s="13"/>
+      <c r="AK13" s="13"/>
+      <c r="AL13" s="13"/>
+      <c r="AM13" s="13"/>
+      <c r="AN13" s="14"/>
+      <c r="AO13" s="12"/>
+      <c r="AP13" s="13"/>
+      <c r="AQ13" s="13"/>
+      <c r="AR13" s="13"/>
+      <c r="AS13" s="13"/>
+      <c r="AT13" s="13"/>
+      <c r="AU13" s="13"/>
+      <c r="AV13" s="14"/>
     </row>
     <row r="14" spans="1:59" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="25"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="25"/>
-      <c r="M14" s="22"/>
-      <c r="N14" s="23"/>
-      <c r="O14" s="23"/>
-      <c r="P14" s="23"/>
-      <c r="Q14" s="23"/>
-      <c r="R14" s="23"/>
-      <c r="S14" s="23"/>
-      <c r="T14" s="23"/>
-      <c r="U14" s="23"/>
-      <c r="V14" s="23"/>
-      <c r="W14" s="23"/>
-      <c r="X14" s="23"/>
-      <c r="Y14" s="23"/>
-      <c r="Z14" s="23"/>
-      <c r="AA14" s="23"/>
-      <c r="AB14" s="23"/>
-      <c r="AC14" s="23"/>
-      <c r="AD14" s="23"/>
-      <c r="AE14" s="23"/>
-      <c r="AF14" s="23"/>
-      <c r="AG14" s="23"/>
-      <c r="AH14" s="23"/>
-      <c r="AI14" s="23"/>
-      <c r="AJ14" s="23"/>
-      <c r="AK14" s="23"/>
-      <c r="AL14" s="23"/>
-      <c r="AM14" s="23"/>
-      <c r="AN14" s="24"/>
-      <c r="AO14" s="22"/>
-      <c r="AP14" s="23"/>
-      <c r="AQ14" s="23"/>
-      <c r="AR14" s="23"/>
-      <c r="AS14" s="23"/>
-      <c r="AT14" s="23"/>
-      <c r="AU14" s="23"/>
-      <c r="AV14" s="24"/>
+      <c r="A14" s="11"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="13"/>
+      <c r="O14" s="13"/>
+      <c r="P14" s="13"/>
+      <c r="Q14" s="13"/>
+      <c r="R14" s="13"/>
+      <c r="S14" s="13"/>
+      <c r="T14" s="13"/>
+      <c r="U14" s="13"/>
+      <c r="V14" s="13"/>
+      <c r="W14" s="13"/>
+      <c r="X14" s="13"/>
+      <c r="Y14" s="13"/>
+      <c r="Z14" s="13"/>
+      <c r="AA14" s="13"/>
+      <c r="AB14" s="13"/>
+      <c r="AC14" s="13"/>
+      <c r="AD14" s="13"/>
+      <c r="AE14" s="13"/>
+      <c r="AF14" s="13"/>
+      <c r="AG14" s="13"/>
+      <c r="AH14" s="13"/>
+      <c r="AI14" s="13"/>
+      <c r="AJ14" s="13"/>
+      <c r="AK14" s="13"/>
+      <c r="AL14" s="13"/>
+      <c r="AM14" s="13"/>
+      <c r="AN14" s="14"/>
+      <c r="AO14" s="12"/>
+      <c r="AP14" s="13"/>
+      <c r="AQ14" s="13"/>
+      <c r="AR14" s="13"/>
+      <c r="AS14" s="13"/>
+      <c r="AT14" s="13"/>
+      <c r="AU14" s="13"/>
+      <c r="AV14" s="14"/>
     </row>
     <row r="15" spans="1:59" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="25"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="25"/>
-      <c r="M15" s="22"/>
-      <c r="N15" s="23"/>
-      <c r="O15" s="23"/>
-      <c r="P15" s="23"/>
-      <c r="Q15" s="23"/>
-      <c r="R15" s="23"/>
-      <c r="S15" s="23"/>
-      <c r="T15" s="23"/>
-      <c r="U15" s="23"/>
-      <c r="V15" s="23"/>
-      <c r="W15" s="23"/>
-      <c r="X15" s="23"/>
-      <c r="Y15" s="23"/>
-      <c r="Z15" s="23"/>
-      <c r="AA15" s="23"/>
-      <c r="AB15" s="23"/>
-      <c r="AC15" s="23"/>
-      <c r="AD15" s="23"/>
-      <c r="AE15" s="23"/>
-      <c r="AF15" s="23"/>
-      <c r="AG15" s="23"/>
-      <c r="AH15" s="23"/>
-      <c r="AI15" s="23"/>
-      <c r="AJ15" s="23"/>
-      <c r="AK15" s="23"/>
-      <c r="AL15" s="23"/>
-      <c r="AM15" s="23"/>
-      <c r="AN15" s="24"/>
-      <c r="AO15" s="22"/>
-      <c r="AP15" s="23"/>
-      <c r="AQ15" s="23"/>
-      <c r="AR15" s="23"/>
-      <c r="AS15" s="23"/>
-      <c r="AT15" s="23"/>
-      <c r="AU15" s="23"/>
-      <c r="AV15" s="24"/>
+      <c r="A15" s="11"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="13"/>
+      <c r="O15" s="13"/>
+      <c r="P15" s="13"/>
+      <c r="Q15" s="13"/>
+      <c r="R15" s="13"/>
+      <c r="S15" s="13"/>
+      <c r="T15" s="13"/>
+      <c r="U15" s="13"/>
+      <c r="V15" s="13"/>
+      <c r="W15" s="13"/>
+      <c r="X15" s="13"/>
+      <c r="Y15" s="13"/>
+      <c r="Z15" s="13"/>
+      <c r="AA15" s="13"/>
+      <c r="AB15" s="13"/>
+      <c r="AC15" s="13"/>
+      <c r="AD15" s="13"/>
+      <c r="AE15" s="13"/>
+      <c r="AF15" s="13"/>
+      <c r="AG15" s="13"/>
+      <c r="AH15" s="13"/>
+      <c r="AI15" s="13"/>
+      <c r="AJ15" s="13"/>
+      <c r="AK15" s="13"/>
+      <c r="AL15" s="13"/>
+      <c r="AM15" s="13"/>
+      <c r="AN15" s="14"/>
+      <c r="AO15" s="12"/>
+      <c r="AP15" s="13"/>
+      <c r="AQ15" s="13"/>
+      <c r="AR15" s="13"/>
+      <c r="AS15" s="13"/>
+      <c r="AT15" s="13"/>
+      <c r="AU15" s="13"/>
+      <c r="AV15" s="14"/>
     </row>
     <row r="16" spans="1:59" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="25"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="25"/>
-      <c r="M16" s="22"/>
-      <c r="N16" s="23"/>
-      <c r="O16" s="23"/>
-      <c r="P16" s="23"/>
-      <c r="Q16" s="23"/>
-      <c r="R16" s="23"/>
-      <c r="S16" s="23"/>
-      <c r="T16" s="23"/>
-      <c r="U16" s="23"/>
-      <c r="V16" s="23"/>
-      <c r="W16" s="23"/>
-      <c r="X16" s="23"/>
-      <c r="Y16" s="23"/>
-      <c r="Z16" s="23"/>
-      <c r="AA16" s="23"/>
-      <c r="AB16" s="23"/>
-      <c r="AC16" s="23"/>
-      <c r="AD16" s="23"/>
-      <c r="AE16" s="23"/>
-      <c r="AF16" s="23"/>
-      <c r="AG16" s="23"/>
-      <c r="AH16" s="23"/>
-      <c r="AI16" s="23"/>
-      <c r="AJ16" s="23"/>
-      <c r="AK16" s="23"/>
-      <c r="AL16" s="23"/>
-      <c r="AM16" s="23"/>
-      <c r="AN16" s="24"/>
-      <c r="AO16" s="22"/>
-      <c r="AP16" s="23"/>
-      <c r="AQ16" s="23"/>
-      <c r="AR16" s="23"/>
-      <c r="AS16" s="23"/>
-      <c r="AT16" s="23"/>
-      <c r="AU16" s="23"/>
-      <c r="AV16" s="24"/>
+      <c r="A16" s="11"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="15"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="13"/>
+      <c r="O16" s="13"/>
+      <c r="P16" s="13"/>
+      <c r="Q16" s="13"/>
+      <c r="R16" s="13"/>
+      <c r="S16" s="13"/>
+      <c r="T16" s="13"/>
+      <c r="U16" s="13"/>
+      <c r="V16" s="13"/>
+      <c r="W16" s="13"/>
+      <c r="X16" s="13"/>
+      <c r="Y16" s="13"/>
+      <c r="Z16" s="13"/>
+      <c r="AA16" s="13"/>
+      <c r="AB16" s="13"/>
+      <c r="AC16" s="13"/>
+      <c r="AD16" s="13"/>
+      <c r="AE16" s="13"/>
+      <c r="AF16" s="13"/>
+      <c r="AG16" s="13"/>
+      <c r="AH16" s="13"/>
+      <c r="AI16" s="13"/>
+      <c r="AJ16" s="13"/>
+      <c r="AK16" s="13"/>
+      <c r="AL16" s="13"/>
+      <c r="AM16" s="13"/>
+      <c r="AN16" s="14"/>
+      <c r="AO16" s="12"/>
+      <c r="AP16" s="13"/>
+      <c r="AQ16" s="13"/>
+      <c r="AR16" s="13"/>
+      <c r="AS16" s="13"/>
+      <c r="AT16" s="13"/>
+      <c r="AU16" s="13"/>
+      <c r="AV16" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="67">
-    <mergeCell ref="AX2:BB2"/>
-    <mergeCell ref="AX3:BB3"/>
-    <mergeCell ref="BC2:BG2"/>
-    <mergeCell ref="BC3:BG3"/>
-    <mergeCell ref="AO10:AV10"/>
-    <mergeCell ref="AO6:AV6"/>
-    <mergeCell ref="AO7:AV7"/>
-    <mergeCell ref="AO8:AV8"/>
-    <mergeCell ref="AO9:AV9"/>
-    <mergeCell ref="AO16:AV16"/>
-    <mergeCell ref="AO11:AV11"/>
-    <mergeCell ref="AO12:AV12"/>
-    <mergeCell ref="AO13:AV13"/>
-    <mergeCell ref="AO14:AV14"/>
-    <mergeCell ref="AO15:AV15"/>
-    <mergeCell ref="I16:L16"/>
-    <mergeCell ref="M4:AN4"/>
-    <mergeCell ref="M5:AN5"/>
-    <mergeCell ref="M6:AN6"/>
-    <mergeCell ref="M7:AN7"/>
-    <mergeCell ref="M8:AN8"/>
-    <mergeCell ref="M9:AN9"/>
-    <mergeCell ref="M10:AN10"/>
-    <mergeCell ref="M11:AN11"/>
-    <mergeCell ref="M12:AN12"/>
-    <mergeCell ref="M13:AN13"/>
-    <mergeCell ref="M14:AN14"/>
-    <mergeCell ref="M15:AN15"/>
-    <mergeCell ref="M16:AN16"/>
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="A5:H5"/>
+    <mergeCell ref="AO2:AV2"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="I1:P1"/>
+    <mergeCell ref="Q1:X1"/>
+    <mergeCell ref="Y1:AF1"/>
+    <mergeCell ref="AG1:AN1"/>
+    <mergeCell ref="AO1:AV1"/>
+    <mergeCell ref="I2:P2"/>
+    <mergeCell ref="Q2:X2"/>
+    <mergeCell ref="Y2:AF2"/>
+    <mergeCell ref="AG2:AN2"/>
+    <mergeCell ref="AO4:AV4"/>
+    <mergeCell ref="AO5:AV5"/>
+    <mergeCell ref="A9:H9"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="A8:H8"/>
+    <mergeCell ref="I8:L8"/>
+    <mergeCell ref="A7:H7"/>
+    <mergeCell ref="I7:L7"/>
     <mergeCell ref="A16:H16"/>
     <mergeCell ref="I4:L4"/>
     <mergeCell ref="I5:L5"/>
@@ -2057,28 +2062,35 @@
     <mergeCell ref="I11:L11"/>
     <mergeCell ref="A10:H10"/>
     <mergeCell ref="I10:L10"/>
-    <mergeCell ref="A9:H9"/>
-    <mergeCell ref="I9:L9"/>
-    <mergeCell ref="A8:H8"/>
-    <mergeCell ref="I8:L8"/>
-    <mergeCell ref="A7:H7"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="A6:H6"/>
-    <mergeCell ref="A5:H5"/>
-    <mergeCell ref="AO2:AV2"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="A1:H2"/>
-    <mergeCell ref="I1:P1"/>
-    <mergeCell ref="Q1:X1"/>
-    <mergeCell ref="Y1:AF1"/>
-    <mergeCell ref="AG1:AN1"/>
-    <mergeCell ref="AO1:AV1"/>
-    <mergeCell ref="I2:P2"/>
-    <mergeCell ref="Q2:X2"/>
-    <mergeCell ref="Y2:AF2"/>
-    <mergeCell ref="AG2:AN2"/>
-    <mergeCell ref="AO4:AV4"/>
-    <mergeCell ref="AO5:AV5"/>
+    <mergeCell ref="I16:L16"/>
+    <mergeCell ref="M4:AN4"/>
+    <mergeCell ref="M5:AN5"/>
+    <mergeCell ref="M6:AN6"/>
+    <mergeCell ref="M7:AN7"/>
+    <mergeCell ref="M8:AN8"/>
+    <mergeCell ref="M9:AN9"/>
+    <mergeCell ref="M10:AN10"/>
+    <mergeCell ref="M11:AN11"/>
+    <mergeCell ref="M12:AN12"/>
+    <mergeCell ref="M13:AN13"/>
+    <mergeCell ref="M14:AN14"/>
+    <mergeCell ref="M15:AN15"/>
+    <mergeCell ref="M16:AN16"/>
+    <mergeCell ref="AO16:AV16"/>
+    <mergeCell ref="AO11:AV11"/>
+    <mergeCell ref="AO12:AV12"/>
+    <mergeCell ref="AO13:AV13"/>
+    <mergeCell ref="AO14:AV14"/>
+    <mergeCell ref="AO15:AV15"/>
+    <mergeCell ref="AX2:BB2"/>
+    <mergeCell ref="AX3:BB3"/>
+    <mergeCell ref="BC2:BG2"/>
+    <mergeCell ref="BC3:BG3"/>
+    <mergeCell ref="AO10:AV10"/>
+    <mergeCell ref="AO6:AV6"/>
+    <mergeCell ref="AO7:AV7"/>
+    <mergeCell ref="AO8:AV8"/>
+    <mergeCell ref="AO9:AV9"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2089,13 +2101,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{029EB795-6DE7-4699-90E9-9D7E156E035F}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:N20"/>
+  <dimension ref="A1:N24"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="F12" sqref="F12"/>
+      <selection pane="bottomRight" activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -2170,7 +2182,7 @@
       <c r="C4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="32" t="s">
+      <c r="D4" s="9" t="s">
         <v>49</v>
       </c>
       <c r="E4" s="3" t="s">
@@ -2191,13 +2203,13 @@
       <c r="J4" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="K4" s="31">
+      <c r="K4" s="8">
         <v>43923</v>
       </c>
       <c r="L4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="M4" s="31">
+      <c r="M4" s="8">
         <v>43923</v>
       </c>
       <c r="N4" s="3" t="s">
@@ -2206,7 +2218,7 @@
     </row>
     <row r="5" spans="1:14" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="3">
-        <f t="shared" ref="A5:A20" si="0">IF(B5="","",ROW()-3)</f>
+        <f t="shared" ref="A5:A24" si="0">IF(B5="","",ROW()-3)</f>
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -2215,7 +2227,7 @@
       <c r="C5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="32" t="s">
+      <c r="D5" s="9" t="s">
         <v>49</v>
       </c>
       <c r="E5" s="3" t="s">
@@ -2236,13 +2248,13 @@
       <c r="J5" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="K5" s="31">
+      <c r="K5" s="8">
         <v>43923</v>
       </c>
       <c r="L5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="M5" s="31">
+      <c r="M5" s="8">
         <v>43923</v>
       </c>
       <c r="N5" s="3" t="s">
@@ -2260,7 +2272,7 @@
       <c r="C6" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="32" t="s">
+      <c r="D6" s="9" t="s">
         <v>49</v>
       </c>
       <c r="E6" s="3" t="s">
@@ -2291,7 +2303,7 @@
       <c r="C7" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="32" t="s">
+      <c r="D7" s="9" t="s">
         <v>49</v>
       </c>
       <c r="E7" s="3" t="s">
@@ -2312,13 +2324,13 @@
       <c r="J7" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="K7" s="31">
+      <c r="K7" s="8">
         <v>43923</v>
       </c>
       <c r="L7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="M7" s="31">
+      <c r="M7" s="8">
         <v>43923</v>
       </c>
       <c r="N7" s="3" t="s">
@@ -2336,7 +2348,7 @@
       <c r="C8" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D8" s="32" t="s">
+      <c r="D8" s="9" t="s">
         <v>44</v>
       </c>
       <c r="E8" s="3" t="s">
@@ -2365,7 +2377,7 @@
       <c r="C9" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D9" s="32" t="s">
+      <c r="D9" s="9" t="s">
         <v>42</v>
       </c>
       <c r="E9" s="3" t="s">
@@ -2394,7 +2406,7 @@
       <c r="C10" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="D10" s="32" t="s">
+      <c r="D10" s="9" t="s">
         <v>47</v>
       </c>
       <c r="E10" s="3" t="s">
@@ -2423,11 +2435,15 @@
       <c r="C11" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="D11" s="32" t="s">
+      <c r="D11" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
+      <c r="E11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="G11" s="6"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
@@ -2437,16 +2453,26 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="3" t="str">
+    <row r="12" spans="1:14" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="3">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
+        <v>9</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="G12" s="6"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
@@ -2456,16 +2482,26 @@
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="3" t="str">
+    <row r="13" spans="1:14" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="3">
         <f t="shared" ref="A13:A14" si="2">IF(B13="","",ROW()-3)</f>
-        <v/>
-      </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
+        <v>10</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="G13" s="6"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
@@ -2475,16 +2511,26 @@
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="3" t="str">
+    <row r="14" spans="1:14" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="3">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
+        <v>11</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="G14" s="6"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
@@ -2501,7 +2547,7 @@
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="7"/>
-      <c r="D15" s="32"/>
+      <c r="D15" s="9"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="6"/>
@@ -2515,12 +2561,12 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="3" t="str">
-        <f t="shared" ref="A16:A19" si="3">IF(B16="","",ROW()-3)</f>
+        <f t="shared" ref="A16:A23" si="3">IF(B16="","",ROW()-3)</f>
         <v/>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="7"/>
-      <c r="D16" s="32"/>
+      <c r="D16" s="9"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="6"/>
@@ -2539,7 +2585,7 @@
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="7"/>
-      <c r="D17" s="32"/>
+      <c r="D17" s="9"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="6"/>
@@ -2558,7 +2604,7 @@
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="7"/>
-      <c r="D18" s="32"/>
+      <c r="D18" s="9"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="6"/>
@@ -2577,7 +2623,7 @@
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="7"/>
-      <c r="D19" s="32"/>
+      <c r="D19" s="9"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="6"/>
@@ -2591,22 +2637,98 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="A20:A22" si="4">IF(B20="","",ROW()-3)</f>
         <v/>
       </c>
       <c r="B20" s="3"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="32"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="9"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
       <c r="G20" s="6"/>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
-      <c r="J20" s="2"/>
+      <c r="J20" s="6"/>
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
       <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -2619,19 +2741,19 @@
           <x14:formula1>
             <xm:f>選択項目!$B$2:$B$5</xm:f>
           </x14:formula1>
-          <xm:sqref>H4:H20</xm:sqref>
+          <xm:sqref>H4:H24</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{382B28DD-E38A-4D72-8578-E33789A9419E}">
           <x14:formula1>
             <xm:f>選択項目!$C$2:$C$4</xm:f>
           </x14:formula1>
-          <xm:sqref>I4:I20</xm:sqref>
+          <xm:sqref>I4:I24</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{AC995D69-40E2-41DE-B510-923F87571674}">
           <x14:formula1>
             <xm:f>選択項目!$D$2:$D$7</xm:f>
           </x14:formula1>
-          <xm:sqref>D4:D20</xm:sqref>
+          <xm:sqref>D4:D24</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/Doc/10品質記録/レビュー結果/課題管理表.xlsx
+++ b/Doc/10品質記録/レビュー結果/課題管理表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\MyCentOS\pythonGames\Doc\10品質記録\レビュー結果\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BC93201-D21A-497C-809F-ED8387B5E618}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13A37773-1ABC-4F03-A617-0B15F97EE65A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{CFAEB6AA-FC9D-49F8-8BE6-86D0FBA28B0C}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="選択項目" sheetId="8" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">課題管理表!$A$1:$N$24</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">課題管理表!$A$1:$N$36</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">改版履歴!$A$1:$AV$16</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="83">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -541,6 +541,419 @@
   </si>
   <si>
     <t>DAOに同じようなDBの記述が入るのでDBAccessとして処理をまとめる。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン画面</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>errorにエラー種別が定義されていないことによる。</t>
+    <rPh sb="9" eb="11">
+      <t>シュベツ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>テイギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>error['digit']とerror['length']を宣言しエラー種別ごとに対応できるようにした。
+中身は{'user_id':XXXX, 'password':XXXX}のように辞書型で要素を設定する</t>
+    <rPh sb="31" eb="33">
+      <t>センゲン</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>シュベツ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>ナカミ</t>
+    </rPh>
+    <rPh sb="94" eb="96">
+      <t>ジショ</t>
+    </rPh>
+    <rPh sb="96" eb="97">
+      <t>ガタ</t>
+    </rPh>
+    <rPh sb="98" eb="100">
+      <t>ヨウソ</t>
+    </rPh>
+    <rPh sb="101" eb="103">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>from login import *でsyntax error、ファイルにジャンプすることは可能だがデバッグで読込失敗する。</t>
+    <rPh sb="47" eb="49">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>ヨミコミ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>シッパイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>unexpected token '&lt;newline&gt;のため。
+')'が抜けていたことによる構文エラー</t>
+    <rPh sb="36" eb="37">
+      <t>ヌ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>コウブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>)を追加でimport loginが動作。</t>
+    <rPh sb="2" eb="4">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ドウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> AttributeErrorが発生。
+'Login' object has no attribute 'tk'
+L15 self.tk.__init__(self)</t>
+    <rPh sb="16" eb="18">
+      <t>ハッセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Loginクラス内であることに原因がある
+self.root = tk.Tk()を実施は可能
+tk.Label(～は課題内容と同様のerrorが発生する。
+'tk→self.rootで呼び出すも以下のエラー
+'_tkinter.tkapp' object has no attribute 'Entry'
+</t>
+    <rPh sb="8" eb="9">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ゲンイン</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ジッシ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>カダイ</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>ドウヨウ</t>
+    </rPh>
+    <rPh sb="72" eb="74">
+      <t>ハッセイ</t>
+    </rPh>
+    <rPh sb="92" eb="93">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="94" eb="95">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="97" eb="99">
+      <t>イカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>login.py
+調べた結果、pygameにボタンのモジュールが存在していないことからログインフォームを作ること自体困難と判断。
+→GUI（tkinter)で実装する</t>
+    <rPh sb="9" eb="10">
+      <t>シラ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ソンザイ</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>ジタイ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>コンナン</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>ハンダン</t>
+    </rPh>
+    <rPh sb="79" eb="81">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>tkinterを未実装
+エラー表示未実装</t>
+    <rPh sb="8" eb="11">
+      <t>ミジッソウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="17" eb="20">
+      <t>ミジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sqlが正常の形式でないwhereがいっぱい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>文字列の結合にjoinを使っていたため。
+Joinはリスト型→str型にする場合に使うのがよい。単純な文字列の結合は+で十分</t>
+    <rPh sb="0" eb="3">
+      <t>モジレツ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ケツゴウ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ガタ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>ガタ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>タンジュン</t>
+    </rPh>
+    <rPh sb="51" eb="54">
+      <t>モジレツ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>ケツゴウ</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>ジュウブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">文字列の結合にjoinを使っていたため。
+</t>
+    <rPh sb="0" eb="3">
+      <t>モジレツ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ケツゴウ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DBからデータが取得できない、OperationalError→2006</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>conn = ～の部分をlogin.pyに記述していた。またデバッグで確認するとlocal項目のほとんどにErrorが表示されていた。
+外部からの呼出しだとDBが読み込まれないのだと思われる。</t>
+    <rPh sb="9" eb="11">
+      <t>ブブン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>キジュツ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t>ガイブ</t>
+    </rPh>
+    <rPh sb="73" eb="75">
+      <t>ヨビダ</t>
+    </rPh>
+    <rPh sb="81" eb="82">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="83" eb="84">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="91" eb="92">
+      <t>オモ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DbAccessクラスを作成、DBにアクセスする際はこのクラスを宣言する。__init__（コンストラクタでDBを読み込み可能）デストラクタも実装→DBのクローズが自動で可能。</t>
+    <rPh sb="12" eb="14">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>センゲン</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="82" eb="84">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="85" eb="87">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mainloop()が抜けられない→main.pyにてl = Login()によりクラス宣言後
+l.mainloop()実行→これにより外部からログイン画面が呼び出される、self.root.destoroy()を実施してもログイン画面が閉じな</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>外部(main.py)で開始後、開始したクラスのmainloop()をdestoroyしなくてはならない。左記のself.root.mainloop()はクラス内で宣言されたtkinterの子クラスに過ぎない。</t>
+    <rPh sb="0" eb="2">
+      <t>ガイブ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="80" eb="81">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="82" eb="84">
+      <t>センゲン</t>
+    </rPh>
+    <rPh sb="95" eb="96">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="100" eb="101">
+      <t>ス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>正常終了時にself.destory()を追記。SelfとはつまりLogin()のこと。Main.pyに戻らずともlogin.pyの中でクラスをdestroyすればよい。</t>
+    <rPh sb="0" eb="2">
+      <t>セイジョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ツイキ</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="66" eb="67">
+      <t>ナカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Sql(DAO)で取得したデータを自動でusers(DTO)に渡して画面に返す仕組みが欲しい。（フレームワーク作成）</t>
+    <rPh sb="55" eb="57">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>取得したデータとDBのカラムが紐づいていないことが問題。</t>
+    <rPh sb="0" eb="2">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ヒモ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>モンダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>使用モジュールを変更MySQLdb(クソ、さすがテックアカデミーが押しているだけある）→MySQL.connectorをpipでインストール後実装、cursor(dictionary=True)を設定→user_dataにカラム名が表示された。取得だけなら(DTO)を作るまでもない。</t>
+    <rPh sb="0" eb="2">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="70" eb="71">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="98" eb="100">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="114" eb="115">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="116" eb="118">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="122" eb="124">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="134" eb="135">
+      <t>ツク</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2101,13 +2514,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{029EB795-6DE7-4699-90E9-9D7E156E035F}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:N24"/>
+  <dimension ref="A1:N36"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="G19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="C19" sqref="C19"/>
+      <selection pane="bottomRight" activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -2116,7 +2529,7 @@
     <col min="3" max="3" width="51.33203125" customWidth="1"/>
     <col min="4" max="5" width="8.83203125" customWidth="1"/>
     <col min="6" max="6" width="8.25" customWidth="1"/>
-    <col min="7" max="7" width="34.58203125" customWidth="1"/>
+    <col min="7" max="7" width="40.33203125" customWidth="1"/>
     <col min="10" max="10" width="36.58203125" customWidth="1"/>
     <col min="11" max="11" width="9" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9" bestFit="1" customWidth="1"/>
@@ -2171,7 +2584,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="144" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:14" ht="126" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="3">
         <f>IF(B4="","",ROW()-3)</f>
         <v>1</v>
@@ -2218,7 +2631,7 @@
     </row>
     <row r="5" spans="1:14" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="3">
-        <f t="shared" ref="A5:A24" si="0">IF(B5="","",ROW()-3)</f>
+        <f t="shared" ref="A5:A36" si="0">IF(B5="","",ROW()-3)</f>
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -2397,7 +2810,7 @@
     </row>
     <row r="10" spans="1:14" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="3">
-        <f t="shared" ref="A10:A15" si="1">IF(B10="","",ROW()-3)</f>
+        <f t="shared" ref="A10:A14" si="1">IF(B10="","",ROW()-3)</f>
         <v>7</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -2444,9 +2857,15 @@
       <c r="F11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G11" s="6"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
+      <c r="G11" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>38</v>
+      </c>
       <c r="J11" s="6"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
@@ -2484,7 +2903,7 @@
     </row>
     <row r="13" spans="1:14" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="3">
-        <f t="shared" ref="A13:A14" si="2">IF(B13="","",ROW()-3)</f>
+        <f t="shared" ref="A13" si="2">IF(B13="","",ROW()-3)</f>
         <v>10</v>
       </c>
       <c r="B13" s="3" t="s">
@@ -2511,13 +2930,13 @@
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
     </row>
-    <row r="14" spans="1:14" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:14" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>59</v>
@@ -2531,128 +2950,300 @@
       <c r="F14" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G14" s="6"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="3" t="str">
-        <f t="shared" ref="A16:A23" si="3">IF(B16="","",ROW()-3)</f>
-        <v/>
-      </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="3" t="str">
+      <c r="G14" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="K14" s="8">
+        <v>43925</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="M14" s="8">
+        <v>43925</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="3">
+        <f t="shared" ref="A15:A23" si="3">IF(B15="","",ROW()-3)</f>
+        <v>12</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="K15" s="8">
+        <v>43925</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="M15" s="8">
+        <v>43925</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="126" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="3">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="3" t="str">
+        <v>13</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J16" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="K16" s="8">
+        <v>43925</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="M16" s="8">
+        <v>43925</v>
+      </c>
+      <c r="N16" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="54" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="3">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="3" t="str">
+        <v>14</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="K17" s="8">
+        <v>43927</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="M17" s="8">
+        <v>43927</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="90" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="3">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="3" t="str">
-        <f t="shared" ref="A20:A22" si="4">IF(B20="","",ROW()-3)</f>
-        <v/>
-      </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
+        <v>15</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J18" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="K18" s="8">
+        <v>43928</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="M18" s="8">
+        <v>43928</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="90" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="3">
+        <f t="shared" ref="A19:A21" si="4">IF(B19="","",ROW()-3)</f>
+        <v>16</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J19" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="K19" s="8">
+        <v>43928</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="M19" s="8">
+        <v>43928</v>
+      </c>
+      <c r="N19" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="108" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="3">
+        <f t="shared" si="4"/>
+        <v>17</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J20" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="K20" s="8">
+        <v>43928</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="M20" s="8">
+        <v>43928</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="3" t="str">
@@ -2675,7 +3266,7 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B22" s="3"/>
@@ -2713,22 +3304,250 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="A24:A30" si="5">IF(B24="","",ROW()-3)</f>
         <v/>
       </c>
       <c r="B24" s="3"/>
-      <c r="C24" s="1"/>
+      <c r="C24" s="7"/>
       <c r="D24" s="9"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
       <c r="G24" s="6"/>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
-      <c r="J24" s="2"/>
+      <c r="J24" s="6"/>
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
       <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="B30" s="3"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="3" t="str">
+        <f t="shared" ref="A31:A34" si="6">IF(B31="","",ROW()-3)</f>
+        <v/>
+      </c>
+      <c r="B31" s="3"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="6"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="B32" s="3"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="6"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="B33" s="3"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="B34" s="3"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="6"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" s="3" t="str">
+        <f t="shared" ref="A35" si="7">IF(B35="","",ROW()-3)</f>
+        <v/>
+      </c>
+      <c r="B35" s="3"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="6"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="3"/>
+      <c r="M35" s="3"/>
+      <c r="N35" s="3"/>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B36" s="3"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="3"/>
+      <c r="L36" s="3"/>
+      <c r="M36" s="3"/>
+      <c r="N36" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -2736,24 +3555,30 @@
   <pageSetup paperSize="9" scale="40" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{5B0C26C8-9A90-41F1-927D-A31BB229A117}">
           <x14:formula1>
             <xm:f>選択項目!$B$2:$B$5</xm:f>
           </x14:formula1>
-          <xm:sqref>H4:H24</xm:sqref>
+          <xm:sqref>H12:H13 H4:H10 H21:H36</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{382B28DD-E38A-4D72-8578-E33789A9419E}">
           <x14:formula1>
             <xm:f>選択項目!$C$2:$C$4</xm:f>
           </x14:formula1>
-          <xm:sqref>I4:I24</xm:sqref>
+          <xm:sqref>I12:I13 I4:I10 I21:I36</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{AC995D69-40E2-41DE-B510-923F87571674}">
           <x14:formula1>
             <xm:f>選択項目!$D$2:$D$7</xm:f>
           </x14:formula1>
-          <xm:sqref>D4:D24</xm:sqref>
+          <xm:sqref>D4:D13 D18:D36</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{B6D1B3A7-780D-44E8-870D-5EF33B004182}">
+          <x14:formula1>
+            <xm:f>選択項目!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>D14:D17 H14:I20 H11:I11</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/Doc/10品質記録/レビュー結果/課題管理表.xlsx
+++ b/Doc/10品質記録/レビュー結果/課題管理表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\MyCentOS\pythonGames\Doc\10品質記録\レビュー結果\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13A37773-1ABC-4F03-A617-0B15F97EE65A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E96D522-8822-4CF8-8B74-9F80E8209B3A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{CFAEB6AA-FC9D-49F8-8BE6-86D0FBA28B0C}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="92">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -953,6 +953,187 @@
     </rPh>
     <rPh sb="134" eb="135">
       <t>ツク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実行→GAMEOVER→実行のように繰り返すとプレイヤーデータが増えていってしまう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザインターフェース</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t># 名前をリストに格納
+にて既存のplayer_nameを除外する処理が抜けていた。GAMEOVERの場合に処理がループするので再読み込みの際は不具合が生じないように注意する必要がある。今回もまだ改善の余地があるかもしれない。</t>
+    <rPh sb="14" eb="16">
+      <t>キソン</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ジョガイ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>ヌ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t>サイヨ</t>
+    </rPh>
+    <rPh sb="67" eb="68">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="70" eb="71">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="72" eb="75">
+      <t>フグアイ</t>
+    </rPh>
+    <rPh sb="76" eb="77">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="83" eb="85">
+      <t>チュウイ</t>
+    </rPh>
+    <rPh sb="87" eb="89">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="93" eb="95">
+      <t>コンカイ</t>
+    </rPh>
+    <rPh sb="98" eb="100">
+      <t>カイゼン</t>
+    </rPh>
+    <rPh sb="101" eb="103">
+      <t>ヨチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>if d['name'] not in self.player_name:
+を追加、存在するplayer_nameを追加しないように処理を記載。</t>
+    <rPh sb="39" eb="41">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ソンザイ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="69" eb="71">
+      <t>キサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【課題１８】キャラクターデータ取得後spritesheetを変更する？→新しい画面（ユーザインターフェース）を表示
+newメソッド修正（新しいスプライトシート</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>g.newはスプライトを初期化するメソッド。その後のrunメソッドを実装するのが良い。理想はゲーム開始→ユーザインターフェースの最小化→メニュー画面への遷移</t>
+    <rPh sb="12" eb="15">
+      <t>ショキカ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>リソウ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="64" eb="67">
+      <t>サイショウカ</t>
+    </rPh>
+    <rPh sb="72" eb="74">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="76" eb="78">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>keysでSPACE以外のキー押下を取得できない。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>KEYUP:条件の下に存在していることが原因？
+KEYDOWN:条件下に処理を記載？</t>
+    <rPh sb="6" eb="8">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ソンザイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ゲンイン</t>
+    </rPh>
+    <rPh sb="32" eb="35">
+      <t>ジョウケンカ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>キサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>KEYDOWN:条件下に処理を記載することでF1のキーを読み取ってくれた。おそらくループで再読み込みした際のキーを取得していたのだろう。（初期化後）それかキーを押す強さ</t>
+    <rPh sb="28" eb="29">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>サイヨ</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="69" eb="72">
+      <t>ショキカ</t>
+    </rPh>
+    <rPh sb="72" eb="73">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="80" eb="81">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="82" eb="83">
+      <t>ツヨ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1219,44 +1400,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -1287,6 +1432,42 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1612,831 +1793,882 @@
   <sheetFormatPr defaultColWidth="3.08203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
     <row r="1" spans="1:59" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="26" t="str">
+      <c r="A1" s="14" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>改版履歴</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="30" t="s">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
-      <c r="O1" s="30"/>
-      <c r="P1" s="30"/>
-      <c r="Q1" s="30" t="s">
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="30"/>
-      <c r="S1" s="30"/>
-      <c r="T1" s="30"/>
-      <c r="U1" s="30"/>
-      <c r="V1" s="30"/>
-      <c r="W1" s="30"/>
-      <c r="X1" s="30"/>
-      <c r="Y1" s="30" t="s">
+      <c r="R1" s="18"/>
+      <c r="S1" s="18"/>
+      <c r="T1" s="18"/>
+      <c r="U1" s="18"/>
+      <c r="V1" s="18"/>
+      <c r="W1" s="18"/>
+      <c r="X1" s="18"/>
+      <c r="Y1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="Z1" s="30"/>
-      <c r="AA1" s="30"/>
-      <c r="AB1" s="30"/>
-      <c r="AC1" s="30"/>
-      <c r="AD1" s="30"/>
-      <c r="AE1" s="30"/>
-      <c r="AF1" s="30"/>
-      <c r="AG1" s="30" t="s">
+      <c r="Z1" s="18"/>
+      <c r="AA1" s="18"/>
+      <c r="AB1" s="18"/>
+      <c r="AC1" s="18"/>
+      <c r="AD1" s="18"/>
+      <c r="AE1" s="18"/>
+      <c r="AF1" s="18"/>
+      <c r="AG1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="AH1" s="30"/>
-      <c r="AI1" s="30"/>
-      <c r="AJ1" s="30"/>
-      <c r="AK1" s="30"/>
-      <c r="AL1" s="30"/>
-      <c r="AM1" s="30"/>
-      <c r="AN1" s="30"/>
-      <c r="AO1" s="30" t="s">
+      <c r="AH1" s="18"/>
+      <c r="AI1" s="18"/>
+      <c r="AJ1" s="18"/>
+      <c r="AK1" s="18"/>
+      <c r="AL1" s="18"/>
+      <c r="AM1" s="18"/>
+      <c r="AN1" s="18"/>
+      <c r="AO1" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="AP1" s="30"/>
-      <c r="AQ1" s="30"/>
-      <c r="AR1" s="30"/>
-      <c r="AS1" s="30"/>
-      <c r="AT1" s="30"/>
-      <c r="AU1" s="30"/>
-      <c r="AV1" s="30"/>
+      <c r="AP1" s="18"/>
+      <c r="AQ1" s="18"/>
+      <c r="AR1" s="18"/>
+      <c r="AS1" s="18"/>
+      <c r="AT1" s="18"/>
+      <c r="AU1" s="18"/>
+      <c r="AV1" s="18"/>
     </row>
     <row r="2" spans="1:59" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="28"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="24" t="str">
+      <c r="A2" s="16"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="12" t="str">
         <f>AX3</f>
         <v>pythonGame</v>
       </c>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="31">
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="19">
         <f ca="1">INDIRECT("A"&amp;(COUNTA(A:H)+2))</f>
         <v>43884</v>
       </c>
-      <c r="R2" s="31"/>
-      <c r="S2" s="31"/>
-      <c r="T2" s="31"/>
-      <c r="U2" s="31"/>
-      <c r="V2" s="31"/>
-      <c r="W2" s="31"/>
-      <c r="X2" s="31"/>
-      <c r="Y2" s="32" t="str">
+      <c r="R2" s="19"/>
+      <c r="S2" s="19"/>
+      <c r="T2" s="19"/>
+      <c r="U2" s="19"/>
+      <c r="V2" s="19"/>
+      <c r="W2" s="19"/>
+      <c r="X2" s="19"/>
+      <c r="Y2" s="20" t="str">
         <f ca="1">INDIRECT("AO"&amp;(COUNTA(AO:AV)+1))</f>
         <v>Giphe</v>
       </c>
-      <c r="Z2" s="32"/>
-      <c r="AA2" s="32"/>
-      <c r="AB2" s="32"/>
-      <c r="AC2" s="32"/>
-      <c r="AD2" s="32"/>
-      <c r="AE2" s="32"/>
-      <c r="AF2" s="32"/>
-      <c r="AG2" s="32" t="str">
+      <c r="Z2" s="20"/>
+      <c r="AA2" s="20"/>
+      <c r="AB2" s="20"/>
+      <c r="AC2" s="20"/>
+      <c r="AD2" s="20"/>
+      <c r="AE2" s="20"/>
+      <c r="AF2" s="20"/>
+      <c r="AG2" s="20" t="str">
         <f ca="1">INDIRECT("I"&amp;(COUNTA(I:L)+1))</f>
         <v>1.0</v>
       </c>
-      <c r="AH2" s="32"/>
-      <c r="AI2" s="32"/>
-      <c r="AJ2" s="32"/>
-      <c r="AK2" s="32"/>
-      <c r="AL2" s="32"/>
-      <c r="AM2" s="32"/>
-      <c r="AN2" s="32"/>
-      <c r="AO2" s="24" t="str">
+      <c r="AH2" s="20"/>
+      <c r="AI2" s="20"/>
+      <c r="AJ2" s="20"/>
+      <c r="AK2" s="20"/>
+      <c r="AL2" s="20"/>
+      <c r="AM2" s="20"/>
+      <c r="AN2" s="20"/>
+      <c r="AO2" s="12" t="str">
         <f>BC3</f>
         <v>詳細設計</v>
       </c>
-      <c r="AP2" s="24"/>
-      <c r="AQ2" s="24"/>
-      <c r="AR2" s="24"/>
-      <c r="AS2" s="24"/>
-      <c r="AT2" s="24"/>
-      <c r="AU2" s="24"/>
-      <c r="AV2" s="24"/>
-      <c r="AX2" s="10" t="s">
+      <c r="AP2" s="12"/>
+      <c r="AQ2" s="12"/>
+      <c r="AR2" s="12"/>
+      <c r="AS2" s="12"/>
+      <c r="AT2" s="12"/>
+      <c r="AU2" s="12"/>
+      <c r="AV2" s="12"/>
+      <c r="AX2" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="AY2" s="10"/>
-      <c r="AZ2" s="10"/>
-      <c r="BA2" s="10"/>
-      <c r="BB2" s="10"/>
-      <c r="BC2" s="11" t="s">
+      <c r="AY2" s="32"/>
+      <c r="AZ2" s="32"/>
+      <c r="BA2" s="32"/>
+      <c r="BB2" s="32"/>
+      <c r="BC2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="BD2" s="11"/>
-      <c r="BE2" s="11"/>
-      <c r="BF2" s="11"/>
-      <c r="BG2" s="11"/>
+      <c r="BD2" s="10"/>
+      <c r="BE2" s="10"/>
+      <c r="BF2" s="10"/>
+      <c r="BG2" s="10"/>
     </row>
     <row r="3" spans="1:59" x14ac:dyDescent="0.55000000000000004">
-      <c r="AX3" s="10" t="s">
+      <c r="AX3" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="AY3" s="10"/>
-      <c r="AZ3" s="10"/>
-      <c r="BA3" s="10"/>
-      <c r="BB3" s="10"/>
-      <c r="BC3" s="11" t="s">
+      <c r="AY3" s="32"/>
+      <c r="AZ3" s="32"/>
+      <c r="BA3" s="32"/>
+      <c r="BB3" s="32"/>
+      <c r="BC3" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="BD3" s="11"/>
-      <c r="BE3" s="11"/>
-      <c r="BF3" s="11"/>
-      <c r="BG3" s="11"/>
+      <c r="BD3" s="10"/>
+      <c r="BE3" s="10"/>
+      <c r="BF3" s="10"/>
+      <c r="BG3" s="10"/>
     </row>
     <row r="4" spans="1:59" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="19" t="s">
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="20"/>
-      <c r="K4" s="20"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="16" t="s">
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="30"/>
+      <c r="M4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="N4" s="17"/>
-      <c r="O4" s="17"/>
-      <c r="P4" s="17"/>
-      <c r="Q4" s="17"/>
-      <c r="R4" s="17"/>
-      <c r="S4" s="17"/>
-      <c r="T4" s="17"/>
-      <c r="U4" s="17"/>
-      <c r="V4" s="17"/>
-      <c r="W4" s="17"/>
-      <c r="X4" s="17"/>
-      <c r="Y4" s="17"/>
-      <c r="Z4" s="17"/>
-      <c r="AA4" s="17"/>
-      <c r="AB4" s="17"/>
-      <c r="AC4" s="17"/>
-      <c r="AD4" s="17"/>
-      <c r="AE4" s="17"/>
-      <c r="AF4" s="17"/>
-      <c r="AG4" s="17"/>
-      <c r="AH4" s="17"/>
-      <c r="AI4" s="17"/>
-      <c r="AJ4" s="17"/>
-      <c r="AK4" s="17"/>
-      <c r="AL4" s="17"/>
-      <c r="AM4" s="17"/>
-      <c r="AN4" s="18"/>
-      <c r="AO4" s="16" t="s">
+      <c r="N4" s="22"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="22"/>
+      <c r="Q4" s="22"/>
+      <c r="R4" s="22"/>
+      <c r="S4" s="22"/>
+      <c r="T4" s="22"/>
+      <c r="U4" s="22"/>
+      <c r="V4" s="22"/>
+      <c r="W4" s="22"/>
+      <c r="X4" s="22"/>
+      <c r="Y4" s="22"/>
+      <c r="Z4" s="22"/>
+      <c r="AA4" s="22"/>
+      <c r="AB4" s="22"/>
+      <c r="AC4" s="22"/>
+      <c r="AD4" s="22"/>
+      <c r="AE4" s="22"/>
+      <c r="AF4" s="22"/>
+      <c r="AG4" s="22"/>
+      <c r="AH4" s="22"/>
+      <c r="AI4" s="22"/>
+      <c r="AJ4" s="22"/>
+      <c r="AK4" s="22"/>
+      <c r="AL4" s="22"/>
+      <c r="AM4" s="22"/>
+      <c r="AN4" s="23"/>
+      <c r="AO4" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="AP4" s="17"/>
-      <c r="AQ4" s="17"/>
-      <c r="AR4" s="17"/>
-      <c r="AS4" s="17"/>
-      <c r="AT4" s="17"/>
-      <c r="AU4" s="17"/>
-      <c r="AV4" s="18"/>
+      <c r="AP4" s="22"/>
+      <c r="AQ4" s="22"/>
+      <c r="AR4" s="22"/>
+      <c r="AS4" s="22"/>
+      <c r="AT4" s="22"/>
+      <c r="AU4" s="22"/>
+      <c r="AV4" s="23"/>
     </row>
     <row r="5" spans="1:59" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="23">
+      <c r="A5" s="11">
         <v>43884</v>
       </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="22" t="s">
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="22"/>
-      <c r="M5" s="12" t="s">
+      <c r="J5" s="31"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="31"/>
+      <c r="M5" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="N5" s="13"/>
-      <c r="O5" s="13"/>
-      <c r="P5" s="13"/>
-      <c r="Q5" s="13"/>
-      <c r="R5" s="13"/>
-      <c r="S5" s="13"/>
-      <c r="T5" s="13"/>
-      <c r="U5" s="13"/>
-      <c r="V5" s="13"/>
-      <c r="W5" s="13"/>
-      <c r="X5" s="13"/>
-      <c r="Y5" s="13"/>
-      <c r="Z5" s="13"/>
-      <c r="AA5" s="13"/>
-      <c r="AB5" s="13"/>
-      <c r="AC5" s="13"/>
-      <c r="AD5" s="13"/>
-      <c r="AE5" s="13"/>
-      <c r="AF5" s="13"/>
-      <c r="AG5" s="13"/>
-      <c r="AH5" s="13"/>
-      <c r="AI5" s="13"/>
-      <c r="AJ5" s="13"/>
-      <c r="AK5" s="13"/>
-      <c r="AL5" s="13"/>
-      <c r="AM5" s="13"/>
-      <c r="AN5" s="14"/>
-      <c r="AO5" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="AP5" s="13"/>
-      <c r="AQ5" s="13"/>
-      <c r="AR5" s="13"/>
-      <c r="AS5" s="13"/>
-      <c r="AT5" s="13"/>
-      <c r="AU5" s="13"/>
-      <c r="AV5" s="14"/>
+      <c r="N5" s="25"/>
+      <c r="O5" s="25"/>
+      <c r="P5" s="25"/>
+      <c r="Q5" s="25"/>
+      <c r="R5" s="25"/>
+      <c r="S5" s="25"/>
+      <c r="T5" s="25"/>
+      <c r="U5" s="25"/>
+      <c r="V5" s="25"/>
+      <c r="W5" s="25"/>
+      <c r="X5" s="25"/>
+      <c r="Y5" s="25"/>
+      <c r="Z5" s="25"/>
+      <c r="AA5" s="25"/>
+      <c r="AB5" s="25"/>
+      <c r="AC5" s="25"/>
+      <c r="AD5" s="25"/>
+      <c r="AE5" s="25"/>
+      <c r="AF5" s="25"/>
+      <c r="AG5" s="25"/>
+      <c r="AH5" s="25"/>
+      <c r="AI5" s="25"/>
+      <c r="AJ5" s="25"/>
+      <c r="AK5" s="25"/>
+      <c r="AL5" s="25"/>
+      <c r="AM5" s="25"/>
+      <c r="AN5" s="26"/>
+      <c r="AO5" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="AP5" s="25"/>
+      <c r="AQ5" s="25"/>
+      <c r="AR5" s="25"/>
+      <c r="AS5" s="25"/>
+      <c r="AT5" s="25"/>
+      <c r="AU5" s="25"/>
+      <c r="AV5" s="26"/>
     </row>
     <row r="6" spans="1:59" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="11"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="13"/>
-      <c r="O6" s="13"/>
-      <c r="P6" s="13"/>
-      <c r="Q6" s="13"/>
-      <c r="R6" s="13"/>
-      <c r="S6" s="13"/>
-      <c r="T6" s="13"/>
-      <c r="U6" s="13"/>
-      <c r="V6" s="13"/>
-      <c r="W6" s="13"/>
-      <c r="X6" s="13"/>
-      <c r="Y6" s="13"/>
-      <c r="Z6" s="13"/>
-      <c r="AA6" s="13"/>
-      <c r="AB6" s="13"/>
-      <c r="AC6" s="13"/>
-      <c r="AD6" s="13"/>
-      <c r="AE6" s="13"/>
-      <c r="AF6" s="13"/>
-      <c r="AG6" s="13"/>
-      <c r="AH6" s="13"/>
-      <c r="AI6" s="13"/>
-      <c r="AJ6" s="13"/>
-      <c r="AK6" s="13"/>
-      <c r="AL6" s="13"/>
-      <c r="AM6" s="13"/>
-      <c r="AN6" s="14"/>
-      <c r="AO6" s="12"/>
-      <c r="AP6" s="13"/>
-      <c r="AQ6" s="13"/>
-      <c r="AR6" s="13"/>
-      <c r="AS6" s="13"/>
-      <c r="AT6" s="13"/>
-      <c r="AU6" s="13"/>
-      <c r="AV6" s="14"/>
+      <c r="A6" s="10"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="27"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="24"/>
+      <c r="N6" s="25"/>
+      <c r="O6" s="25"/>
+      <c r="P6" s="25"/>
+      <c r="Q6" s="25"/>
+      <c r="R6" s="25"/>
+      <c r="S6" s="25"/>
+      <c r="T6" s="25"/>
+      <c r="U6" s="25"/>
+      <c r="V6" s="25"/>
+      <c r="W6" s="25"/>
+      <c r="X6" s="25"/>
+      <c r="Y6" s="25"/>
+      <c r="Z6" s="25"/>
+      <c r="AA6" s="25"/>
+      <c r="AB6" s="25"/>
+      <c r="AC6" s="25"/>
+      <c r="AD6" s="25"/>
+      <c r="AE6" s="25"/>
+      <c r="AF6" s="25"/>
+      <c r="AG6" s="25"/>
+      <c r="AH6" s="25"/>
+      <c r="AI6" s="25"/>
+      <c r="AJ6" s="25"/>
+      <c r="AK6" s="25"/>
+      <c r="AL6" s="25"/>
+      <c r="AM6" s="25"/>
+      <c r="AN6" s="26"/>
+      <c r="AO6" s="24"/>
+      <c r="AP6" s="25"/>
+      <c r="AQ6" s="25"/>
+      <c r="AR6" s="25"/>
+      <c r="AS6" s="25"/>
+      <c r="AT6" s="25"/>
+      <c r="AU6" s="25"/>
+      <c r="AV6" s="26"/>
     </row>
     <row r="7" spans="1:59" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="11"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="13"/>
-      <c r="O7" s="13"/>
-      <c r="P7" s="13"/>
-      <c r="Q7" s="13"/>
-      <c r="R7" s="13"/>
-      <c r="S7" s="13"/>
-      <c r="T7" s="13"/>
-      <c r="U7" s="13"/>
-      <c r="V7" s="13"/>
-      <c r="W7" s="13"/>
-      <c r="X7" s="13"/>
-      <c r="Y7" s="13"/>
-      <c r="Z7" s="13"/>
-      <c r="AA7" s="13"/>
-      <c r="AB7" s="13"/>
-      <c r="AC7" s="13"/>
-      <c r="AD7" s="13"/>
-      <c r="AE7" s="13"/>
-      <c r="AF7" s="13"/>
-      <c r="AG7" s="13"/>
-      <c r="AH7" s="13"/>
-      <c r="AI7" s="13"/>
-      <c r="AJ7" s="13"/>
-      <c r="AK7" s="13"/>
-      <c r="AL7" s="13"/>
-      <c r="AM7" s="13"/>
-      <c r="AN7" s="14"/>
-      <c r="AO7" s="12"/>
-      <c r="AP7" s="13"/>
-      <c r="AQ7" s="13"/>
-      <c r="AR7" s="13"/>
-      <c r="AS7" s="13"/>
-      <c r="AT7" s="13"/>
-      <c r="AU7" s="13"/>
-      <c r="AV7" s="14"/>
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="24"/>
+      <c r="N7" s="25"/>
+      <c r="O7" s="25"/>
+      <c r="P7" s="25"/>
+      <c r="Q7" s="25"/>
+      <c r="R7" s="25"/>
+      <c r="S7" s="25"/>
+      <c r="T7" s="25"/>
+      <c r="U7" s="25"/>
+      <c r="V7" s="25"/>
+      <c r="W7" s="25"/>
+      <c r="X7" s="25"/>
+      <c r="Y7" s="25"/>
+      <c r="Z7" s="25"/>
+      <c r="AA7" s="25"/>
+      <c r="AB7" s="25"/>
+      <c r="AC7" s="25"/>
+      <c r="AD7" s="25"/>
+      <c r="AE7" s="25"/>
+      <c r="AF7" s="25"/>
+      <c r="AG7" s="25"/>
+      <c r="AH7" s="25"/>
+      <c r="AI7" s="25"/>
+      <c r="AJ7" s="25"/>
+      <c r="AK7" s="25"/>
+      <c r="AL7" s="25"/>
+      <c r="AM7" s="25"/>
+      <c r="AN7" s="26"/>
+      <c r="AO7" s="24"/>
+      <c r="AP7" s="25"/>
+      <c r="AQ7" s="25"/>
+      <c r="AR7" s="25"/>
+      <c r="AS7" s="25"/>
+      <c r="AT7" s="25"/>
+      <c r="AU7" s="25"/>
+      <c r="AV7" s="26"/>
     </row>
     <row r="8" spans="1:59" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="13"/>
-      <c r="O8" s="13"/>
-      <c r="P8" s="13"/>
-      <c r="Q8" s="13"/>
-      <c r="R8" s="13"/>
-      <c r="S8" s="13"/>
-      <c r="T8" s="13"/>
-      <c r="U8" s="13"/>
-      <c r="V8" s="13"/>
-      <c r="W8" s="13"/>
-      <c r="X8" s="13"/>
-      <c r="Y8" s="13"/>
-      <c r="Z8" s="13"/>
-      <c r="AA8" s="13"/>
-      <c r="AB8" s="13"/>
-      <c r="AC8" s="13"/>
-      <c r="AD8" s="13"/>
-      <c r="AE8" s="13"/>
-      <c r="AF8" s="13"/>
-      <c r="AG8" s="13"/>
-      <c r="AH8" s="13"/>
-      <c r="AI8" s="13"/>
-      <c r="AJ8" s="13"/>
-      <c r="AK8" s="13"/>
-      <c r="AL8" s="13"/>
-      <c r="AM8" s="13"/>
-      <c r="AN8" s="14"/>
-      <c r="AO8" s="12"/>
-      <c r="AP8" s="13"/>
-      <c r="AQ8" s="13"/>
-      <c r="AR8" s="13"/>
-      <c r="AS8" s="13"/>
-      <c r="AT8" s="13"/>
-      <c r="AU8" s="13"/>
-      <c r="AV8" s="14"/>
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="27"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="24"/>
+      <c r="N8" s="25"/>
+      <c r="O8" s="25"/>
+      <c r="P8" s="25"/>
+      <c r="Q8" s="25"/>
+      <c r="R8" s="25"/>
+      <c r="S8" s="25"/>
+      <c r="T8" s="25"/>
+      <c r="U8" s="25"/>
+      <c r="V8" s="25"/>
+      <c r="W8" s="25"/>
+      <c r="X8" s="25"/>
+      <c r="Y8" s="25"/>
+      <c r="Z8" s="25"/>
+      <c r="AA8" s="25"/>
+      <c r="AB8" s="25"/>
+      <c r="AC8" s="25"/>
+      <c r="AD8" s="25"/>
+      <c r="AE8" s="25"/>
+      <c r="AF8" s="25"/>
+      <c r="AG8" s="25"/>
+      <c r="AH8" s="25"/>
+      <c r="AI8" s="25"/>
+      <c r="AJ8" s="25"/>
+      <c r="AK8" s="25"/>
+      <c r="AL8" s="25"/>
+      <c r="AM8" s="25"/>
+      <c r="AN8" s="26"/>
+      <c r="AO8" s="24"/>
+      <c r="AP8" s="25"/>
+      <c r="AQ8" s="25"/>
+      <c r="AR8" s="25"/>
+      <c r="AS8" s="25"/>
+      <c r="AT8" s="25"/>
+      <c r="AU8" s="25"/>
+      <c r="AV8" s="26"/>
     </row>
     <row r="9" spans="1:59" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="13"/>
-      <c r="O9" s="13"/>
-      <c r="P9" s="13"/>
-      <c r="Q9" s="13"/>
-      <c r="R9" s="13"/>
-      <c r="S9" s="13"/>
-      <c r="T9" s="13"/>
-      <c r="U9" s="13"/>
-      <c r="V9" s="13"/>
-      <c r="W9" s="13"/>
-      <c r="X9" s="13"/>
-      <c r="Y9" s="13"/>
-      <c r="Z9" s="13"/>
-      <c r="AA9" s="13"/>
-      <c r="AB9" s="13"/>
-      <c r="AC9" s="13"/>
-      <c r="AD9" s="13"/>
-      <c r="AE9" s="13"/>
-      <c r="AF9" s="13"/>
-      <c r="AG9" s="13"/>
-      <c r="AH9" s="13"/>
-      <c r="AI9" s="13"/>
-      <c r="AJ9" s="13"/>
-      <c r="AK9" s="13"/>
-      <c r="AL9" s="13"/>
-      <c r="AM9" s="13"/>
-      <c r="AN9" s="14"/>
-      <c r="AO9" s="12"/>
-      <c r="AP9" s="13"/>
-      <c r="AQ9" s="13"/>
-      <c r="AR9" s="13"/>
-      <c r="AS9" s="13"/>
-      <c r="AT9" s="13"/>
-      <c r="AU9" s="13"/>
-      <c r="AV9" s="14"/>
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="27"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="24"/>
+      <c r="N9" s="25"/>
+      <c r="O9" s="25"/>
+      <c r="P9" s="25"/>
+      <c r="Q9" s="25"/>
+      <c r="R9" s="25"/>
+      <c r="S9" s="25"/>
+      <c r="T9" s="25"/>
+      <c r="U9" s="25"/>
+      <c r="V9" s="25"/>
+      <c r="W9" s="25"/>
+      <c r="X9" s="25"/>
+      <c r="Y9" s="25"/>
+      <c r="Z9" s="25"/>
+      <c r="AA9" s="25"/>
+      <c r="AB9" s="25"/>
+      <c r="AC9" s="25"/>
+      <c r="AD9" s="25"/>
+      <c r="AE9" s="25"/>
+      <c r="AF9" s="25"/>
+      <c r="AG9" s="25"/>
+      <c r="AH9" s="25"/>
+      <c r="AI9" s="25"/>
+      <c r="AJ9" s="25"/>
+      <c r="AK9" s="25"/>
+      <c r="AL9" s="25"/>
+      <c r="AM9" s="25"/>
+      <c r="AN9" s="26"/>
+      <c r="AO9" s="24"/>
+      <c r="AP9" s="25"/>
+      <c r="AQ9" s="25"/>
+      <c r="AR9" s="25"/>
+      <c r="AS9" s="25"/>
+      <c r="AT9" s="25"/>
+      <c r="AU9" s="25"/>
+      <c r="AV9" s="26"/>
     </row>
     <row r="10" spans="1:59" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="11"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="13"/>
-      <c r="O10" s="13"/>
-      <c r="P10" s="13"/>
-      <c r="Q10" s="13"/>
-      <c r="R10" s="13"/>
-      <c r="S10" s="13"/>
-      <c r="T10" s="13"/>
-      <c r="U10" s="13"/>
-      <c r="V10" s="13"/>
-      <c r="W10" s="13"/>
-      <c r="X10" s="13"/>
-      <c r="Y10" s="13"/>
-      <c r="Z10" s="13"/>
-      <c r="AA10" s="13"/>
-      <c r="AB10" s="13"/>
-      <c r="AC10" s="13"/>
-      <c r="AD10" s="13"/>
-      <c r="AE10" s="13"/>
-      <c r="AF10" s="13"/>
-      <c r="AG10" s="13"/>
-      <c r="AH10" s="13"/>
-      <c r="AI10" s="13"/>
-      <c r="AJ10" s="13"/>
-      <c r="AK10" s="13"/>
-      <c r="AL10" s="13"/>
-      <c r="AM10" s="13"/>
-      <c r="AN10" s="14"/>
-      <c r="AO10" s="12"/>
-      <c r="AP10" s="13"/>
-      <c r="AQ10" s="13"/>
-      <c r="AR10" s="13"/>
-      <c r="AS10" s="13"/>
-      <c r="AT10" s="13"/>
-      <c r="AU10" s="13"/>
-      <c r="AV10" s="14"/>
+      <c r="A10" s="10"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="24"/>
+      <c r="N10" s="25"/>
+      <c r="O10" s="25"/>
+      <c r="P10" s="25"/>
+      <c r="Q10" s="25"/>
+      <c r="R10" s="25"/>
+      <c r="S10" s="25"/>
+      <c r="T10" s="25"/>
+      <c r="U10" s="25"/>
+      <c r="V10" s="25"/>
+      <c r="W10" s="25"/>
+      <c r="X10" s="25"/>
+      <c r="Y10" s="25"/>
+      <c r="Z10" s="25"/>
+      <c r="AA10" s="25"/>
+      <c r="AB10" s="25"/>
+      <c r="AC10" s="25"/>
+      <c r="AD10" s="25"/>
+      <c r="AE10" s="25"/>
+      <c r="AF10" s="25"/>
+      <c r="AG10" s="25"/>
+      <c r="AH10" s="25"/>
+      <c r="AI10" s="25"/>
+      <c r="AJ10" s="25"/>
+      <c r="AK10" s="25"/>
+      <c r="AL10" s="25"/>
+      <c r="AM10" s="25"/>
+      <c r="AN10" s="26"/>
+      <c r="AO10" s="24"/>
+      <c r="AP10" s="25"/>
+      <c r="AQ10" s="25"/>
+      <c r="AR10" s="25"/>
+      <c r="AS10" s="25"/>
+      <c r="AT10" s="25"/>
+      <c r="AU10" s="25"/>
+      <c r="AV10" s="26"/>
     </row>
     <row r="11" spans="1:59" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="11"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="15"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="13"/>
-      <c r="O11" s="13"/>
-      <c r="P11" s="13"/>
-      <c r="Q11" s="13"/>
-      <c r="R11" s="13"/>
-      <c r="S11" s="13"/>
-      <c r="T11" s="13"/>
-      <c r="U11" s="13"/>
-      <c r="V11" s="13"/>
-      <c r="W11" s="13"/>
-      <c r="X11" s="13"/>
-      <c r="Y11" s="13"/>
-      <c r="Z11" s="13"/>
-      <c r="AA11" s="13"/>
-      <c r="AB11" s="13"/>
-      <c r="AC11" s="13"/>
-      <c r="AD11" s="13"/>
-      <c r="AE11" s="13"/>
-      <c r="AF11" s="13"/>
-      <c r="AG11" s="13"/>
-      <c r="AH11" s="13"/>
-      <c r="AI11" s="13"/>
-      <c r="AJ11" s="13"/>
-      <c r="AK11" s="13"/>
-      <c r="AL11" s="13"/>
-      <c r="AM11" s="13"/>
-      <c r="AN11" s="14"/>
-      <c r="AO11" s="12"/>
-      <c r="AP11" s="13"/>
-      <c r="AQ11" s="13"/>
-      <c r="AR11" s="13"/>
-      <c r="AS11" s="13"/>
-      <c r="AT11" s="13"/>
-      <c r="AU11" s="13"/>
-      <c r="AV11" s="14"/>
+      <c r="A11" s="10"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="27"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="24"/>
+      <c r="N11" s="25"/>
+      <c r="O11" s="25"/>
+      <c r="P11" s="25"/>
+      <c r="Q11" s="25"/>
+      <c r="R11" s="25"/>
+      <c r="S11" s="25"/>
+      <c r="T11" s="25"/>
+      <c r="U11" s="25"/>
+      <c r="V11" s="25"/>
+      <c r="W11" s="25"/>
+      <c r="X11" s="25"/>
+      <c r="Y11" s="25"/>
+      <c r="Z11" s="25"/>
+      <c r="AA11" s="25"/>
+      <c r="AB11" s="25"/>
+      <c r="AC11" s="25"/>
+      <c r="AD11" s="25"/>
+      <c r="AE11" s="25"/>
+      <c r="AF11" s="25"/>
+      <c r="AG11" s="25"/>
+      <c r="AH11" s="25"/>
+      <c r="AI11" s="25"/>
+      <c r="AJ11" s="25"/>
+      <c r="AK11" s="25"/>
+      <c r="AL11" s="25"/>
+      <c r="AM11" s="25"/>
+      <c r="AN11" s="26"/>
+      <c r="AO11" s="24"/>
+      <c r="AP11" s="25"/>
+      <c r="AQ11" s="25"/>
+      <c r="AR11" s="25"/>
+      <c r="AS11" s="25"/>
+      <c r="AT11" s="25"/>
+      <c r="AU11" s="25"/>
+      <c r="AV11" s="26"/>
     </row>
     <row r="12" spans="1:59" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="11"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="15"/>
-      <c r="M12" s="12"/>
-      <c r="N12" s="13"/>
-      <c r="O12" s="13"/>
-      <c r="P12" s="13"/>
-      <c r="Q12" s="13"/>
-      <c r="R12" s="13"/>
-      <c r="S12" s="13"/>
-      <c r="T12" s="13"/>
-      <c r="U12" s="13"/>
-      <c r="V12" s="13"/>
-      <c r="W12" s="13"/>
-      <c r="X12" s="13"/>
-      <c r="Y12" s="13"/>
-      <c r="Z12" s="13"/>
-      <c r="AA12" s="13"/>
-      <c r="AB12" s="13"/>
-      <c r="AC12" s="13"/>
-      <c r="AD12" s="13"/>
-      <c r="AE12" s="13"/>
-      <c r="AF12" s="13"/>
-      <c r="AG12" s="13"/>
-      <c r="AH12" s="13"/>
-      <c r="AI12" s="13"/>
-      <c r="AJ12" s="13"/>
-      <c r="AK12" s="13"/>
-      <c r="AL12" s="13"/>
-      <c r="AM12" s="13"/>
-      <c r="AN12" s="14"/>
-      <c r="AO12" s="12"/>
-      <c r="AP12" s="13"/>
-      <c r="AQ12" s="13"/>
-      <c r="AR12" s="13"/>
-      <c r="AS12" s="13"/>
-      <c r="AT12" s="13"/>
-      <c r="AU12" s="13"/>
-      <c r="AV12" s="14"/>
+      <c r="A12" s="10"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="27"/>
+      <c r="L12" s="27"/>
+      <c r="M12" s="24"/>
+      <c r="N12" s="25"/>
+      <c r="O12" s="25"/>
+      <c r="P12" s="25"/>
+      <c r="Q12" s="25"/>
+      <c r="R12" s="25"/>
+      <c r="S12" s="25"/>
+      <c r="T12" s="25"/>
+      <c r="U12" s="25"/>
+      <c r="V12" s="25"/>
+      <c r="W12" s="25"/>
+      <c r="X12" s="25"/>
+      <c r="Y12" s="25"/>
+      <c r="Z12" s="25"/>
+      <c r="AA12" s="25"/>
+      <c r="AB12" s="25"/>
+      <c r="AC12" s="25"/>
+      <c r="AD12" s="25"/>
+      <c r="AE12" s="25"/>
+      <c r="AF12" s="25"/>
+      <c r="AG12" s="25"/>
+      <c r="AH12" s="25"/>
+      <c r="AI12" s="25"/>
+      <c r="AJ12" s="25"/>
+      <c r="AK12" s="25"/>
+      <c r="AL12" s="25"/>
+      <c r="AM12" s="25"/>
+      <c r="AN12" s="26"/>
+      <c r="AO12" s="24"/>
+      <c r="AP12" s="25"/>
+      <c r="AQ12" s="25"/>
+      <c r="AR12" s="25"/>
+      <c r="AS12" s="25"/>
+      <c r="AT12" s="25"/>
+      <c r="AU12" s="25"/>
+      <c r="AV12" s="26"/>
     </row>
     <row r="13" spans="1:59" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="11"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="15"/>
-      <c r="L13" s="15"/>
-      <c r="M13" s="12"/>
-      <c r="N13" s="13"/>
-      <c r="O13" s="13"/>
-      <c r="P13" s="13"/>
-      <c r="Q13" s="13"/>
-      <c r="R13" s="13"/>
-      <c r="S13" s="13"/>
-      <c r="T13" s="13"/>
-      <c r="U13" s="13"/>
-      <c r="V13" s="13"/>
-      <c r="W13" s="13"/>
-      <c r="X13" s="13"/>
-      <c r="Y13" s="13"/>
-      <c r="Z13" s="13"/>
-      <c r="AA13" s="13"/>
-      <c r="AB13" s="13"/>
-      <c r="AC13" s="13"/>
-      <c r="AD13" s="13"/>
-      <c r="AE13" s="13"/>
-      <c r="AF13" s="13"/>
-      <c r="AG13" s="13"/>
-      <c r="AH13" s="13"/>
-      <c r="AI13" s="13"/>
-      <c r="AJ13" s="13"/>
-      <c r="AK13" s="13"/>
-      <c r="AL13" s="13"/>
-      <c r="AM13" s="13"/>
-      <c r="AN13" s="14"/>
-      <c r="AO13" s="12"/>
-      <c r="AP13" s="13"/>
-      <c r="AQ13" s="13"/>
-      <c r="AR13" s="13"/>
-      <c r="AS13" s="13"/>
-      <c r="AT13" s="13"/>
-      <c r="AU13" s="13"/>
-      <c r="AV13" s="14"/>
+      <c r="A13" s="10"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="27"/>
+      <c r="M13" s="24"/>
+      <c r="N13" s="25"/>
+      <c r="O13" s="25"/>
+      <c r="P13" s="25"/>
+      <c r="Q13" s="25"/>
+      <c r="R13" s="25"/>
+      <c r="S13" s="25"/>
+      <c r="T13" s="25"/>
+      <c r="U13" s="25"/>
+      <c r="V13" s="25"/>
+      <c r="W13" s="25"/>
+      <c r="X13" s="25"/>
+      <c r="Y13" s="25"/>
+      <c r="Z13" s="25"/>
+      <c r="AA13" s="25"/>
+      <c r="AB13" s="25"/>
+      <c r="AC13" s="25"/>
+      <c r="AD13" s="25"/>
+      <c r="AE13" s="25"/>
+      <c r="AF13" s="25"/>
+      <c r="AG13" s="25"/>
+      <c r="AH13" s="25"/>
+      <c r="AI13" s="25"/>
+      <c r="AJ13" s="25"/>
+      <c r="AK13" s="25"/>
+      <c r="AL13" s="25"/>
+      <c r="AM13" s="25"/>
+      <c r="AN13" s="26"/>
+      <c r="AO13" s="24"/>
+      <c r="AP13" s="25"/>
+      <c r="AQ13" s="25"/>
+      <c r="AR13" s="25"/>
+      <c r="AS13" s="25"/>
+      <c r="AT13" s="25"/>
+      <c r="AU13" s="25"/>
+      <c r="AV13" s="26"/>
     </row>
     <row r="14" spans="1:59" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="11"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="15"/>
-      <c r="K14" s="15"/>
-      <c r="L14" s="15"/>
-      <c r="M14" s="12"/>
-      <c r="N14" s="13"/>
-      <c r="O14" s="13"/>
-      <c r="P14" s="13"/>
-      <c r="Q14" s="13"/>
-      <c r="R14" s="13"/>
-      <c r="S14" s="13"/>
-      <c r="T14" s="13"/>
-      <c r="U14" s="13"/>
-      <c r="V14" s="13"/>
-      <c r="W14" s="13"/>
-      <c r="X14" s="13"/>
-      <c r="Y14" s="13"/>
-      <c r="Z14" s="13"/>
-      <c r="AA14" s="13"/>
-      <c r="AB14" s="13"/>
-      <c r="AC14" s="13"/>
-      <c r="AD14" s="13"/>
-      <c r="AE14" s="13"/>
-      <c r="AF14" s="13"/>
-      <c r="AG14" s="13"/>
-      <c r="AH14" s="13"/>
-      <c r="AI14" s="13"/>
-      <c r="AJ14" s="13"/>
-      <c r="AK14" s="13"/>
-      <c r="AL14" s="13"/>
-      <c r="AM14" s="13"/>
-      <c r="AN14" s="14"/>
-      <c r="AO14" s="12"/>
-      <c r="AP14" s="13"/>
-      <c r="AQ14" s="13"/>
-      <c r="AR14" s="13"/>
-      <c r="AS14" s="13"/>
-      <c r="AT14" s="13"/>
-      <c r="AU14" s="13"/>
-      <c r="AV14" s="14"/>
+      <c r="A14" s="10"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="27"/>
+      <c r="L14" s="27"/>
+      <c r="M14" s="24"/>
+      <c r="N14" s="25"/>
+      <c r="O14" s="25"/>
+      <c r="P14" s="25"/>
+      <c r="Q14" s="25"/>
+      <c r="R14" s="25"/>
+      <c r="S14" s="25"/>
+      <c r="T14" s="25"/>
+      <c r="U14" s="25"/>
+      <c r="V14" s="25"/>
+      <c r="W14" s="25"/>
+      <c r="X14" s="25"/>
+      <c r="Y14" s="25"/>
+      <c r="Z14" s="25"/>
+      <c r="AA14" s="25"/>
+      <c r="AB14" s="25"/>
+      <c r="AC14" s="25"/>
+      <c r="AD14" s="25"/>
+      <c r="AE14" s="25"/>
+      <c r="AF14" s="25"/>
+      <c r="AG14" s="25"/>
+      <c r="AH14" s="25"/>
+      <c r="AI14" s="25"/>
+      <c r="AJ14" s="25"/>
+      <c r="AK14" s="25"/>
+      <c r="AL14" s="25"/>
+      <c r="AM14" s="25"/>
+      <c r="AN14" s="26"/>
+      <c r="AO14" s="24"/>
+      <c r="AP14" s="25"/>
+      <c r="AQ14" s="25"/>
+      <c r="AR14" s="25"/>
+      <c r="AS14" s="25"/>
+      <c r="AT14" s="25"/>
+      <c r="AU14" s="25"/>
+      <c r="AV14" s="26"/>
     </row>
     <row r="15" spans="1:59" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="11"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="15"/>
-      <c r="K15" s="15"/>
-      <c r="L15" s="15"/>
-      <c r="M15" s="12"/>
-      <c r="N15" s="13"/>
-      <c r="O15" s="13"/>
-      <c r="P15" s="13"/>
-      <c r="Q15" s="13"/>
-      <c r="R15" s="13"/>
-      <c r="S15" s="13"/>
-      <c r="T15" s="13"/>
-      <c r="U15" s="13"/>
-      <c r="V15" s="13"/>
-      <c r="W15" s="13"/>
-      <c r="X15" s="13"/>
-      <c r="Y15" s="13"/>
-      <c r="Z15" s="13"/>
-      <c r="AA15" s="13"/>
-      <c r="AB15" s="13"/>
-      <c r="AC15" s="13"/>
-      <c r="AD15" s="13"/>
-      <c r="AE15" s="13"/>
-      <c r="AF15" s="13"/>
-      <c r="AG15" s="13"/>
-      <c r="AH15" s="13"/>
-      <c r="AI15" s="13"/>
-      <c r="AJ15" s="13"/>
-      <c r="AK15" s="13"/>
-      <c r="AL15" s="13"/>
-      <c r="AM15" s="13"/>
-      <c r="AN15" s="14"/>
-      <c r="AO15" s="12"/>
-      <c r="AP15" s="13"/>
-      <c r="AQ15" s="13"/>
-      <c r="AR15" s="13"/>
-      <c r="AS15" s="13"/>
-      <c r="AT15" s="13"/>
-      <c r="AU15" s="13"/>
-      <c r="AV15" s="14"/>
+      <c r="A15" s="10"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="27"/>
+      <c r="L15" s="27"/>
+      <c r="M15" s="24"/>
+      <c r="N15" s="25"/>
+      <c r="O15" s="25"/>
+      <c r="P15" s="25"/>
+      <c r="Q15" s="25"/>
+      <c r="R15" s="25"/>
+      <c r="S15" s="25"/>
+      <c r="T15" s="25"/>
+      <c r="U15" s="25"/>
+      <c r="V15" s="25"/>
+      <c r="W15" s="25"/>
+      <c r="X15" s="25"/>
+      <c r="Y15" s="25"/>
+      <c r="Z15" s="25"/>
+      <c r="AA15" s="25"/>
+      <c r="AB15" s="25"/>
+      <c r="AC15" s="25"/>
+      <c r="AD15" s="25"/>
+      <c r="AE15" s="25"/>
+      <c r="AF15" s="25"/>
+      <c r="AG15" s="25"/>
+      <c r="AH15" s="25"/>
+      <c r="AI15" s="25"/>
+      <c r="AJ15" s="25"/>
+      <c r="AK15" s="25"/>
+      <c r="AL15" s="25"/>
+      <c r="AM15" s="25"/>
+      <c r="AN15" s="26"/>
+      <c r="AO15" s="24"/>
+      <c r="AP15" s="25"/>
+      <c r="AQ15" s="25"/>
+      <c r="AR15" s="25"/>
+      <c r="AS15" s="25"/>
+      <c r="AT15" s="25"/>
+      <c r="AU15" s="25"/>
+      <c r="AV15" s="26"/>
     </row>
     <row r="16" spans="1:59" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="11"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="15"/>
-      <c r="K16" s="15"/>
-      <c r="L16" s="15"/>
-      <c r="M16" s="12"/>
-      <c r="N16" s="13"/>
-      <c r="O16" s="13"/>
-      <c r="P16" s="13"/>
-      <c r="Q16" s="13"/>
-      <c r="R16" s="13"/>
-      <c r="S16" s="13"/>
-      <c r="T16" s="13"/>
-      <c r="U16" s="13"/>
-      <c r="V16" s="13"/>
-      <c r="W16" s="13"/>
-      <c r="X16" s="13"/>
-      <c r="Y16" s="13"/>
-      <c r="Z16" s="13"/>
-      <c r="AA16" s="13"/>
-      <c r="AB16" s="13"/>
-      <c r="AC16" s="13"/>
-      <c r="AD16" s="13"/>
-      <c r="AE16" s="13"/>
-      <c r="AF16" s="13"/>
-      <c r="AG16" s="13"/>
-      <c r="AH16" s="13"/>
-      <c r="AI16" s="13"/>
-      <c r="AJ16" s="13"/>
-      <c r="AK16" s="13"/>
-      <c r="AL16" s="13"/>
-      <c r="AM16" s="13"/>
-      <c r="AN16" s="14"/>
-      <c r="AO16" s="12"/>
-      <c r="AP16" s="13"/>
-      <c r="AQ16" s="13"/>
-      <c r="AR16" s="13"/>
-      <c r="AS16" s="13"/>
-      <c r="AT16" s="13"/>
-      <c r="AU16" s="13"/>
-      <c r="AV16" s="14"/>
+      <c r="A16" s="10"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="27"/>
+      <c r="K16" s="27"/>
+      <c r="L16" s="27"/>
+      <c r="M16" s="24"/>
+      <c r="N16" s="25"/>
+      <c r="O16" s="25"/>
+      <c r="P16" s="25"/>
+      <c r="Q16" s="25"/>
+      <c r="R16" s="25"/>
+      <c r="S16" s="25"/>
+      <c r="T16" s="25"/>
+      <c r="U16" s="25"/>
+      <c r="V16" s="25"/>
+      <c r="W16" s="25"/>
+      <c r="X16" s="25"/>
+      <c r="Y16" s="25"/>
+      <c r="Z16" s="25"/>
+      <c r="AA16" s="25"/>
+      <c r="AB16" s="25"/>
+      <c r="AC16" s="25"/>
+      <c r="AD16" s="25"/>
+      <c r="AE16" s="25"/>
+      <c r="AF16" s="25"/>
+      <c r="AG16" s="25"/>
+      <c r="AH16" s="25"/>
+      <c r="AI16" s="25"/>
+      <c r="AJ16" s="25"/>
+      <c r="AK16" s="25"/>
+      <c r="AL16" s="25"/>
+      <c r="AM16" s="25"/>
+      <c r="AN16" s="26"/>
+      <c r="AO16" s="24"/>
+      <c r="AP16" s="25"/>
+      <c r="AQ16" s="25"/>
+      <c r="AR16" s="25"/>
+      <c r="AS16" s="25"/>
+      <c r="AT16" s="25"/>
+      <c r="AU16" s="25"/>
+      <c r="AV16" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="67">
+    <mergeCell ref="AX2:BB2"/>
+    <mergeCell ref="AX3:BB3"/>
+    <mergeCell ref="BC2:BG2"/>
+    <mergeCell ref="BC3:BG3"/>
+    <mergeCell ref="AO10:AV10"/>
+    <mergeCell ref="AO6:AV6"/>
+    <mergeCell ref="AO7:AV7"/>
+    <mergeCell ref="AO8:AV8"/>
+    <mergeCell ref="AO9:AV9"/>
+    <mergeCell ref="AO16:AV16"/>
+    <mergeCell ref="AO11:AV11"/>
+    <mergeCell ref="AO12:AV12"/>
+    <mergeCell ref="AO13:AV13"/>
+    <mergeCell ref="AO14:AV14"/>
+    <mergeCell ref="AO15:AV15"/>
+    <mergeCell ref="I16:L16"/>
+    <mergeCell ref="M4:AN4"/>
+    <mergeCell ref="M5:AN5"/>
+    <mergeCell ref="M6:AN6"/>
+    <mergeCell ref="M7:AN7"/>
+    <mergeCell ref="M8:AN8"/>
+    <mergeCell ref="M9:AN9"/>
+    <mergeCell ref="M10:AN10"/>
+    <mergeCell ref="M11:AN11"/>
+    <mergeCell ref="M12:AN12"/>
+    <mergeCell ref="M13:AN13"/>
+    <mergeCell ref="M14:AN14"/>
+    <mergeCell ref="M15:AN15"/>
+    <mergeCell ref="M16:AN16"/>
+    <mergeCell ref="A16:H16"/>
+    <mergeCell ref="I4:L4"/>
+    <mergeCell ref="I5:L5"/>
+    <mergeCell ref="I6:L6"/>
+    <mergeCell ref="A15:H15"/>
+    <mergeCell ref="I15:L15"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="I14:L14"/>
+    <mergeCell ref="A13:H13"/>
+    <mergeCell ref="I13:L13"/>
+    <mergeCell ref="A12:H12"/>
+    <mergeCell ref="I12:L12"/>
+    <mergeCell ref="A11:H11"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="A10:H10"/>
+    <mergeCell ref="I10:L10"/>
+    <mergeCell ref="A9:H9"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="A8:H8"/>
+    <mergeCell ref="I8:L8"/>
+    <mergeCell ref="A7:H7"/>
+    <mergeCell ref="I7:L7"/>
     <mergeCell ref="A6:H6"/>
     <mergeCell ref="A5:H5"/>
     <mergeCell ref="AO2:AV2"/>
@@ -2453,57 +2685,6 @@
     <mergeCell ref="AG2:AN2"/>
     <mergeCell ref="AO4:AV4"/>
     <mergeCell ref="AO5:AV5"/>
-    <mergeCell ref="A9:H9"/>
-    <mergeCell ref="I9:L9"/>
-    <mergeCell ref="A8:H8"/>
-    <mergeCell ref="I8:L8"/>
-    <mergeCell ref="A7:H7"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="A16:H16"/>
-    <mergeCell ref="I4:L4"/>
-    <mergeCell ref="I5:L5"/>
-    <mergeCell ref="I6:L6"/>
-    <mergeCell ref="A15:H15"/>
-    <mergeCell ref="I15:L15"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="I14:L14"/>
-    <mergeCell ref="A13:H13"/>
-    <mergeCell ref="I13:L13"/>
-    <mergeCell ref="A12:H12"/>
-    <mergeCell ref="I12:L12"/>
-    <mergeCell ref="A11:H11"/>
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="A10:H10"/>
-    <mergeCell ref="I10:L10"/>
-    <mergeCell ref="I16:L16"/>
-    <mergeCell ref="M4:AN4"/>
-    <mergeCell ref="M5:AN5"/>
-    <mergeCell ref="M6:AN6"/>
-    <mergeCell ref="M7:AN7"/>
-    <mergeCell ref="M8:AN8"/>
-    <mergeCell ref="M9:AN9"/>
-    <mergeCell ref="M10:AN10"/>
-    <mergeCell ref="M11:AN11"/>
-    <mergeCell ref="M12:AN12"/>
-    <mergeCell ref="M13:AN13"/>
-    <mergeCell ref="M14:AN14"/>
-    <mergeCell ref="M15:AN15"/>
-    <mergeCell ref="M16:AN16"/>
-    <mergeCell ref="AO16:AV16"/>
-    <mergeCell ref="AO11:AV11"/>
-    <mergeCell ref="AO12:AV12"/>
-    <mergeCell ref="AO13:AV13"/>
-    <mergeCell ref="AO14:AV14"/>
-    <mergeCell ref="AO15:AV15"/>
-    <mergeCell ref="AX2:BB2"/>
-    <mergeCell ref="AX3:BB3"/>
-    <mergeCell ref="BC2:BG2"/>
-    <mergeCell ref="BC3:BG3"/>
-    <mergeCell ref="AO10:AV10"/>
-    <mergeCell ref="AO6:AV6"/>
-    <mergeCell ref="AO7:AV7"/>
-    <mergeCell ref="AO8:AV8"/>
-    <mergeCell ref="AO9:AV9"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2517,10 +2698,10 @@
   <dimension ref="A1:N36"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="G19" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="J21" sqref="J21"/>
+      <selection pane="bottomRight" activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -2531,8 +2712,8 @@
     <col min="6" max="6" width="8.25" customWidth="1"/>
     <col min="7" max="7" width="40.33203125" customWidth="1"/>
     <col min="10" max="10" width="36.58203125" customWidth="1"/>
-    <col min="11" max="11" width="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.55000000000000004">
@@ -3245,69 +3426,137 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="3" t="str">
+    <row r="21" spans="1:14" ht="72" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="3">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
+        <v>18</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>38</v>
+      </c>
       <c r="J21" s="6"/>
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="3" t="str">
+    <row r="22" spans="1:14" ht="108" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="3">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="3" t="str">
+        <v>19</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J22" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="K22" s="8">
+        <v>43933</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="M22" s="8">
+        <v>43933</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="90" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="3">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
+        <v>20</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J23" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="K23" s="8">
+        <v>43933</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="M23" s="8">
+        <v>43933</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="3" t="str">
         <f t="shared" ref="A24:A30" si="5">IF(B24="","",ROW()-3)</f>
         <v/>
       </c>
-      <c r="B24" s="3"/>
+      <c r="B24" s="7"/>
       <c r="C24" s="7"/>
       <c r="D24" s="9"/>
       <c r="E24" s="3"/>
@@ -3326,7 +3575,7 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="B25" s="3"/>
+      <c r="B25" s="7"/>
       <c r="C25" s="7"/>
       <c r="D25" s="9"/>
       <c r="E25" s="3"/>
@@ -3345,7 +3594,7 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="B26" s="3"/>
+      <c r="B26" s="7"/>
       <c r="C26" s="7"/>
       <c r="D26" s="9"/>
       <c r="E26" s="3"/>
@@ -3364,7 +3613,7 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="B27" s="3"/>
+      <c r="B27" s="7"/>
       <c r="C27" s="7"/>
       <c r="D27" s="9"/>
       <c r="E27" s="3"/>
@@ -3383,7 +3632,7 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="B28" s="3"/>
+      <c r="B28" s="7"/>
       <c r="C28" s="7"/>
       <c r="D28" s="9"/>
       <c r="E28" s="3"/>
@@ -3402,7 +3651,7 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="B29" s="3"/>
+      <c r="B29" s="7"/>
       <c r="C29" s="7"/>
       <c r="D29" s="9"/>
       <c r="E29" s="3"/>
@@ -3421,7 +3670,7 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="B30" s="3"/>
+      <c r="B30" s="7"/>
       <c r="C30" s="7"/>
       <c r="D30" s="9"/>
       <c r="E30" s="3"/>
@@ -3440,7 +3689,7 @@
         <f t="shared" ref="A31:A34" si="6">IF(B31="","",ROW()-3)</f>
         <v/>
       </c>
-      <c r="B31" s="3"/>
+      <c r="B31" s="7"/>
       <c r="C31" s="7"/>
       <c r="D31" s="9"/>
       <c r="E31" s="3"/>
@@ -3459,7 +3708,7 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="B32" s="3"/>
+      <c r="B32" s="7"/>
       <c r="C32" s="7"/>
       <c r="D32" s="9"/>
       <c r="E32" s="3"/>
@@ -3478,7 +3727,7 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="B33" s="3"/>
+      <c r="B33" s="7"/>
       <c r="C33" s="7"/>
       <c r="D33" s="9"/>
       <c r="E33" s="3"/>
@@ -3497,7 +3746,7 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="B34" s="3"/>
+      <c r="B34" s="7"/>
       <c r="C34" s="7"/>
       <c r="D34" s="9"/>
       <c r="E34" s="3"/>
@@ -3516,7 +3765,7 @@
         <f t="shared" ref="A35" si="7">IF(B35="","",ROW()-3)</f>
         <v/>
       </c>
-      <c r="B35" s="3"/>
+      <c r="B35" s="7"/>
       <c r="C35" s="7"/>
       <c r="D35" s="9"/>
       <c r="E35" s="3"/>
@@ -3535,7 +3784,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="B36" s="3"/>
+      <c r="B36" s="7"/>
       <c r="C36" s="1"/>
       <c r="D36" s="9"/>
       <c r="E36" s="3"/>
@@ -3560,13 +3809,13 @@
           <x14:formula1>
             <xm:f>選択項目!$B$2:$B$5</xm:f>
           </x14:formula1>
-          <xm:sqref>H12:H13 H4:H10 H21:H36</xm:sqref>
+          <xm:sqref>H12:H13 H4:H10 H24:H36</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{382B28DD-E38A-4D72-8578-E33789A9419E}">
           <x14:formula1>
             <xm:f>選択項目!$C$2:$C$4</xm:f>
           </x14:formula1>
-          <xm:sqref>I12:I13 I4:I10 I21:I36</xm:sqref>
+          <xm:sqref>I12:I13 I4:I10 I24:I36</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{AC995D69-40E2-41DE-B510-923F87571674}">
           <x14:formula1>
@@ -3578,7 +3827,7 @@
           <x14:formula1>
             <xm:f>選択項目!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>D14:D17 H14:I20 H11:I11</xm:sqref>
+          <xm:sqref>D14:D17 H14:I23 H11:I11</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/Doc/10品質記録/レビュー結果/課題管理表.xlsx
+++ b/Doc/10品質記録/レビュー結果/課題管理表.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\MyCentOS\pythonGames\Doc\10品質記録\レビュー結果\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E96D522-8822-4CF8-8B74-9F80E8209B3A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08EB51DE-AE55-485B-A505-A1C3E80CB022}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{CFAEB6AA-FC9D-49F8-8BE6-86D0FBA28B0C}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="97">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -1134,6 +1134,71 @@
     </rPh>
     <rPh sb="82" eb="83">
       <t>ツヨ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ファンクション押下ではわかりずらい、メニュー画面に展開できない。</t>
+    <rPh sb="7" eb="9">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>テンカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>上下押下で選択＆Enterキー押下でデータが選べるようにしたい。カーソルは色を変える。</t>
+    <rPh sb="37" eb="38">
+      <t>イロ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ポインターの番号を編集。ポインタ対象が増えた場合のために拡張性が必要。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>wait_for_keyであれこれ処理を行うと、メソッドが大きくなりすぎてしまうため。</t>
+    <rPh sb="17" eb="19">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>オオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>def draw_player(self):を実装show～メソッド内で直接player_nameを描画していたので大きくなりすぎないよう処理を分離</t>
+    <rPh sb="23" eb="25">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>チョクセツ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>ビョウガ</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="69" eb="71">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="72" eb="74">
+      <t>ブンリ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1400,8 +1465,44 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -1432,42 +1533,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1793,860 +1858,853 @@
   <sheetFormatPr defaultColWidth="3.08203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
     <row r="1" spans="1:59" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="14" t="str">
+      <c r="A1" s="26" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>改版履歴</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="18" t="s">
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="18" t="s">
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="18"/>
-      <c r="S1" s="18"/>
-      <c r="T1" s="18"/>
-      <c r="U1" s="18"/>
-      <c r="V1" s="18"/>
-      <c r="W1" s="18"/>
-      <c r="X1" s="18"/>
-      <c r="Y1" s="18" t="s">
+      <c r="R1" s="30"/>
+      <c r="S1" s="30"/>
+      <c r="T1" s="30"/>
+      <c r="U1" s="30"/>
+      <c r="V1" s="30"/>
+      <c r="W1" s="30"/>
+      <c r="X1" s="30"/>
+      <c r="Y1" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="Z1" s="18"/>
-      <c r="AA1" s="18"/>
-      <c r="AB1" s="18"/>
-      <c r="AC1" s="18"/>
-      <c r="AD1" s="18"/>
-      <c r="AE1" s="18"/>
-      <c r="AF1" s="18"/>
-      <c r="AG1" s="18" t="s">
+      <c r="Z1" s="30"/>
+      <c r="AA1" s="30"/>
+      <c r="AB1" s="30"/>
+      <c r="AC1" s="30"/>
+      <c r="AD1" s="30"/>
+      <c r="AE1" s="30"/>
+      <c r="AF1" s="30"/>
+      <c r="AG1" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="AH1" s="18"/>
-      <c r="AI1" s="18"/>
-      <c r="AJ1" s="18"/>
-      <c r="AK1" s="18"/>
-      <c r="AL1" s="18"/>
-      <c r="AM1" s="18"/>
-      <c r="AN1" s="18"/>
-      <c r="AO1" s="18" t="s">
+      <c r="AH1" s="30"/>
+      <c r="AI1" s="30"/>
+      <c r="AJ1" s="30"/>
+      <c r="AK1" s="30"/>
+      <c r="AL1" s="30"/>
+      <c r="AM1" s="30"/>
+      <c r="AN1" s="30"/>
+      <c r="AO1" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="AP1" s="18"/>
-      <c r="AQ1" s="18"/>
-      <c r="AR1" s="18"/>
-      <c r="AS1" s="18"/>
-      <c r="AT1" s="18"/>
-      <c r="AU1" s="18"/>
-      <c r="AV1" s="18"/>
+      <c r="AP1" s="30"/>
+      <c r="AQ1" s="30"/>
+      <c r="AR1" s="30"/>
+      <c r="AS1" s="30"/>
+      <c r="AT1" s="30"/>
+      <c r="AU1" s="30"/>
+      <c r="AV1" s="30"/>
     </row>
     <row r="2" spans="1:59" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="16"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="12" t="str">
+      <c r="A2" s="28"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="24" t="str">
         <f>AX3</f>
         <v>pythonGame</v>
       </c>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="19">
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="24"/>
+      <c r="Q2" s="31">
         <f ca="1">INDIRECT("A"&amp;(COUNTA(A:H)+2))</f>
         <v>43884</v>
       </c>
-      <c r="R2" s="19"/>
-      <c r="S2" s="19"/>
-      <c r="T2" s="19"/>
-      <c r="U2" s="19"/>
-      <c r="V2" s="19"/>
-      <c r="W2" s="19"/>
-      <c r="X2" s="19"/>
-      <c r="Y2" s="20" t="str">
+      <c r="R2" s="31"/>
+      <c r="S2" s="31"/>
+      <c r="T2" s="31"/>
+      <c r="U2" s="31"/>
+      <c r="V2" s="31"/>
+      <c r="W2" s="31"/>
+      <c r="X2" s="31"/>
+      <c r="Y2" s="32" t="str">
         <f ca="1">INDIRECT("AO"&amp;(COUNTA(AO:AV)+1))</f>
         <v>Giphe</v>
       </c>
-      <c r="Z2" s="20"/>
-      <c r="AA2" s="20"/>
-      <c r="AB2" s="20"/>
-      <c r="AC2" s="20"/>
-      <c r="AD2" s="20"/>
-      <c r="AE2" s="20"/>
-      <c r="AF2" s="20"/>
-      <c r="AG2" s="20" t="str">
+      <c r="Z2" s="32"/>
+      <c r="AA2" s="32"/>
+      <c r="AB2" s="32"/>
+      <c r="AC2" s="32"/>
+      <c r="AD2" s="32"/>
+      <c r="AE2" s="32"/>
+      <c r="AF2" s="32"/>
+      <c r="AG2" s="32" t="str">
         <f ca="1">INDIRECT("I"&amp;(COUNTA(I:L)+1))</f>
         <v>1.0</v>
       </c>
-      <c r="AH2" s="20"/>
-      <c r="AI2" s="20"/>
-      <c r="AJ2" s="20"/>
-      <c r="AK2" s="20"/>
-      <c r="AL2" s="20"/>
-      <c r="AM2" s="20"/>
-      <c r="AN2" s="20"/>
-      <c r="AO2" s="12" t="str">
+      <c r="AH2" s="32"/>
+      <c r="AI2" s="32"/>
+      <c r="AJ2" s="32"/>
+      <c r="AK2" s="32"/>
+      <c r="AL2" s="32"/>
+      <c r="AM2" s="32"/>
+      <c r="AN2" s="32"/>
+      <c r="AO2" s="24" t="str">
         <f>BC3</f>
         <v>詳細設計</v>
       </c>
-      <c r="AP2" s="12"/>
-      <c r="AQ2" s="12"/>
-      <c r="AR2" s="12"/>
-      <c r="AS2" s="12"/>
-      <c r="AT2" s="12"/>
-      <c r="AU2" s="12"/>
-      <c r="AV2" s="12"/>
-      <c r="AX2" s="32" t="s">
+      <c r="AP2" s="24"/>
+      <c r="AQ2" s="24"/>
+      <c r="AR2" s="24"/>
+      <c r="AS2" s="24"/>
+      <c r="AT2" s="24"/>
+      <c r="AU2" s="24"/>
+      <c r="AV2" s="24"/>
+      <c r="AX2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="AY2" s="32"/>
-      <c r="AZ2" s="32"/>
-      <c r="BA2" s="32"/>
-      <c r="BB2" s="32"/>
-      <c r="BC2" s="10" t="s">
+      <c r="AY2" s="10"/>
+      <c r="AZ2" s="10"/>
+      <c r="BA2" s="10"/>
+      <c r="BB2" s="10"/>
+      <c r="BC2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="BD2" s="10"/>
-      <c r="BE2" s="10"/>
-      <c r="BF2" s="10"/>
-      <c r="BG2" s="10"/>
+      <c r="BD2" s="11"/>
+      <c r="BE2" s="11"/>
+      <c r="BF2" s="11"/>
+      <c r="BG2" s="11"/>
     </row>
     <row r="3" spans="1:59" x14ac:dyDescent="0.55000000000000004">
-      <c r="AX3" s="32" t="s">
+      <c r="AX3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="AY3" s="32"/>
-      <c r="AZ3" s="32"/>
-      <c r="BA3" s="32"/>
-      <c r="BB3" s="32"/>
-      <c r="BC3" s="10" t="s">
+      <c r="AY3" s="10"/>
+      <c r="AZ3" s="10"/>
+      <c r="BA3" s="10"/>
+      <c r="BB3" s="10"/>
+      <c r="BC3" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="BD3" s="10"/>
-      <c r="BE3" s="10"/>
-      <c r="BF3" s="10"/>
-      <c r="BG3" s="10"/>
+      <c r="BD3" s="11"/>
+      <c r="BE3" s="11"/>
+      <c r="BF3" s="11"/>
+      <c r="BG3" s="11"/>
     </row>
     <row r="4" spans="1:59" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="28" t="s">
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="29"/>
-      <c r="K4" s="29"/>
-      <c r="L4" s="30"/>
-      <c r="M4" s="21" t="s">
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="N4" s="22"/>
-      <c r="O4" s="22"/>
-      <c r="P4" s="22"/>
-      <c r="Q4" s="22"/>
-      <c r="R4" s="22"/>
-      <c r="S4" s="22"/>
-      <c r="T4" s="22"/>
-      <c r="U4" s="22"/>
-      <c r="V4" s="22"/>
-      <c r="W4" s="22"/>
-      <c r="X4" s="22"/>
-      <c r="Y4" s="22"/>
-      <c r="Z4" s="22"/>
-      <c r="AA4" s="22"/>
-      <c r="AB4" s="22"/>
-      <c r="AC4" s="22"/>
-      <c r="AD4" s="22"/>
-      <c r="AE4" s="22"/>
-      <c r="AF4" s="22"/>
-      <c r="AG4" s="22"/>
-      <c r="AH4" s="22"/>
-      <c r="AI4" s="22"/>
-      <c r="AJ4" s="22"/>
-      <c r="AK4" s="22"/>
-      <c r="AL4" s="22"/>
-      <c r="AM4" s="22"/>
-      <c r="AN4" s="23"/>
-      <c r="AO4" s="21" t="s">
+      <c r="N4" s="17"/>
+      <c r="O4" s="17"/>
+      <c r="P4" s="17"/>
+      <c r="Q4" s="17"/>
+      <c r="R4" s="17"/>
+      <c r="S4" s="17"/>
+      <c r="T4" s="17"/>
+      <c r="U4" s="17"/>
+      <c r="V4" s="17"/>
+      <c r="W4" s="17"/>
+      <c r="X4" s="17"/>
+      <c r="Y4" s="17"/>
+      <c r="Z4" s="17"/>
+      <c r="AA4" s="17"/>
+      <c r="AB4" s="17"/>
+      <c r="AC4" s="17"/>
+      <c r="AD4" s="17"/>
+      <c r="AE4" s="17"/>
+      <c r="AF4" s="17"/>
+      <c r="AG4" s="17"/>
+      <c r="AH4" s="17"/>
+      <c r="AI4" s="17"/>
+      <c r="AJ4" s="17"/>
+      <c r="AK4" s="17"/>
+      <c r="AL4" s="17"/>
+      <c r="AM4" s="17"/>
+      <c r="AN4" s="18"/>
+      <c r="AO4" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="AP4" s="22"/>
-      <c r="AQ4" s="22"/>
-      <c r="AR4" s="22"/>
-      <c r="AS4" s="22"/>
-      <c r="AT4" s="22"/>
-      <c r="AU4" s="22"/>
-      <c r="AV4" s="23"/>
+      <c r="AP4" s="17"/>
+      <c r="AQ4" s="17"/>
+      <c r="AR4" s="17"/>
+      <c r="AS4" s="17"/>
+      <c r="AT4" s="17"/>
+      <c r="AU4" s="17"/>
+      <c r="AV4" s="18"/>
     </row>
     <row r="5" spans="1:59" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="11">
+      <c r="A5" s="23">
         <v>43884</v>
       </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="31" t="s">
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="31"/>
-      <c r="K5" s="31"/>
-      <c r="L5" s="31"/>
-      <c r="M5" s="24" t="s">
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="N5" s="25"/>
-      <c r="O5" s="25"/>
-      <c r="P5" s="25"/>
-      <c r="Q5" s="25"/>
-      <c r="R5" s="25"/>
-      <c r="S5" s="25"/>
-      <c r="T5" s="25"/>
-      <c r="U5" s="25"/>
-      <c r="V5" s="25"/>
-      <c r="W5" s="25"/>
-      <c r="X5" s="25"/>
-      <c r="Y5" s="25"/>
-      <c r="Z5" s="25"/>
-      <c r="AA5" s="25"/>
-      <c r="AB5" s="25"/>
-      <c r="AC5" s="25"/>
-      <c r="AD5" s="25"/>
-      <c r="AE5" s="25"/>
-      <c r="AF5" s="25"/>
-      <c r="AG5" s="25"/>
-      <c r="AH5" s="25"/>
-      <c r="AI5" s="25"/>
-      <c r="AJ5" s="25"/>
-      <c r="AK5" s="25"/>
-      <c r="AL5" s="25"/>
-      <c r="AM5" s="25"/>
-      <c r="AN5" s="26"/>
-      <c r="AO5" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="AP5" s="25"/>
-      <c r="AQ5" s="25"/>
-      <c r="AR5" s="25"/>
-      <c r="AS5" s="25"/>
-      <c r="AT5" s="25"/>
-      <c r="AU5" s="25"/>
-      <c r="AV5" s="26"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="13"/>
+      <c r="P5" s="13"/>
+      <c r="Q5" s="13"/>
+      <c r="R5" s="13"/>
+      <c r="S5" s="13"/>
+      <c r="T5" s="13"/>
+      <c r="U5" s="13"/>
+      <c r="V5" s="13"/>
+      <c r="W5" s="13"/>
+      <c r="X5" s="13"/>
+      <c r="Y5" s="13"/>
+      <c r="Z5" s="13"/>
+      <c r="AA5" s="13"/>
+      <c r="AB5" s="13"/>
+      <c r="AC5" s="13"/>
+      <c r="AD5" s="13"/>
+      <c r="AE5" s="13"/>
+      <c r="AF5" s="13"/>
+      <c r="AG5" s="13"/>
+      <c r="AH5" s="13"/>
+      <c r="AI5" s="13"/>
+      <c r="AJ5" s="13"/>
+      <c r="AK5" s="13"/>
+      <c r="AL5" s="13"/>
+      <c r="AM5" s="13"/>
+      <c r="AN5" s="14"/>
+      <c r="AO5" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="AP5" s="13"/>
+      <c r="AQ5" s="13"/>
+      <c r="AR5" s="13"/>
+      <c r="AS5" s="13"/>
+      <c r="AT5" s="13"/>
+      <c r="AU5" s="13"/>
+      <c r="AV5" s="14"/>
     </row>
     <row r="6" spans="1:59" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="27"/>
-      <c r="J6" s="27"/>
-      <c r="K6" s="27"/>
-      <c r="L6" s="27"/>
-      <c r="M6" s="24"/>
-      <c r="N6" s="25"/>
-      <c r="O6" s="25"/>
-      <c r="P6" s="25"/>
-      <c r="Q6" s="25"/>
-      <c r="R6" s="25"/>
-      <c r="S6" s="25"/>
-      <c r="T6" s="25"/>
-      <c r="U6" s="25"/>
-      <c r="V6" s="25"/>
-      <c r="W6" s="25"/>
-      <c r="X6" s="25"/>
-      <c r="Y6" s="25"/>
-      <c r="Z6" s="25"/>
-      <c r="AA6" s="25"/>
-      <c r="AB6" s="25"/>
-      <c r="AC6" s="25"/>
-      <c r="AD6" s="25"/>
-      <c r="AE6" s="25"/>
-      <c r="AF6" s="25"/>
-      <c r="AG6" s="25"/>
-      <c r="AH6" s="25"/>
-      <c r="AI6" s="25"/>
-      <c r="AJ6" s="25"/>
-      <c r="AK6" s="25"/>
-      <c r="AL6" s="25"/>
-      <c r="AM6" s="25"/>
-      <c r="AN6" s="26"/>
-      <c r="AO6" s="24"/>
-      <c r="AP6" s="25"/>
-      <c r="AQ6" s="25"/>
-      <c r="AR6" s="25"/>
-      <c r="AS6" s="25"/>
-      <c r="AT6" s="25"/>
-      <c r="AU6" s="25"/>
-      <c r="AV6" s="26"/>
+      <c r="A6" s="11"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="13"/>
+      <c r="Q6" s="13"/>
+      <c r="R6" s="13"/>
+      <c r="S6" s="13"/>
+      <c r="T6" s="13"/>
+      <c r="U6" s="13"/>
+      <c r="V6" s="13"/>
+      <c r="W6" s="13"/>
+      <c r="X6" s="13"/>
+      <c r="Y6" s="13"/>
+      <c r="Z6" s="13"/>
+      <c r="AA6" s="13"/>
+      <c r="AB6" s="13"/>
+      <c r="AC6" s="13"/>
+      <c r="AD6" s="13"/>
+      <c r="AE6" s="13"/>
+      <c r="AF6" s="13"/>
+      <c r="AG6" s="13"/>
+      <c r="AH6" s="13"/>
+      <c r="AI6" s="13"/>
+      <c r="AJ6" s="13"/>
+      <c r="AK6" s="13"/>
+      <c r="AL6" s="13"/>
+      <c r="AM6" s="13"/>
+      <c r="AN6" s="14"/>
+      <c r="AO6" s="12"/>
+      <c r="AP6" s="13"/>
+      <c r="AQ6" s="13"/>
+      <c r="AR6" s="13"/>
+      <c r="AS6" s="13"/>
+      <c r="AT6" s="13"/>
+      <c r="AU6" s="13"/>
+      <c r="AV6" s="14"/>
     </row>
     <row r="7" spans="1:59" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="10"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="27"/>
-      <c r="J7" s="27"/>
-      <c r="K7" s="27"/>
-      <c r="L7" s="27"/>
-      <c r="M7" s="24"/>
-      <c r="N7" s="25"/>
-      <c r="O7" s="25"/>
-      <c r="P7" s="25"/>
-      <c r="Q7" s="25"/>
-      <c r="R7" s="25"/>
-      <c r="S7" s="25"/>
-      <c r="T7" s="25"/>
-      <c r="U7" s="25"/>
-      <c r="V7" s="25"/>
-      <c r="W7" s="25"/>
-      <c r="X7" s="25"/>
-      <c r="Y7" s="25"/>
-      <c r="Z7" s="25"/>
-      <c r="AA7" s="25"/>
-      <c r="AB7" s="25"/>
-      <c r="AC7" s="25"/>
-      <c r="AD7" s="25"/>
-      <c r="AE7" s="25"/>
-      <c r="AF7" s="25"/>
-      <c r="AG7" s="25"/>
-      <c r="AH7" s="25"/>
-      <c r="AI7" s="25"/>
-      <c r="AJ7" s="25"/>
-      <c r="AK7" s="25"/>
-      <c r="AL7" s="25"/>
-      <c r="AM7" s="25"/>
-      <c r="AN7" s="26"/>
-      <c r="AO7" s="24"/>
-      <c r="AP7" s="25"/>
-      <c r="AQ7" s="25"/>
-      <c r="AR7" s="25"/>
-      <c r="AS7" s="25"/>
-      <c r="AT7" s="25"/>
-      <c r="AU7" s="25"/>
-      <c r="AV7" s="26"/>
+      <c r="A7" s="11"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="13"/>
+      <c r="P7" s="13"/>
+      <c r="Q7" s="13"/>
+      <c r="R7" s="13"/>
+      <c r="S7" s="13"/>
+      <c r="T7" s="13"/>
+      <c r="U7" s="13"/>
+      <c r="V7" s="13"/>
+      <c r="W7" s="13"/>
+      <c r="X7" s="13"/>
+      <c r="Y7" s="13"/>
+      <c r="Z7" s="13"/>
+      <c r="AA7" s="13"/>
+      <c r="AB7" s="13"/>
+      <c r="AC7" s="13"/>
+      <c r="AD7" s="13"/>
+      <c r="AE7" s="13"/>
+      <c r="AF7" s="13"/>
+      <c r="AG7" s="13"/>
+      <c r="AH7" s="13"/>
+      <c r="AI7" s="13"/>
+      <c r="AJ7" s="13"/>
+      <c r="AK7" s="13"/>
+      <c r="AL7" s="13"/>
+      <c r="AM7" s="13"/>
+      <c r="AN7" s="14"/>
+      <c r="AO7" s="12"/>
+      <c r="AP7" s="13"/>
+      <c r="AQ7" s="13"/>
+      <c r="AR7" s="13"/>
+      <c r="AS7" s="13"/>
+      <c r="AT7" s="13"/>
+      <c r="AU7" s="13"/>
+      <c r="AV7" s="14"/>
     </row>
     <row r="8" spans="1:59" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="10"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="27"/>
-      <c r="J8" s="27"/>
-      <c r="K8" s="27"/>
-      <c r="L8" s="27"/>
-      <c r="M8" s="24"/>
-      <c r="N8" s="25"/>
-      <c r="O8" s="25"/>
-      <c r="P8" s="25"/>
-      <c r="Q8" s="25"/>
-      <c r="R8" s="25"/>
-      <c r="S8" s="25"/>
-      <c r="T8" s="25"/>
-      <c r="U8" s="25"/>
-      <c r="V8" s="25"/>
-      <c r="W8" s="25"/>
-      <c r="X8" s="25"/>
-      <c r="Y8" s="25"/>
-      <c r="Z8" s="25"/>
-      <c r="AA8" s="25"/>
-      <c r="AB8" s="25"/>
-      <c r="AC8" s="25"/>
-      <c r="AD8" s="25"/>
-      <c r="AE8" s="25"/>
-      <c r="AF8" s="25"/>
-      <c r="AG8" s="25"/>
-      <c r="AH8" s="25"/>
-      <c r="AI8" s="25"/>
-      <c r="AJ8" s="25"/>
-      <c r="AK8" s="25"/>
-      <c r="AL8" s="25"/>
-      <c r="AM8" s="25"/>
-      <c r="AN8" s="26"/>
-      <c r="AO8" s="24"/>
-      <c r="AP8" s="25"/>
-      <c r="AQ8" s="25"/>
-      <c r="AR8" s="25"/>
-      <c r="AS8" s="25"/>
-      <c r="AT8" s="25"/>
-      <c r="AU8" s="25"/>
-      <c r="AV8" s="26"/>
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="13"/>
+      <c r="P8" s="13"/>
+      <c r="Q8" s="13"/>
+      <c r="R8" s="13"/>
+      <c r="S8" s="13"/>
+      <c r="T8" s="13"/>
+      <c r="U8" s="13"/>
+      <c r="V8" s="13"/>
+      <c r="W8" s="13"/>
+      <c r="X8" s="13"/>
+      <c r="Y8" s="13"/>
+      <c r="Z8" s="13"/>
+      <c r="AA8" s="13"/>
+      <c r="AB8" s="13"/>
+      <c r="AC8" s="13"/>
+      <c r="AD8" s="13"/>
+      <c r="AE8" s="13"/>
+      <c r="AF8" s="13"/>
+      <c r="AG8" s="13"/>
+      <c r="AH8" s="13"/>
+      <c r="AI8" s="13"/>
+      <c r="AJ8" s="13"/>
+      <c r="AK8" s="13"/>
+      <c r="AL8" s="13"/>
+      <c r="AM8" s="13"/>
+      <c r="AN8" s="14"/>
+      <c r="AO8" s="12"/>
+      <c r="AP8" s="13"/>
+      <c r="AQ8" s="13"/>
+      <c r="AR8" s="13"/>
+      <c r="AS8" s="13"/>
+      <c r="AT8" s="13"/>
+      <c r="AU8" s="13"/>
+      <c r="AV8" s="14"/>
     </row>
     <row r="9" spans="1:59" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="10"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="27"/>
-      <c r="K9" s="27"/>
-      <c r="L9" s="27"/>
-      <c r="M9" s="24"/>
-      <c r="N9" s="25"/>
-      <c r="O9" s="25"/>
-      <c r="P9" s="25"/>
-      <c r="Q9" s="25"/>
-      <c r="R9" s="25"/>
-      <c r="S9" s="25"/>
-      <c r="T9" s="25"/>
-      <c r="U9" s="25"/>
-      <c r="V9" s="25"/>
-      <c r="W9" s="25"/>
-      <c r="X9" s="25"/>
-      <c r="Y9" s="25"/>
-      <c r="Z9" s="25"/>
-      <c r="AA9" s="25"/>
-      <c r="AB9" s="25"/>
-      <c r="AC9" s="25"/>
-      <c r="AD9" s="25"/>
-      <c r="AE9" s="25"/>
-      <c r="AF9" s="25"/>
-      <c r="AG9" s="25"/>
-      <c r="AH9" s="25"/>
-      <c r="AI9" s="25"/>
-      <c r="AJ9" s="25"/>
-      <c r="AK9" s="25"/>
-      <c r="AL9" s="25"/>
-      <c r="AM9" s="25"/>
-      <c r="AN9" s="26"/>
-      <c r="AO9" s="24"/>
-      <c r="AP9" s="25"/>
-      <c r="AQ9" s="25"/>
-      <c r="AR9" s="25"/>
-      <c r="AS9" s="25"/>
-      <c r="AT9" s="25"/>
-      <c r="AU9" s="25"/>
-      <c r="AV9" s="26"/>
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="13"/>
+      <c r="O9" s="13"/>
+      <c r="P9" s="13"/>
+      <c r="Q9" s="13"/>
+      <c r="R9" s="13"/>
+      <c r="S9" s="13"/>
+      <c r="T9" s="13"/>
+      <c r="U9" s="13"/>
+      <c r="V9" s="13"/>
+      <c r="W9" s="13"/>
+      <c r="X9" s="13"/>
+      <c r="Y9" s="13"/>
+      <c r="Z9" s="13"/>
+      <c r="AA9" s="13"/>
+      <c r="AB9" s="13"/>
+      <c r="AC9" s="13"/>
+      <c r="AD9" s="13"/>
+      <c r="AE9" s="13"/>
+      <c r="AF9" s="13"/>
+      <c r="AG9" s="13"/>
+      <c r="AH9" s="13"/>
+      <c r="AI9" s="13"/>
+      <c r="AJ9" s="13"/>
+      <c r="AK9" s="13"/>
+      <c r="AL9" s="13"/>
+      <c r="AM9" s="13"/>
+      <c r="AN9" s="14"/>
+      <c r="AO9" s="12"/>
+      <c r="AP9" s="13"/>
+      <c r="AQ9" s="13"/>
+      <c r="AR9" s="13"/>
+      <c r="AS9" s="13"/>
+      <c r="AT9" s="13"/>
+      <c r="AU9" s="13"/>
+      <c r="AV9" s="14"/>
     </row>
     <row r="10" spans="1:59" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="10"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="27"/>
-      <c r="J10" s="27"/>
-      <c r="K10" s="27"/>
-      <c r="L10" s="27"/>
-      <c r="M10" s="24"/>
-      <c r="N10" s="25"/>
-      <c r="O10" s="25"/>
-      <c r="P10" s="25"/>
-      <c r="Q10" s="25"/>
-      <c r="R10" s="25"/>
-      <c r="S10" s="25"/>
-      <c r="T10" s="25"/>
-      <c r="U10" s="25"/>
-      <c r="V10" s="25"/>
-      <c r="W10" s="25"/>
-      <c r="X10" s="25"/>
-      <c r="Y10" s="25"/>
-      <c r="Z10" s="25"/>
-      <c r="AA10" s="25"/>
-      <c r="AB10" s="25"/>
-      <c r="AC10" s="25"/>
-      <c r="AD10" s="25"/>
-      <c r="AE10" s="25"/>
-      <c r="AF10" s="25"/>
-      <c r="AG10" s="25"/>
-      <c r="AH10" s="25"/>
-      <c r="AI10" s="25"/>
-      <c r="AJ10" s="25"/>
-      <c r="AK10" s="25"/>
-      <c r="AL10" s="25"/>
-      <c r="AM10" s="25"/>
-      <c r="AN10" s="26"/>
-      <c r="AO10" s="24"/>
-      <c r="AP10" s="25"/>
-      <c r="AQ10" s="25"/>
-      <c r="AR10" s="25"/>
-      <c r="AS10" s="25"/>
-      <c r="AT10" s="25"/>
-      <c r="AU10" s="25"/>
-      <c r="AV10" s="26"/>
+      <c r="A10" s="11"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="13"/>
+      <c r="P10" s="13"/>
+      <c r="Q10" s="13"/>
+      <c r="R10" s="13"/>
+      <c r="S10" s="13"/>
+      <c r="T10" s="13"/>
+      <c r="U10" s="13"/>
+      <c r="V10" s="13"/>
+      <c r="W10" s="13"/>
+      <c r="X10" s="13"/>
+      <c r="Y10" s="13"/>
+      <c r="Z10" s="13"/>
+      <c r="AA10" s="13"/>
+      <c r="AB10" s="13"/>
+      <c r="AC10" s="13"/>
+      <c r="AD10" s="13"/>
+      <c r="AE10" s="13"/>
+      <c r="AF10" s="13"/>
+      <c r="AG10" s="13"/>
+      <c r="AH10" s="13"/>
+      <c r="AI10" s="13"/>
+      <c r="AJ10" s="13"/>
+      <c r="AK10" s="13"/>
+      <c r="AL10" s="13"/>
+      <c r="AM10" s="13"/>
+      <c r="AN10" s="14"/>
+      <c r="AO10" s="12"/>
+      <c r="AP10" s="13"/>
+      <c r="AQ10" s="13"/>
+      <c r="AR10" s="13"/>
+      <c r="AS10" s="13"/>
+      <c r="AT10" s="13"/>
+      <c r="AU10" s="13"/>
+      <c r="AV10" s="14"/>
     </row>
     <row r="11" spans="1:59" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="10"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="27"/>
-      <c r="J11" s="27"/>
-      <c r="K11" s="27"/>
-      <c r="L11" s="27"/>
-      <c r="M11" s="24"/>
-      <c r="N11" s="25"/>
-      <c r="O11" s="25"/>
-      <c r="P11" s="25"/>
-      <c r="Q11" s="25"/>
-      <c r="R11" s="25"/>
-      <c r="S11" s="25"/>
-      <c r="T11" s="25"/>
-      <c r="U11" s="25"/>
-      <c r="V11" s="25"/>
-      <c r="W11" s="25"/>
-      <c r="X11" s="25"/>
-      <c r="Y11" s="25"/>
-      <c r="Z11" s="25"/>
-      <c r="AA11" s="25"/>
-      <c r="AB11" s="25"/>
-      <c r="AC11" s="25"/>
-      <c r="AD11" s="25"/>
-      <c r="AE11" s="25"/>
-      <c r="AF11" s="25"/>
-      <c r="AG11" s="25"/>
-      <c r="AH11" s="25"/>
-      <c r="AI11" s="25"/>
-      <c r="AJ11" s="25"/>
-      <c r="AK11" s="25"/>
-      <c r="AL11" s="25"/>
-      <c r="AM11" s="25"/>
-      <c r="AN11" s="26"/>
-      <c r="AO11" s="24"/>
-      <c r="AP11" s="25"/>
-      <c r="AQ11" s="25"/>
-      <c r="AR11" s="25"/>
-      <c r="AS11" s="25"/>
-      <c r="AT11" s="25"/>
-      <c r="AU11" s="25"/>
-      <c r="AV11" s="26"/>
+      <c r="A11" s="11"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="13"/>
+      <c r="O11" s="13"/>
+      <c r="P11" s="13"/>
+      <c r="Q11" s="13"/>
+      <c r="R11" s="13"/>
+      <c r="S11" s="13"/>
+      <c r="T11" s="13"/>
+      <c r="U11" s="13"/>
+      <c r="V11" s="13"/>
+      <c r="W11" s="13"/>
+      <c r="X11" s="13"/>
+      <c r="Y11" s="13"/>
+      <c r="Z11" s="13"/>
+      <c r="AA11" s="13"/>
+      <c r="AB11" s="13"/>
+      <c r="AC11" s="13"/>
+      <c r="AD11" s="13"/>
+      <c r="AE11" s="13"/>
+      <c r="AF11" s="13"/>
+      <c r="AG11" s="13"/>
+      <c r="AH11" s="13"/>
+      <c r="AI11" s="13"/>
+      <c r="AJ11" s="13"/>
+      <c r="AK11" s="13"/>
+      <c r="AL11" s="13"/>
+      <c r="AM11" s="13"/>
+      <c r="AN11" s="14"/>
+      <c r="AO11" s="12"/>
+      <c r="AP11" s="13"/>
+      <c r="AQ11" s="13"/>
+      <c r="AR11" s="13"/>
+      <c r="AS11" s="13"/>
+      <c r="AT11" s="13"/>
+      <c r="AU11" s="13"/>
+      <c r="AV11" s="14"/>
     </row>
     <row r="12" spans="1:59" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="10"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="27"/>
-      <c r="J12" s="27"/>
-      <c r="K12" s="27"/>
-      <c r="L12" s="27"/>
-      <c r="M12" s="24"/>
-      <c r="N12" s="25"/>
-      <c r="O12" s="25"/>
-      <c r="P12" s="25"/>
-      <c r="Q12" s="25"/>
-      <c r="R12" s="25"/>
-      <c r="S12" s="25"/>
-      <c r="T12" s="25"/>
-      <c r="U12" s="25"/>
-      <c r="V12" s="25"/>
-      <c r="W12" s="25"/>
-      <c r="X12" s="25"/>
-      <c r="Y12" s="25"/>
-      <c r="Z12" s="25"/>
-      <c r="AA12" s="25"/>
-      <c r="AB12" s="25"/>
-      <c r="AC12" s="25"/>
-      <c r="AD12" s="25"/>
-      <c r="AE12" s="25"/>
-      <c r="AF12" s="25"/>
-      <c r="AG12" s="25"/>
-      <c r="AH12" s="25"/>
-      <c r="AI12" s="25"/>
-      <c r="AJ12" s="25"/>
-      <c r="AK12" s="25"/>
-      <c r="AL12" s="25"/>
-      <c r="AM12" s="25"/>
-      <c r="AN12" s="26"/>
-      <c r="AO12" s="24"/>
-      <c r="AP12" s="25"/>
-      <c r="AQ12" s="25"/>
-      <c r="AR12" s="25"/>
-      <c r="AS12" s="25"/>
-      <c r="AT12" s="25"/>
-      <c r="AU12" s="25"/>
-      <c r="AV12" s="26"/>
+      <c r="A12" s="11"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="13"/>
+      <c r="O12" s="13"/>
+      <c r="P12" s="13"/>
+      <c r="Q12" s="13"/>
+      <c r="R12" s="13"/>
+      <c r="S12" s="13"/>
+      <c r="T12" s="13"/>
+      <c r="U12" s="13"/>
+      <c r="V12" s="13"/>
+      <c r="W12" s="13"/>
+      <c r="X12" s="13"/>
+      <c r="Y12" s="13"/>
+      <c r="Z12" s="13"/>
+      <c r="AA12" s="13"/>
+      <c r="AB12" s="13"/>
+      <c r="AC12" s="13"/>
+      <c r="AD12" s="13"/>
+      <c r="AE12" s="13"/>
+      <c r="AF12" s="13"/>
+      <c r="AG12" s="13"/>
+      <c r="AH12" s="13"/>
+      <c r="AI12" s="13"/>
+      <c r="AJ12" s="13"/>
+      <c r="AK12" s="13"/>
+      <c r="AL12" s="13"/>
+      <c r="AM12" s="13"/>
+      <c r="AN12" s="14"/>
+      <c r="AO12" s="12"/>
+      <c r="AP12" s="13"/>
+      <c r="AQ12" s="13"/>
+      <c r="AR12" s="13"/>
+      <c r="AS12" s="13"/>
+      <c r="AT12" s="13"/>
+      <c r="AU12" s="13"/>
+      <c r="AV12" s="14"/>
     </row>
     <row r="13" spans="1:59" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="10"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="27"/>
-      <c r="K13" s="27"/>
-      <c r="L13" s="27"/>
-      <c r="M13" s="24"/>
-      <c r="N13" s="25"/>
-      <c r="O13" s="25"/>
-      <c r="P13" s="25"/>
-      <c r="Q13" s="25"/>
-      <c r="R13" s="25"/>
-      <c r="S13" s="25"/>
-      <c r="T13" s="25"/>
-      <c r="U13" s="25"/>
-      <c r="V13" s="25"/>
-      <c r="W13" s="25"/>
-      <c r="X13" s="25"/>
-      <c r="Y13" s="25"/>
-      <c r="Z13" s="25"/>
-      <c r="AA13" s="25"/>
-      <c r="AB13" s="25"/>
-      <c r="AC13" s="25"/>
-      <c r="AD13" s="25"/>
-      <c r="AE13" s="25"/>
-      <c r="AF13" s="25"/>
-      <c r="AG13" s="25"/>
-      <c r="AH13" s="25"/>
-      <c r="AI13" s="25"/>
-      <c r="AJ13" s="25"/>
-      <c r="AK13" s="25"/>
-      <c r="AL13" s="25"/>
-      <c r="AM13" s="25"/>
-      <c r="AN13" s="26"/>
-      <c r="AO13" s="24"/>
-      <c r="AP13" s="25"/>
-      <c r="AQ13" s="25"/>
-      <c r="AR13" s="25"/>
-      <c r="AS13" s="25"/>
-      <c r="AT13" s="25"/>
-      <c r="AU13" s="25"/>
-      <c r="AV13" s="26"/>
+      <c r="A13" s="11"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="13"/>
+      <c r="O13" s="13"/>
+      <c r="P13" s="13"/>
+      <c r="Q13" s="13"/>
+      <c r="R13" s="13"/>
+      <c r="S13" s="13"/>
+      <c r="T13" s="13"/>
+      <c r="U13" s="13"/>
+      <c r="V13" s="13"/>
+      <c r="W13" s="13"/>
+      <c r="X13" s="13"/>
+      <c r="Y13" s="13"/>
+      <c r="Z13" s="13"/>
+      <c r="AA13" s="13"/>
+      <c r="AB13" s="13"/>
+      <c r="AC13" s="13"/>
+      <c r="AD13" s="13"/>
+      <c r="AE13" s="13"/>
+      <c r="AF13" s="13"/>
+      <c r="AG13" s="13"/>
+      <c r="AH13" s="13"/>
+      <c r="AI13" s="13"/>
+      <c r="AJ13" s="13"/>
+      <c r="AK13" s="13"/>
+      <c r="AL13" s="13"/>
+      <c r="AM13" s="13"/>
+      <c r="AN13" s="14"/>
+      <c r="AO13" s="12"/>
+      <c r="AP13" s="13"/>
+      <c r="AQ13" s="13"/>
+      <c r="AR13" s="13"/>
+      <c r="AS13" s="13"/>
+      <c r="AT13" s="13"/>
+      <c r="AU13" s="13"/>
+      <c r="AV13" s="14"/>
     </row>
     <row r="14" spans="1:59" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="10"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="27"/>
-      <c r="J14" s="27"/>
-      <c r="K14" s="27"/>
-      <c r="L14" s="27"/>
-      <c r="M14" s="24"/>
-      <c r="N14" s="25"/>
-      <c r="O14" s="25"/>
-      <c r="P14" s="25"/>
-      <c r="Q14" s="25"/>
-      <c r="R14" s="25"/>
-      <c r="S14" s="25"/>
-      <c r="T14" s="25"/>
-      <c r="U14" s="25"/>
-      <c r="V14" s="25"/>
-      <c r="W14" s="25"/>
-      <c r="X14" s="25"/>
-      <c r="Y14" s="25"/>
-      <c r="Z14" s="25"/>
-      <c r="AA14" s="25"/>
-      <c r="AB14" s="25"/>
-      <c r="AC14" s="25"/>
-      <c r="AD14" s="25"/>
-      <c r="AE14" s="25"/>
-      <c r="AF14" s="25"/>
-      <c r="AG14" s="25"/>
-      <c r="AH14" s="25"/>
-      <c r="AI14" s="25"/>
-      <c r="AJ14" s="25"/>
-      <c r="AK14" s="25"/>
-      <c r="AL14" s="25"/>
-      <c r="AM14" s="25"/>
-      <c r="AN14" s="26"/>
-      <c r="AO14" s="24"/>
-      <c r="AP14" s="25"/>
-      <c r="AQ14" s="25"/>
-      <c r="AR14" s="25"/>
-      <c r="AS14" s="25"/>
-      <c r="AT14" s="25"/>
-      <c r="AU14" s="25"/>
-      <c r="AV14" s="26"/>
+      <c r="A14" s="11"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="13"/>
+      <c r="O14" s="13"/>
+      <c r="P14" s="13"/>
+      <c r="Q14" s="13"/>
+      <c r="R14" s="13"/>
+      <c r="S14" s="13"/>
+      <c r="T14" s="13"/>
+      <c r="U14" s="13"/>
+      <c r="V14" s="13"/>
+      <c r="W14" s="13"/>
+      <c r="X14" s="13"/>
+      <c r="Y14" s="13"/>
+      <c r="Z14" s="13"/>
+      <c r="AA14" s="13"/>
+      <c r="AB14" s="13"/>
+      <c r="AC14" s="13"/>
+      <c r="AD14" s="13"/>
+      <c r="AE14" s="13"/>
+      <c r="AF14" s="13"/>
+      <c r="AG14" s="13"/>
+      <c r="AH14" s="13"/>
+      <c r="AI14" s="13"/>
+      <c r="AJ14" s="13"/>
+      <c r="AK14" s="13"/>
+      <c r="AL14" s="13"/>
+      <c r="AM14" s="13"/>
+      <c r="AN14" s="14"/>
+      <c r="AO14" s="12"/>
+      <c r="AP14" s="13"/>
+      <c r="AQ14" s="13"/>
+      <c r="AR14" s="13"/>
+      <c r="AS14" s="13"/>
+      <c r="AT14" s="13"/>
+      <c r="AU14" s="13"/>
+      <c r="AV14" s="14"/>
     </row>
     <row r="15" spans="1:59" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="10"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="27"/>
-      <c r="J15" s="27"/>
-      <c r="K15" s="27"/>
-      <c r="L15" s="27"/>
-      <c r="M15" s="24"/>
-      <c r="N15" s="25"/>
-      <c r="O15" s="25"/>
-      <c r="P15" s="25"/>
-      <c r="Q15" s="25"/>
-      <c r="R15" s="25"/>
-      <c r="S15" s="25"/>
-      <c r="T15" s="25"/>
-      <c r="U15" s="25"/>
-      <c r="V15" s="25"/>
-      <c r="W15" s="25"/>
-      <c r="X15" s="25"/>
-      <c r="Y15" s="25"/>
-      <c r="Z15" s="25"/>
-      <c r="AA15" s="25"/>
-      <c r="AB15" s="25"/>
-      <c r="AC15" s="25"/>
-      <c r="AD15" s="25"/>
-      <c r="AE15" s="25"/>
-      <c r="AF15" s="25"/>
-      <c r="AG15" s="25"/>
-      <c r="AH15" s="25"/>
-      <c r="AI15" s="25"/>
-      <c r="AJ15" s="25"/>
-      <c r="AK15" s="25"/>
-      <c r="AL15" s="25"/>
-      <c r="AM15" s="25"/>
-      <c r="AN15" s="26"/>
-      <c r="AO15" s="24"/>
-      <c r="AP15" s="25"/>
-      <c r="AQ15" s="25"/>
-      <c r="AR15" s="25"/>
-      <c r="AS15" s="25"/>
-      <c r="AT15" s="25"/>
-      <c r="AU15" s="25"/>
-      <c r="AV15" s="26"/>
+      <c r="A15" s="11"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="13"/>
+      <c r="O15" s="13"/>
+      <c r="P15" s="13"/>
+      <c r="Q15" s="13"/>
+      <c r="R15" s="13"/>
+      <c r="S15" s="13"/>
+      <c r="T15" s="13"/>
+      <c r="U15" s="13"/>
+      <c r="V15" s="13"/>
+      <c r="W15" s="13"/>
+      <c r="X15" s="13"/>
+      <c r="Y15" s="13"/>
+      <c r="Z15" s="13"/>
+      <c r="AA15" s="13"/>
+      <c r="AB15" s="13"/>
+      <c r="AC15" s="13"/>
+      <c r="AD15" s="13"/>
+      <c r="AE15" s="13"/>
+      <c r="AF15" s="13"/>
+      <c r="AG15" s="13"/>
+      <c r="AH15" s="13"/>
+      <c r="AI15" s="13"/>
+      <c r="AJ15" s="13"/>
+      <c r="AK15" s="13"/>
+      <c r="AL15" s="13"/>
+      <c r="AM15" s="13"/>
+      <c r="AN15" s="14"/>
+      <c r="AO15" s="12"/>
+      <c r="AP15" s="13"/>
+      <c r="AQ15" s="13"/>
+      <c r="AR15" s="13"/>
+      <c r="AS15" s="13"/>
+      <c r="AT15" s="13"/>
+      <c r="AU15" s="13"/>
+      <c r="AV15" s="14"/>
     </row>
     <row r="16" spans="1:59" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="10"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="27"/>
-      <c r="J16" s="27"/>
-      <c r="K16" s="27"/>
-      <c r="L16" s="27"/>
-      <c r="M16" s="24"/>
-      <c r="N16" s="25"/>
-      <c r="O16" s="25"/>
-      <c r="P16" s="25"/>
-      <c r="Q16" s="25"/>
-      <c r="R16" s="25"/>
-      <c r="S16" s="25"/>
-      <c r="T16" s="25"/>
-      <c r="U16" s="25"/>
-      <c r="V16" s="25"/>
-      <c r="W16" s="25"/>
-      <c r="X16" s="25"/>
-      <c r="Y16" s="25"/>
-      <c r="Z16" s="25"/>
-      <c r="AA16" s="25"/>
-      <c r="AB16" s="25"/>
-      <c r="AC16" s="25"/>
-      <c r="AD16" s="25"/>
-      <c r="AE16" s="25"/>
-      <c r="AF16" s="25"/>
-      <c r="AG16" s="25"/>
-      <c r="AH16" s="25"/>
-      <c r="AI16" s="25"/>
-      <c r="AJ16" s="25"/>
-      <c r="AK16" s="25"/>
-      <c r="AL16" s="25"/>
-      <c r="AM16" s="25"/>
-      <c r="AN16" s="26"/>
-      <c r="AO16" s="24"/>
-      <c r="AP16" s="25"/>
-      <c r="AQ16" s="25"/>
-      <c r="AR16" s="25"/>
-      <c r="AS16" s="25"/>
-      <c r="AT16" s="25"/>
-      <c r="AU16" s="25"/>
-      <c r="AV16" s="26"/>
+      <c r="A16" s="11"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="15"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="13"/>
+      <c r="O16" s="13"/>
+      <c r="P16" s="13"/>
+      <c r="Q16" s="13"/>
+      <c r="R16" s="13"/>
+      <c r="S16" s="13"/>
+      <c r="T16" s="13"/>
+      <c r="U16" s="13"/>
+      <c r="V16" s="13"/>
+      <c r="W16" s="13"/>
+      <c r="X16" s="13"/>
+      <c r="Y16" s="13"/>
+      <c r="Z16" s="13"/>
+      <c r="AA16" s="13"/>
+      <c r="AB16" s="13"/>
+      <c r="AC16" s="13"/>
+      <c r="AD16" s="13"/>
+      <c r="AE16" s="13"/>
+      <c r="AF16" s="13"/>
+      <c r="AG16" s="13"/>
+      <c r="AH16" s="13"/>
+      <c r="AI16" s="13"/>
+      <c r="AJ16" s="13"/>
+      <c r="AK16" s="13"/>
+      <c r="AL16" s="13"/>
+      <c r="AM16" s="13"/>
+      <c r="AN16" s="14"/>
+      <c r="AO16" s="12"/>
+      <c r="AP16" s="13"/>
+      <c r="AQ16" s="13"/>
+      <c r="AR16" s="13"/>
+      <c r="AS16" s="13"/>
+      <c r="AT16" s="13"/>
+      <c r="AU16" s="13"/>
+      <c r="AV16" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="67">
-    <mergeCell ref="AX2:BB2"/>
-    <mergeCell ref="AX3:BB3"/>
-    <mergeCell ref="BC2:BG2"/>
-    <mergeCell ref="BC3:BG3"/>
-    <mergeCell ref="AO10:AV10"/>
-    <mergeCell ref="AO6:AV6"/>
-    <mergeCell ref="AO7:AV7"/>
-    <mergeCell ref="AO8:AV8"/>
-    <mergeCell ref="AO9:AV9"/>
-    <mergeCell ref="AO16:AV16"/>
-    <mergeCell ref="AO11:AV11"/>
-    <mergeCell ref="AO12:AV12"/>
-    <mergeCell ref="AO13:AV13"/>
-    <mergeCell ref="AO14:AV14"/>
-    <mergeCell ref="AO15:AV15"/>
-    <mergeCell ref="I16:L16"/>
-    <mergeCell ref="M4:AN4"/>
-    <mergeCell ref="M5:AN5"/>
-    <mergeCell ref="M6:AN6"/>
-    <mergeCell ref="M7:AN7"/>
-    <mergeCell ref="M8:AN8"/>
-    <mergeCell ref="M9:AN9"/>
-    <mergeCell ref="M10:AN10"/>
-    <mergeCell ref="M11:AN11"/>
-    <mergeCell ref="M12:AN12"/>
-    <mergeCell ref="M13:AN13"/>
-    <mergeCell ref="M14:AN14"/>
-    <mergeCell ref="M15:AN15"/>
-    <mergeCell ref="M16:AN16"/>
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="A5:H5"/>
+    <mergeCell ref="AO2:AV2"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="I1:P1"/>
+    <mergeCell ref="Q1:X1"/>
+    <mergeCell ref="Y1:AF1"/>
+    <mergeCell ref="AG1:AN1"/>
+    <mergeCell ref="AO1:AV1"/>
+    <mergeCell ref="I2:P2"/>
+    <mergeCell ref="Q2:X2"/>
+    <mergeCell ref="Y2:AF2"/>
+    <mergeCell ref="AG2:AN2"/>
+    <mergeCell ref="AO4:AV4"/>
+    <mergeCell ref="AO5:AV5"/>
+    <mergeCell ref="A9:H9"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="A8:H8"/>
+    <mergeCell ref="I8:L8"/>
+    <mergeCell ref="A7:H7"/>
+    <mergeCell ref="I7:L7"/>
     <mergeCell ref="A16:H16"/>
     <mergeCell ref="I4:L4"/>
     <mergeCell ref="I5:L5"/>
@@ -2663,28 +2721,35 @@
     <mergeCell ref="I11:L11"/>
     <mergeCell ref="A10:H10"/>
     <mergeCell ref="I10:L10"/>
-    <mergeCell ref="A9:H9"/>
-    <mergeCell ref="I9:L9"/>
-    <mergeCell ref="A8:H8"/>
-    <mergeCell ref="I8:L8"/>
-    <mergeCell ref="A7:H7"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="A6:H6"/>
-    <mergeCell ref="A5:H5"/>
-    <mergeCell ref="AO2:AV2"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="A1:H2"/>
-    <mergeCell ref="I1:P1"/>
-    <mergeCell ref="Q1:X1"/>
-    <mergeCell ref="Y1:AF1"/>
-    <mergeCell ref="AG1:AN1"/>
-    <mergeCell ref="AO1:AV1"/>
-    <mergeCell ref="I2:P2"/>
-    <mergeCell ref="Q2:X2"/>
-    <mergeCell ref="Y2:AF2"/>
-    <mergeCell ref="AG2:AN2"/>
-    <mergeCell ref="AO4:AV4"/>
-    <mergeCell ref="AO5:AV5"/>
+    <mergeCell ref="I16:L16"/>
+    <mergeCell ref="M4:AN4"/>
+    <mergeCell ref="M5:AN5"/>
+    <mergeCell ref="M6:AN6"/>
+    <mergeCell ref="M7:AN7"/>
+    <mergeCell ref="M8:AN8"/>
+    <mergeCell ref="M9:AN9"/>
+    <mergeCell ref="M10:AN10"/>
+    <mergeCell ref="M11:AN11"/>
+    <mergeCell ref="M12:AN12"/>
+    <mergeCell ref="M13:AN13"/>
+    <mergeCell ref="M14:AN14"/>
+    <mergeCell ref="M15:AN15"/>
+    <mergeCell ref="M16:AN16"/>
+    <mergeCell ref="AO16:AV16"/>
+    <mergeCell ref="AO11:AV11"/>
+    <mergeCell ref="AO12:AV12"/>
+    <mergeCell ref="AO13:AV13"/>
+    <mergeCell ref="AO14:AV14"/>
+    <mergeCell ref="AO15:AV15"/>
+    <mergeCell ref="AX2:BB2"/>
+    <mergeCell ref="AX3:BB3"/>
+    <mergeCell ref="BC2:BG2"/>
+    <mergeCell ref="BC3:BG3"/>
+    <mergeCell ref="AO10:AV10"/>
+    <mergeCell ref="AO6:AV6"/>
+    <mergeCell ref="AO7:AV7"/>
+    <mergeCell ref="AO8:AV8"/>
+    <mergeCell ref="AO9:AV9"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3551,51 +3616,97 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="3" t="str">
+    <row r="24" spans="1:14" ht="54" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="3">
         <f t="shared" ref="A24:A30" si="5">IF(B24="","",ROW()-3)</f>
-        <v/>
-      </c>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="3" t="str">
+        <v>21</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J24" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="K24" s="8">
+        <v>43935</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="M24" s="8">
+        <v>43935</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="3">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
+        <v>22</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="J25" s="6"/>
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="3" t="str">
+    <row r="26" spans="1:14" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="3">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
+        <v>23</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>94</v>
+      </c>
       <c r="D26" s="9"/>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
@@ -3809,7 +3920,7 @@
           <x14:formula1>
             <xm:f>選択項目!$B$2:$B$5</xm:f>
           </x14:formula1>
-          <xm:sqref>H12:H13 H4:H10 H24:H36</xm:sqref>
+          <xm:sqref>H12:H13 H4:H10 H23:H36</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{382B28DD-E38A-4D72-8578-E33789A9419E}">
           <x14:formula1>
@@ -3827,7 +3938,7 @@
           <x14:formula1>
             <xm:f>選択項目!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>D14:D17 H14:I23 H11:I11</xm:sqref>
+          <xm:sqref>D14:D17 H11:I11 I14:I23 H14:H22</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/Doc/10品質記録/レビュー結果/課題管理表.xlsx
+++ b/Doc/10品質記録/レビュー結果/課題管理表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\MyCentOS\pythonGames\Doc\10品質記録\レビュー結果\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08EB51DE-AE55-485B-A505-A1C3E80CB022}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E8BB2A91-BF93-4582-A72D-D36CF6B2CB77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{CFAEB6AA-FC9D-49F8-8BE6-86D0FBA28B0C}"/>
+    <workbookView minimized="1" xWindow="1100" yWindow="1100" windowWidth="11100" windowHeight="7360" activeTab="1" xr2:uid="{CFAEB6AA-FC9D-49F8-8BE6-86D0FBA28B0C}"/>
   </bookViews>
   <sheets>
     <sheet name="改版履歴" sheetId="4" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">改版履歴!$A$1:$AV$16</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="109">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -1178,27 +1179,201 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>def draw_player(self):を実装show～メソッド内で直接player_nameを描画していたので大きくなりすぎないよう処理を分離</t>
-    <rPh sb="23" eb="25">
+    <t>characterのステータス部分だけ抜き出して表示したい。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>def draw_display(self):を実装show～メソッド内で直接player_nameを描画していたので大きくなりすぎないよう処理を分離</t>
+    <rPh sb="24" eb="26">
       <t>ジッソウ</t>
     </rPh>
-    <rPh sb="34" eb="35">
+    <rPh sb="35" eb="36">
       <t>ナイ</t>
     </rPh>
-    <rPh sb="36" eb="38">
+    <rPh sb="37" eb="39">
       <t>チョクセツ</t>
     </rPh>
-    <rPh sb="50" eb="52">
+    <rPh sb="51" eb="53">
       <t>ビョウガ</t>
     </rPh>
-    <rPh sb="58" eb="59">
+    <rPh sb="59" eb="60">
       <t>オオ</t>
     </rPh>
-    <rPh sb="69" eb="71">
+    <rPh sb="70" eb="72">
       <t>ショリ</t>
     </rPh>
-    <rPh sb="72" eb="74">
+    <rPh sb="73" eb="75">
       <t>ブンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UP,DOWN押下時にポインターが上下に移動しているように見えるよう修正。set_pointerでポインターの位置を設定、get_colorでポインターに該当する画面項目をピンク色にする。</t>
+    <rPh sb="7" eb="9">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ジョウゲ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="77" eb="79">
+      <t>ガイトウ</t>
+    </rPh>
+    <rPh sb="81" eb="83">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="83" eb="85">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="89" eb="90">
+      <t>イロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pointerを実装UP、DOWNによってポインターの移動が可能になった。</t>
+  </si>
+  <si>
+    <t>画面遷移の知識不足</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>チシキ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ブソク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>よくわかっていない。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>menuはrunningフラグを設置する予定</t>
+    <rPh sb="16" eb="18">
+      <t>セッチ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ヨテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>課題23で対応</t>
+    <rPh sb="0" eb="2">
+      <t>カダイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>タイオウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>tkinterで簡易的なログインウィンドウを作成</t>
+    <rPh sb="8" eb="10">
+      <t>カンイ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>今のところ問題ない→idからデータを丸ごと取得するので必要なデータの抽出を必要としていないため。</t>
+    <rPh sb="0" eb="1">
+      <t>イマ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>マル</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>チュウシュツ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SqlファイルとDbへのアクセス部分は分かれていた方がごちゃごちゃしないため。</t>
+    <rPh sb="16" eb="18">
+      <t>ブブン</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>★対応中
+menu画面でDisplayを初期化し、再構成する予定。</t>
+    <rPh sb="1" eb="4">
+      <t>タイオウチュウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="20" eb="23">
+      <t>ショキカ</t>
+    </rPh>
+    <rPh sb="25" eb="28">
+      <t>サイコウセイ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ヨテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ちまちま編集するのがめんどくさいうまい取得方法求。</t>
+    <rPh sb="4" eb="6">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>モトム</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1465,44 +1640,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -1533,6 +1672,42 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1858,831 +2033,882 @@
   <sheetFormatPr defaultColWidth="3.08203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
     <row r="1" spans="1:59" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="26" t="str">
+      <c r="A1" s="14" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>改版履歴</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="30" t="s">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
-      <c r="O1" s="30"/>
-      <c r="P1" s="30"/>
-      <c r="Q1" s="30" t="s">
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="30"/>
-      <c r="S1" s="30"/>
-      <c r="T1" s="30"/>
-      <c r="U1" s="30"/>
-      <c r="V1" s="30"/>
-      <c r="W1" s="30"/>
-      <c r="X1" s="30"/>
-      <c r="Y1" s="30" t="s">
+      <c r="R1" s="18"/>
+      <c r="S1" s="18"/>
+      <c r="T1" s="18"/>
+      <c r="U1" s="18"/>
+      <c r="V1" s="18"/>
+      <c r="W1" s="18"/>
+      <c r="X1" s="18"/>
+      <c r="Y1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="Z1" s="30"/>
-      <c r="AA1" s="30"/>
-      <c r="AB1" s="30"/>
-      <c r="AC1" s="30"/>
-      <c r="AD1" s="30"/>
-      <c r="AE1" s="30"/>
-      <c r="AF1" s="30"/>
-      <c r="AG1" s="30" t="s">
+      <c r="Z1" s="18"/>
+      <c r="AA1" s="18"/>
+      <c r="AB1" s="18"/>
+      <c r="AC1" s="18"/>
+      <c r="AD1" s="18"/>
+      <c r="AE1" s="18"/>
+      <c r="AF1" s="18"/>
+      <c r="AG1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="AH1" s="30"/>
-      <c r="AI1" s="30"/>
-      <c r="AJ1" s="30"/>
-      <c r="AK1" s="30"/>
-      <c r="AL1" s="30"/>
-      <c r="AM1" s="30"/>
-      <c r="AN1" s="30"/>
-      <c r="AO1" s="30" t="s">
+      <c r="AH1" s="18"/>
+      <c r="AI1" s="18"/>
+      <c r="AJ1" s="18"/>
+      <c r="AK1" s="18"/>
+      <c r="AL1" s="18"/>
+      <c r="AM1" s="18"/>
+      <c r="AN1" s="18"/>
+      <c r="AO1" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="AP1" s="30"/>
-      <c r="AQ1" s="30"/>
-      <c r="AR1" s="30"/>
-      <c r="AS1" s="30"/>
-      <c r="AT1" s="30"/>
-      <c r="AU1" s="30"/>
-      <c r="AV1" s="30"/>
+      <c r="AP1" s="18"/>
+      <c r="AQ1" s="18"/>
+      <c r="AR1" s="18"/>
+      <c r="AS1" s="18"/>
+      <c r="AT1" s="18"/>
+      <c r="AU1" s="18"/>
+      <c r="AV1" s="18"/>
     </row>
     <row r="2" spans="1:59" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="28"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="24" t="str">
+      <c r="A2" s="16"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="12" t="str">
         <f>AX3</f>
         <v>pythonGame</v>
       </c>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="31">
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="19">
         <f ca="1">INDIRECT("A"&amp;(COUNTA(A:H)+2))</f>
         <v>43884</v>
       </c>
-      <c r="R2" s="31"/>
-      <c r="S2" s="31"/>
-      <c r="T2" s="31"/>
-      <c r="U2" s="31"/>
-      <c r="V2" s="31"/>
-      <c r="W2" s="31"/>
-      <c r="X2" s="31"/>
-      <c r="Y2" s="32" t="str">
+      <c r="R2" s="19"/>
+      <c r="S2" s="19"/>
+      <c r="T2" s="19"/>
+      <c r="U2" s="19"/>
+      <c r="V2" s="19"/>
+      <c r="W2" s="19"/>
+      <c r="X2" s="19"/>
+      <c r="Y2" s="20" t="str">
         <f ca="1">INDIRECT("AO"&amp;(COUNTA(AO:AV)+1))</f>
         <v>Giphe</v>
       </c>
-      <c r="Z2" s="32"/>
-      <c r="AA2" s="32"/>
-      <c r="AB2" s="32"/>
-      <c r="AC2" s="32"/>
-      <c r="AD2" s="32"/>
-      <c r="AE2" s="32"/>
-      <c r="AF2" s="32"/>
-      <c r="AG2" s="32" t="str">
+      <c r="Z2" s="20"/>
+      <c r="AA2" s="20"/>
+      <c r="AB2" s="20"/>
+      <c r="AC2" s="20"/>
+      <c r="AD2" s="20"/>
+      <c r="AE2" s="20"/>
+      <c r="AF2" s="20"/>
+      <c r="AG2" s="20" t="str">
         <f ca="1">INDIRECT("I"&amp;(COUNTA(I:L)+1))</f>
         <v>1.0</v>
       </c>
-      <c r="AH2" s="32"/>
-      <c r="AI2" s="32"/>
-      <c r="AJ2" s="32"/>
-      <c r="AK2" s="32"/>
-      <c r="AL2" s="32"/>
-      <c r="AM2" s="32"/>
-      <c r="AN2" s="32"/>
-      <c r="AO2" s="24" t="str">
+      <c r="AH2" s="20"/>
+      <c r="AI2" s="20"/>
+      <c r="AJ2" s="20"/>
+      <c r="AK2" s="20"/>
+      <c r="AL2" s="20"/>
+      <c r="AM2" s="20"/>
+      <c r="AN2" s="20"/>
+      <c r="AO2" s="12" t="str">
         <f>BC3</f>
         <v>詳細設計</v>
       </c>
-      <c r="AP2" s="24"/>
-      <c r="AQ2" s="24"/>
-      <c r="AR2" s="24"/>
-      <c r="AS2" s="24"/>
-      <c r="AT2" s="24"/>
-      <c r="AU2" s="24"/>
-      <c r="AV2" s="24"/>
-      <c r="AX2" s="10" t="s">
+      <c r="AP2" s="12"/>
+      <c r="AQ2" s="12"/>
+      <c r="AR2" s="12"/>
+      <c r="AS2" s="12"/>
+      <c r="AT2" s="12"/>
+      <c r="AU2" s="12"/>
+      <c r="AV2" s="12"/>
+      <c r="AX2" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="AY2" s="10"/>
-      <c r="AZ2" s="10"/>
-      <c r="BA2" s="10"/>
-      <c r="BB2" s="10"/>
-      <c r="BC2" s="11" t="s">
+      <c r="AY2" s="32"/>
+      <c r="AZ2" s="32"/>
+      <c r="BA2" s="32"/>
+      <c r="BB2" s="32"/>
+      <c r="BC2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="BD2" s="11"/>
-      <c r="BE2" s="11"/>
-      <c r="BF2" s="11"/>
-      <c r="BG2" s="11"/>
+      <c r="BD2" s="10"/>
+      <c r="BE2" s="10"/>
+      <c r="BF2" s="10"/>
+      <c r="BG2" s="10"/>
     </row>
     <row r="3" spans="1:59" x14ac:dyDescent="0.55000000000000004">
-      <c r="AX3" s="10" t="s">
+      <c r="AX3" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="AY3" s="10"/>
-      <c r="AZ3" s="10"/>
-      <c r="BA3" s="10"/>
-      <c r="BB3" s="10"/>
-      <c r="BC3" s="11" t="s">
+      <c r="AY3" s="32"/>
+      <c r="AZ3" s="32"/>
+      <c r="BA3" s="32"/>
+      <c r="BB3" s="32"/>
+      <c r="BC3" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="BD3" s="11"/>
-      <c r="BE3" s="11"/>
-      <c r="BF3" s="11"/>
-      <c r="BG3" s="11"/>
+      <c r="BD3" s="10"/>
+      <c r="BE3" s="10"/>
+      <c r="BF3" s="10"/>
+      <c r="BG3" s="10"/>
     </row>
     <row r="4" spans="1:59" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="19" t="s">
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="20"/>
-      <c r="K4" s="20"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="16" t="s">
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="30"/>
+      <c r="M4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="N4" s="17"/>
-      <c r="O4" s="17"/>
-      <c r="P4" s="17"/>
-      <c r="Q4" s="17"/>
-      <c r="R4" s="17"/>
-      <c r="S4" s="17"/>
-      <c r="T4" s="17"/>
-      <c r="U4" s="17"/>
-      <c r="V4" s="17"/>
-      <c r="W4" s="17"/>
-      <c r="X4" s="17"/>
-      <c r="Y4" s="17"/>
-      <c r="Z4" s="17"/>
-      <c r="AA4" s="17"/>
-      <c r="AB4" s="17"/>
-      <c r="AC4" s="17"/>
-      <c r="AD4" s="17"/>
-      <c r="AE4" s="17"/>
-      <c r="AF4" s="17"/>
-      <c r="AG4" s="17"/>
-      <c r="AH4" s="17"/>
-      <c r="AI4" s="17"/>
-      <c r="AJ4" s="17"/>
-      <c r="AK4" s="17"/>
-      <c r="AL4" s="17"/>
-      <c r="AM4" s="17"/>
-      <c r="AN4" s="18"/>
-      <c r="AO4" s="16" t="s">
+      <c r="N4" s="22"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="22"/>
+      <c r="Q4" s="22"/>
+      <c r="R4" s="22"/>
+      <c r="S4" s="22"/>
+      <c r="T4" s="22"/>
+      <c r="U4" s="22"/>
+      <c r="V4" s="22"/>
+      <c r="W4" s="22"/>
+      <c r="X4" s="22"/>
+      <c r="Y4" s="22"/>
+      <c r="Z4" s="22"/>
+      <c r="AA4" s="22"/>
+      <c r="AB4" s="22"/>
+      <c r="AC4" s="22"/>
+      <c r="AD4" s="22"/>
+      <c r="AE4" s="22"/>
+      <c r="AF4" s="22"/>
+      <c r="AG4" s="22"/>
+      <c r="AH4" s="22"/>
+      <c r="AI4" s="22"/>
+      <c r="AJ4" s="22"/>
+      <c r="AK4" s="22"/>
+      <c r="AL4" s="22"/>
+      <c r="AM4" s="22"/>
+      <c r="AN4" s="23"/>
+      <c r="AO4" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="AP4" s="17"/>
-      <c r="AQ4" s="17"/>
-      <c r="AR4" s="17"/>
-      <c r="AS4" s="17"/>
-      <c r="AT4" s="17"/>
-      <c r="AU4" s="17"/>
-      <c r="AV4" s="18"/>
+      <c r="AP4" s="22"/>
+      <c r="AQ4" s="22"/>
+      <c r="AR4" s="22"/>
+      <c r="AS4" s="22"/>
+      <c r="AT4" s="22"/>
+      <c r="AU4" s="22"/>
+      <c r="AV4" s="23"/>
     </row>
     <row r="5" spans="1:59" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="23">
+      <c r="A5" s="11">
         <v>43884</v>
       </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="22" t="s">
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="22"/>
-      <c r="M5" s="12" t="s">
+      <c r="J5" s="31"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="31"/>
+      <c r="M5" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="N5" s="13"/>
-      <c r="O5" s="13"/>
-      <c r="P5" s="13"/>
-      <c r="Q5" s="13"/>
-      <c r="R5" s="13"/>
-      <c r="S5" s="13"/>
-      <c r="T5" s="13"/>
-      <c r="U5" s="13"/>
-      <c r="V5" s="13"/>
-      <c r="W5" s="13"/>
-      <c r="X5" s="13"/>
-      <c r="Y5" s="13"/>
-      <c r="Z5" s="13"/>
-      <c r="AA5" s="13"/>
-      <c r="AB5" s="13"/>
-      <c r="AC5" s="13"/>
-      <c r="AD5" s="13"/>
-      <c r="AE5" s="13"/>
-      <c r="AF5" s="13"/>
-      <c r="AG5" s="13"/>
-      <c r="AH5" s="13"/>
-      <c r="AI5" s="13"/>
-      <c r="AJ5" s="13"/>
-      <c r="AK5" s="13"/>
-      <c r="AL5" s="13"/>
-      <c r="AM5" s="13"/>
-      <c r="AN5" s="14"/>
-      <c r="AO5" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="AP5" s="13"/>
-      <c r="AQ5" s="13"/>
-      <c r="AR5" s="13"/>
-      <c r="AS5" s="13"/>
-      <c r="AT5" s="13"/>
-      <c r="AU5" s="13"/>
-      <c r="AV5" s="14"/>
+      <c r="N5" s="25"/>
+      <c r="O5" s="25"/>
+      <c r="P5" s="25"/>
+      <c r="Q5" s="25"/>
+      <c r="R5" s="25"/>
+      <c r="S5" s="25"/>
+      <c r="T5" s="25"/>
+      <c r="U5" s="25"/>
+      <c r="V5" s="25"/>
+      <c r="W5" s="25"/>
+      <c r="X5" s="25"/>
+      <c r="Y5" s="25"/>
+      <c r="Z5" s="25"/>
+      <c r="AA5" s="25"/>
+      <c r="AB5" s="25"/>
+      <c r="AC5" s="25"/>
+      <c r="AD5" s="25"/>
+      <c r="AE5" s="25"/>
+      <c r="AF5" s="25"/>
+      <c r="AG5" s="25"/>
+      <c r="AH5" s="25"/>
+      <c r="AI5" s="25"/>
+      <c r="AJ5" s="25"/>
+      <c r="AK5" s="25"/>
+      <c r="AL5" s="25"/>
+      <c r="AM5" s="25"/>
+      <c r="AN5" s="26"/>
+      <c r="AO5" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="AP5" s="25"/>
+      <c r="AQ5" s="25"/>
+      <c r="AR5" s="25"/>
+      <c r="AS5" s="25"/>
+      <c r="AT5" s="25"/>
+      <c r="AU5" s="25"/>
+      <c r="AV5" s="26"/>
     </row>
     <row r="6" spans="1:59" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="11"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="13"/>
-      <c r="O6" s="13"/>
-      <c r="P6" s="13"/>
-      <c r="Q6" s="13"/>
-      <c r="R6" s="13"/>
-      <c r="S6" s="13"/>
-      <c r="T6" s="13"/>
-      <c r="U6" s="13"/>
-      <c r="V6" s="13"/>
-      <c r="W6" s="13"/>
-      <c r="X6" s="13"/>
-      <c r="Y6" s="13"/>
-      <c r="Z6" s="13"/>
-      <c r="AA6" s="13"/>
-      <c r="AB6" s="13"/>
-      <c r="AC6" s="13"/>
-      <c r="AD6" s="13"/>
-      <c r="AE6" s="13"/>
-      <c r="AF6" s="13"/>
-      <c r="AG6" s="13"/>
-      <c r="AH6" s="13"/>
-      <c r="AI6" s="13"/>
-      <c r="AJ6" s="13"/>
-      <c r="AK6" s="13"/>
-      <c r="AL6" s="13"/>
-      <c r="AM6" s="13"/>
-      <c r="AN6" s="14"/>
-      <c r="AO6" s="12"/>
-      <c r="AP6" s="13"/>
-      <c r="AQ6" s="13"/>
-      <c r="AR6" s="13"/>
-      <c r="AS6" s="13"/>
-      <c r="AT6" s="13"/>
-      <c r="AU6" s="13"/>
-      <c r="AV6" s="14"/>
+      <c r="A6" s="10"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="27"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="24"/>
+      <c r="N6" s="25"/>
+      <c r="O6" s="25"/>
+      <c r="P6" s="25"/>
+      <c r="Q6" s="25"/>
+      <c r="R6" s="25"/>
+      <c r="S6" s="25"/>
+      <c r="T6" s="25"/>
+      <c r="U6" s="25"/>
+      <c r="V6" s="25"/>
+      <c r="W6" s="25"/>
+      <c r="X6" s="25"/>
+      <c r="Y6" s="25"/>
+      <c r="Z6" s="25"/>
+      <c r="AA6" s="25"/>
+      <c r="AB6" s="25"/>
+      <c r="AC6" s="25"/>
+      <c r="AD6" s="25"/>
+      <c r="AE6" s="25"/>
+      <c r="AF6" s="25"/>
+      <c r="AG6" s="25"/>
+      <c r="AH6" s="25"/>
+      <c r="AI6" s="25"/>
+      <c r="AJ6" s="25"/>
+      <c r="AK6" s="25"/>
+      <c r="AL6" s="25"/>
+      <c r="AM6" s="25"/>
+      <c r="AN6" s="26"/>
+      <c r="AO6" s="24"/>
+      <c r="AP6" s="25"/>
+      <c r="AQ6" s="25"/>
+      <c r="AR6" s="25"/>
+      <c r="AS6" s="25"/>
+      <c r="AT6" s="25"/>
+      <c r="AU6" s="25"/>
+      <c r="AV6" s="26"/>
     </row>
     <row r="7" spans="1:59" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="11"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="13"/>
-      <c r="O7" s="13"/>
-      <c r="P7" s="13"/>
-      <c r="Q7" s="13"/>
-      <c r="R7" s="13"/>
-      <c r="S7" s="13"/>
-      <c r="T7" s="13"/>
-      <c r="U7" s="13"/>
-      <c r="V7" s="13"/>
-      <c r="W7" s="13"/>
-      <c r="X7" s="13"/>
-      <c r="Y7" s="13"/>
-      <c r="Z7" s="13"/>
-      <c r="AA7" s="13"/>
-      <c r="AB7" s="13"/>
-      <c r="AC7" s="13"/>
-      <c r="AD7" s="13"/>
-      <c r="AE7" s="13"/>
-      <c r="AF7" s="13"/>
-      <c r="AG7" s="13"/>
-      <c r="AH7" s="13"/>
-      <c r="AI7" s="13"/>
-      <c r="AJ7" s="13"/>
-      <c r="AK7" s="13"/>
-      <c r="AL7" s="13"/>
-      <c r="AM7" s="13"/>
-      <c r="AN7" s="14"/>
-      <c r="AO7" s="12"/>
-      <c r="AP7" s="13"/>
-      <c r="AQ7" s="13"/>
-      <c r="AR7" s="13"/>
-      <c r="AS7" s="13"/>
-      <c r="AT7" s="13"/>
-      <c r="AU7" s="13"/>
-      <c r="AV7" s="14"/>
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="24"/>
+      <c r="N7" s="25"/>
+      <c r="O7" s="25"/>
+      <c r="P7" s="25"/>
+      <c r="Q7" s="25"/>
+      <c r="R7" s="25"/>
+      <c r="S7" s="25"/>
+      <c r="T7" s="25"/>
+      <c r="U7" s="25"/>
+      <c r="V7" s="25"/>
+      <c r="W7" s="25"/>
+      <c r="X7" s="25"/>
+      <c r="Y7" s="25"/>
+      <c r="Z7" s="25"/>
+      <c r="AA7" s="25"/>
+      <c r="AB7" s="25"/>
+      <c r="AC7" s="25"/>
+      <c r="AD7" s="25"/>
+      <c r="AE7" s="25"/>
+      <c r="AF7" s="25"/>
+      <c r="AG7" s="25"/>
+      <c r="AH7" s="25"/>
+      <c r="AI7" s="25"/>
+      <c r="AJ7" s="25"/>
+      <c r="AK7" s="25"/>
+      <c r="AL7" s="25"/>
+      <c r="AM7" s="25"/>
+      <c r="AN7" s="26"/>
+      <c r="AO7" s="24"/>
+      <c r="AP7" s="25"/>
+      <c r="AQ7" s="25"/>
+      <c r="AR7" s="25"/>
+      <c r="AS7" s="25"/>
+      <c r="AT7" s="25"/>
+      <c r="AU7" s="25"/>
+      <c r="AV7" s="26"/>
     </row>
     <row r="8" spans="1:59" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="13"/>
-      <c r="O8" s="13"/>
-      <c r="P8" s="13"/>
-      <c r="Q8" s="13"/>
-      <c r="R8" s="13"/>
-      <c r="S8" s="13"/>
-      <c r="T8" s="13"/>
-      <c r="U8" s="13"/>
-      <c r="V8" s="13"/>
-      <c r="W8" s="13"/>
-      <c r="X8" s="13"/>
-      <c r="Y8" s="13"/>
-      <c r="Z8" s="13"/>
-      <c r="AA8" s="13"/>
-      <c r="AB8" s="13"/>
-      <c r="AC8" s="13"/>
-      <c r="AD8" s="13"/>
-      <c r="AE8" s="13"/>
-      <c r="AF8" s="13"/>
-      <c r="AG8" s="13"/>
-      <c r="AH8" s="13"/>
-      <c r="AI8" s="13"/>
-      <c r="AJ8" s="13"/>
-      <c r="AK8" s="13"/>
-      <c r="AL8" s="13"/>
-      <c r="AM8" s="13"/>
-      <c r="AN8" s="14"/>
-      <c r="AO8" s="12"/>
-      <c r="AP8" s="13"/>
-      <c r="AQ8" s="13"/>
-      <c r="AR8" s="13"/>
-      <c r="AS8" s="13"/>
-      <c r="AT8" s="13"/>
-      <c r="AU8" s="13"/>
-      <c r="AV8" s="14"/>
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="27"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="24"/>
+      <c r="N8" s="25"/>
+      <c r="O8" s="25"/>
+      <c r="P8" s="25"/>
+      <c r="Q8" s="25"/>
+      <c r="R8" s="25"/>
+      <c r="S8" s="25"/>
+      <c r="T8" s="25"/>
+      <c r="U8" s="25"/>
+      <c r="V8" s="25"/>
+      <c r="W8" s="25"/>
+      <c r="X8" s="25"/>
+      <c r="Y8" s="25"/>
+      <c r="Z8" s="25"/>
+      <c r="AA8" s="25"/>
+      <c r="AB8" s="25"/>
+      <c r="AC8" s="25"/>
+      <c r="AD8" s="25"/>
+      <c r="AE8" s="25"/>
+      <c r="AF8" s="25"/>
+      <c r="AG8" s="25"/>
+      <c r="AH8" s="25"/>
+      <c r="AI8" s="25"/>
+      <c r="AJ8" s="25"/>
+      <c r="AK8" s="25"/>
+      <c r="AL8" s="25"/>
+      <c r="AM8" s="25"/>
+      <c r="AN8" s="26"/>
+      <c r="AO8" s="24"/>
+      <c r="AP8" s="25"/>
+      <c r="AQ8" s="25"/>
+      <c r="AR8" s="25"/>
+      <c r="AS8" s="25"/>
+      <c r="AT8" s="25"/>
+      <c r="AU8" s="25"/>
+      <c r="AV8" s="26"/>
     </row>
     <row r="9" spans="1:59" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="13"/>
-      <c r="O9" s="13"/>
-      <c r="P9" s="13"/>
-      <c r="Q9" s="13"/>
-      <c r="R9" s="13"/>
-      <c r="S9" s="13"/>
-      <c r="T9" s="13"/>
-      <c r="U9" s="13"/>
-      <c r="V9" s="13"/>
-      <c r="W9" s="13"/>
-      <c r="X9" s="13"/>
-      <c r="Y9" s="13"/>
-      <c r="Z9" s="13"/>
-      <c r="AA9" s="13"/>
-      <c r="AB9" s="13"/>
-      <c r="AC9" s="13"/>
-      <c r="AD9" s="13"/>
-      <c r="AE9" s="13"/>
-      <c r="AF9" s="13"/>
-      <c r="AG9" s="13"/>
-      <c r="AH9" s="13"/>
-      <c r="AI9" s="13"/>
-      <c r="AJ9" s="13"/>
-      <c r="AK9" s="13"/>
-      <c r="AL9" s="13"/>
-      <c r="AM9" s="13"/>
-      <c r="AN9" s="14"/>
-      <c r="AO9" s="12"/>
-      <c r="AP9" s="13"/>
-      <c r="AQ9" s="13"/>
-      <c r="AR9" s="13"/>
-      <c r="AS9" s="13"/>
-      <c r="AT9" s="13"/>
-      <c r="AU9" s="13"/>
-      <c r="AV9" s="14"/>
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="27"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="24"/>
+      <c r="N9" s="25"/>
+      <c r="O9" s="25"/>
+      <c r="P9" s="25"/>
+      <c r="Q9" s="25"/>
+      <c r="R9" s="25"/>
+      <c r="S9" s="25"/>
+      <c r="T9" s="25"/>
+      <c r="U9" s="25"/>
+      <c r="V9" s="25"/>
+      <c r="W9" s="25"/>
+      <c r="X9" s="25"/>
+      <c r="Y9" s="25"/>
+      <c r="Z9" s="25"/>
+      <c r="AA9" s="25"/>
+      <c r="AB9" s="25"/>
+      <c r="AC9" s="25"/>
+      <c r="AD9" s="25"/>
+      <c r="AE9" s="25"/>
+      <c r="AF9" s="25"/>
+      <c r="AG9" s="25"/>
+      <c r="AH9" s="25"/>
+      <c r="AI9" s="25"/>
+      <c r="AJ9" s="25"/>
+      <c r="AK9" s="25"/>
+      <c r="AL9" s="25"/>
+      <c r="AM9" s="25"/>
+      <c r="AN9" s="26"/>
+      <c r="AO9" s="24"/>
+      <c r="AP9" s="25"/>
+      <c r="AQ9" s="25"/>
+      <c r="AR9" s="25"/>
+      <c r="AS9" s="25"/>
+      <c r="AT9" s="25"/>
+      <c r="AU9" s="25"/>
+      <c r="AV9" s="26"/>
     </row>
     <row r="10" spans="1:59" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="11"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="13"/>
-      <c r="O10" s="13"/>
-      <c r="P10" s="13"/>
-      <c r="Q10" s="13"/>
-      <c r="R10" s="13"/>
-      <c r="S10" s="13"/>
-      <c r="T10" s="13"/>
-      <c r="U10" s="13"/>
-      <c r="V10" s="13"/>
-      <c r="W10" s="13"/>
-      <c r="X10" s="13"/>
-      <c r="Y10" s="13"/>
-      <c r="Z10" s="13"/>
-      <c r="AA10" s="13"/>
-      <c r="AB10" s="13"/>
-      <c r="AC10" s="13"/>
-      <c r="AD10" s="13"/>
-      <c r="AE10" s="13"/>
-      <c r="AF10" s="13"/>
-      <c r="AG10" s="13"/>
-      <c r="AH10" s="13"/>
-      <c r="AI10" s="13"/>
-      <c r="AJ10" s="13"/>
-      <c r="AK10" s="13"/>
-      <c r="AL10" s="13"/>
-      <c r="AM10" s="13"/>
-      <c r="AN10" s="14"/>
-      <c r="AO10" s="12"/>
-      <c r="AP10" s="13"/>
-      <c r="AQ10" s="13"/>
-      <c r="AR10" s="13"/>
-      <c r="AS10" s="13"/>
-      <c r="AT10" s="13"/>
-      <c r="AU10" s="13"/>
-      <c r="AV10" s="14"/>
+      <c r="A10" s="10"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="24"/>
+      <c r="N10" s="25"/>
+      <c r="O10" s="25"/>
+      <c r="P10" s="25"/>
+      <c r="Q10" s="25"/>
+      <c r="R10" s="25"/>
+      <c r="S10" s="25"/>
+      <c r="T10" s="25"/>
+      <c r="U10" s="25"/>
+      <c r="V10" s="25"/>
+      <c r="W10" s="25"/>
+      <c r="X10" s="25"/>
+      <c r="Y10" s="25"/>
+      <c r="Z10" s="25"/>
+      <c r="AA10" s="25"/>
+      <c r="AB10" s="25"/>
+      <c r="AC10" s="25"/>
+      <c r="AD10" s="25"/>
+      <c r="AE10" s="25"/>
+      <c r="AF10" s="25"/>
+      <c r="AG10" s="25"/>
+      <c r="AH10" s="25"/>
+      <c r="AI10" s="25"/>
+      <c r="AJ10" s="25"/>
+      <c r="AK10" s="25"/>
+      <c r="AL10" s="25"/>
+      <c r="AM10" s="25"/>
+      <c r="AN10" s="26"/>
+      <c r="AO10" s="24"/>
+      <c r="AP10" s="25"/>
+      <c r="AQ10" s="25"/>
+      <c r="AR10" s="25"/>
+      <c r="AS10" s="25"/>
+      <c r="AT10" s="25"/>
+      <c r="AU10" s="25"/>
+      <c r="AV10" s="26"/>
     </row>
     <row r="11" spans="1:59" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="11"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="15"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="13"/>
-      <c r="O11" s="13"/>
-      <c r="P11" s="13"/>
-      <c r="Q11" s="13"/>
-      <c r="R11" s="13"/>
-      <c r="S11" s="13"/>
-      <c r="T11" s="13"/>
-      <c r="U11" s="13"/>
-      <c r="V11" s="13"/>
-      <c r="W11" s="13"/>
-      <c r="X11" s="13"/>
-      <c r="Y11" s="13"/>
-      <c r="Z11" s="13"/>
-      <c r="AA11" s="13"/>
-      <c r="AB11" s="13"/>
-      <c r="AC11" s="13"/>
-      <c r="AD11" s="13"/>
-      <c r="AE11" s="13"/>
-      <c r="AF11" s="13"/>
-      <c r="AG11" s="13"/>
-      <c r="AH11" s="13"/>
-      <c r="AI11" s="13"/>
-      <c r="AJ11" s="13"/>
-      <c r="AK11" s="13"/>
-      <c r="AL11" s="13"/>
-      <c r="AM11" s="13"/>
-      <c r="AN11" s="14"/>
-      <c r="AO11" s="12"/>
-      <c r="AP11" s="13"/>
-      <c r="AQ11" s="13"/>
-      <c r="AR11" s="13"/>
-      <c r="AS11" s="13"/>
-      <c r="AT11" s="13"/>
-      <c r="AU11" s="13"/>
-      <c r="AV11" s="14"/>
+      <c r="A11" s="10"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="27"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="24"/>
+      <c r="N11" s="25"/>
+      <c r="O11" s="25"/>
+      <c r="P11" s="25"/>
+      <c r="Q11" s="25"/>
+      <c r="R11" s="25"/>
+      <c r="S11" s="25"/>
+      <c r="T11" s="25"/>
+      <c r="U11" s="25"/>
+      <c r="V11" s="25"/>
+      <c r="W11" s="25"/>
+      <c r="X11" s="25"/>
+      <c r="Y11" s="25"/>
+      <c r="Z11" s="25"/>
+      <c r="AA11" s="25"/>
+      <c r="AB11" s="25"/>
+      <c r="AC11" s="25"/>
+      <c r="AD11" s="25"/>
+      <c r="AE11" s="25"/>
+      <c r="AF11" s="25"/>
+      <c r="AG11" s="25"/>
+      <c r="AH11" s="25"/>
+      <c r="AI11" s="25"/>
+      <c r="AJ11" s="25"/>
+      <c r="AK11" s="25"/>
+      <c r="AL11" s="25"/>
+      <c r="AM11" s="25"/>
+      <c r="AN11" s="26"/>
+      <c r="AO11" s="24"/>
+      <c r="AP11" s="25"/>
+      <c r="AQ11" s="25"/>
+      <c r="AR11" s="25"/>
+      <c r="AS11" s="25"/>
+      <c r="AT11" s="25"/>
+      <c r="AU11" s="25"/>
+      <c r="AV11" s="26"/>
     </row>
     <row r="12" spans="1:59" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="11"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="15"/>
-      <c r="M12" s="12"/>
-      <c r="N12" s="13"/>
-      <c r="O12" s="13"/>
-      <c r="P12" s="13"/>
-      <c r="Q12" s="13"/>
-      <c r="R12" s="13"/>
-      <c r="S12" s="13"/>
-      <c r="T12" s="13"/>
-      <c r="U12" s="13"/>
-      <c r="V12" s="13"/>
-      <c r="W12" s="13"/>
-      <c r="X12" s="13"/>
-      <c r="Y12" s="13"/>
-      <c r="Z12" s="13"/>
-      <c r="AA12" s="13"/>
-      <c r="AB12" s="13"/>
-      <c r="AC12" s="13"/>
-      <c r="AD12" s="13"/>
-      <c r="AE12" s="13"/>
-      <c r="AF12" s="13"/>
-      <c r="AG12" s="13"/>
-      <c r="AH12" s="13"/>
-      <c r="AI12" s="13"/>
-      <c r="AJ12" s="13"/>
-      <c r="AK12" s="13"/>
-      <c r="AL12" s="13"/>
-      <c r="AM12" s="13"/>
-      <c r="AN12" s="14"/>
-      <c r="AO12" s="12"/>
-      <c r="AP12" s="13"/>
-      <c r="AQ12" s="13"/>
-      <c r="AR12" s="13"/>
-      <c r="AS12" s="13"/>
-      <c r="AT12" s="13"/>
-      <c r="AU12" s="13"/>
-      <c r="AV12" s="14"/>
+      <c r="A12" s="10"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="27"/>
+      <c r="L12" s="27"/>
+      <c r="M12" s="24"/>
+      <c r="N12" s="25"/>
+      <c r="O12" s="25"/>
+      <c r="P12" s="25"/>
+      <c r="Q12" s="25"/>
+      <c r="R12" s="25"/>
+      <c r="S12" s="25"/>
+      <c r="T12" s="25"/>
+      <c r="U12" s="25"/>
+      <c r="V12" s="25"/>
+      <c r="W12" s="25"/>
+      <c r="X12" s="25"/>
+      <c r="Y12" s="25"/>
+      <c r="Z12" s="25"/>
+      <c r="AA12" s="25"/>
+      <c r="AB12" s="25"/>
+      <c r="AC12" s="25"/>
+      <c r="AD12" s="25"/>
+      <c r="AE12" s="25"/>
+      <c r="AF12" s="25"/>
+      <c r="AG12" s="25"/>
+      <c r="AH12" s="25"/>
+      <c r="AI12" s="25"/>
+      <c r="AJ12" s="25"/>
+      <c r="AK12" s="25"/>
+      <c r="AL12" s="25"/>
+      <c r="AM12" s="25"/>
+      <c r="AN12" s="26"/>
+      <c r="AO12" s="24"/>
+      <c r="AP12" s="25"/>
+      <c r="AQ12" s="25"/>
+      <c r="AR12" s="25"/>
+      <c r="AS12" s="25"/>
+      <c r="AT12" s="25"/>
+      <c r="AU12" s="25"/>
+      <c r="AV12" s="26"/>
     </row>
     <row r="13" spans="1:59" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="11"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="15"/>
-      <c r="L13" s="15"/>
-      <c r="M13" s="12"/>
-      <c r="N13" s="13"/>
-      <c r="O13" s="13"/>
-      <c r="P13" s="13"/>
-      <c r="Q13" s="13"/>
-      <c r="R13" s="13"/>
-      <c r="S13" s="13"/>
-      <c r="T13" s="13"/>
-      <c r="U13" s="13"/>
-      <c r="V13" s="13"/>
-      <c r="W13" s="13"/>
-      <c r="X13" s="13"/>
-      <c r="Y13" s="13"/>
-      <c r="Z13" s="13"/>
-      <c r="AA13" s="13"/>
-      <c r="AB13" s="13"/>
-      <c r="AC13" s="13"/>
-      <c r="AD13" s="13"/>
-      <c r="AE13" s="13"/>
-      <c r="AF13" s="13"/>
-      <c r="AG13" s="13"/>
-      <c r="AH13" s="13"/>
-      <c r="AI13" s="13"/>
-      <c r="AJ13" s="13"/>
-      <c r="AK13" s="13"/>
-      <c r="AL13" s="13"/>
-      <c r="AM13" s="13"/>
-      <c r="AN13" s="14"/>
-      <c r="AO13" s="12"/>
-      <c r="AP13" s="13"/>
-      <c r="AQ13" s="13"/>
-      <c r="AR13" s="13"/>
-      <c r="AS13" s="13"/>
-      <c r="AT13" s="13"/>
-      <c r="AU13" s="13"/>
-      <c r="AV13" s="14"/>
+      <c r="A13" s="10"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="27"/>
+      <c r="M13" s="24"/>
+      <c r="N13" s="25"/>
+      <c r="O13" s="25"/>
+      <c r="P13" s="25"/>
+      <c r="Q13" s="25"/>
+      <c r="R13" s="25"/>
+      <c r="S13" s="25"/>
+      <c r="T13" s="25"/>
+      <c r="U13" s="25"/>
+      <c r="V13" s="25"/>
+      <c r="W13" s="25"/>
+      <c r="X13" s="25"/>
+      <c r="Y13" s="25"/>
+      <c r="Z13" s="25"/>
+      <c r="AA13" s="25"/>
+      <c r="AB13" s="25"/>
+      <c r="AC13" s="25"/>
+      <c r="AD13" s="25"/>
+      <c r="AE13" s="25"/>
+      <c r="AF13" s="25"/>
+      <c r="AG13" s="25"/>
+      <c r="AH13" s="25"/>
+      <c r="AI13" s="25"/>
+      <c r="AJ13" s="25"/>
+      <c r="AK13" s="25"/>
+      <c r="AL13" s="25"/>
+      <c r="AM13" s="25"/>
+      <c r="AN13" s="26"/>
+      <c r="AO13" s="24"/>
+      <c r="AP13" s="25"/>
+      <c r="AQ13" s="25"/>
+      <c r="AR13" s="25"/>
+      <c r="AS13" s="25"/>
+      <c r="AT13" s="25"/>
+      <c r="AU13" s="25"/>
+      <c r="AV13" s="26"/>
     </row>
     <row r="14" spans="1:59" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="11"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="15"/>
-      <c r="K14" s="15"/>
-      <c r="L14" s="15"/>
-      <c r="M14" s="12"/>
-      <c r="N14" s="13"/>
-      <c r="O14" s="13"/>
-      <c r="P14" s="13"/>
-      <c r="Q14" s="13"/>
-      <c r="R14" s="13"/>
-      <c r="S14" s="13"/>
-      <c r="T14" s="13"/>
-      <c r="U14" s="13"/>
-      <c r="V14" s="13"/>
-      <c r="W14" s="13"/>
-      <c r="X14" s="13"/>
-      <c r="Y14" s="13"/>
-      <c r="Z14" s="13"/>
-      <c r="AA14" s="13"/>
-      <c r="AB14" s="13"/>
-      <c r="AC14" s="13"/>
-      <c r="AD14" s="13"/>
-      <c r="AE14" s="13"/>
-      <c r="AF14" s="13"/>
-      <c r="AG14" s="13"/>
-      <c r="AH14" s="13"/>
-      <c r="AI14" s="13"/>
-      <c r="AJ14" s="13"/>
-      <c r="AK14" s="13"/>
-      <c r="AL14" s="13"/>
-      <c r="AM14" s="13"/>
-      <c r="AN14" s="14"/>
-      <c r="AO14" s="12"/>
-      <c r="AP14" s="13"/>
-      <c r="AQ14" s="13"/>
-      <c r="AR14" s="13"/>
-      <c r="AS14" s="13"/>
-      <c r="AT14" s="13"/>
-      <c r="AU14" s="13"/>
-      <c r="AV14" s="14"/>
+      <c r="A14" s="10"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="27"/>
+      <c r="L14" s="27"/>
+      <c r="M14" s="24"/>
+      <c r="N14" s="25"/>
+      <c r="O14" s="25"/>
+      <c r="P14" s="25"/>
+      <c r="Q14" s="25"/>
+      <c r="R14" s="25"/>
+      <c r="S14" s="25"/>
+      <c r="T14" s="25"/>
+      <c r="U14" s="25"/>
+      <c r="V14" s="25"/>
+      <c r="W14" s="25"/>
+      <c r="X14" s="25"/>
+      <c r="Y14" s="25"/>
+      <c r="Z14" s="25"/>
+      <c r="AA14" s="25"/>
+      <c r="AB14" s="25"/>
+      <c r="AC14" s="25"/>
+      <c r="AD14" s="25"/>
+      <c r="AE14" s="25"/>
+      <c r="AF14" s="25"/>
+      <c r="AG14" s="25"/>
+      <c r="AH14" s="25"/>
+      <c r="AI14" s="25"/>
+      <c r="AJ14" s="25"/>
+      <c r="AK14" s="25"/>
+      <c r="AL14" s="25"/>
+      <c r="AM14" s="25"/>
+      <c r="AN14" s="26"/>
+      <c r="AO14" s="24"/>
+      <c r="AP14" s="25"/>
+      <c r="AQ14" s="25"/>
+      <c r="AR14" s="25"/>
+      <c r="AS14" s="25"/>
+      <c r="AT14" s="25"/>
+      <c r="AU14" s="25"/>
+      <c r="AV14" s="26"/>
     </row>
     <row r="15" spans="1:59" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="11"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="15"/>
-      <c r="K15" s="15"/>
-      <c r="L15" s="15"/>
-      <c r="M15" s="12"/>
-      <c r="N15" s="13"/>
-      <c r="O15" s="13"/>
-      <c r="P15" s="13"/>
-      <c r="Q15" s="13"/>
-      <c r="R15" s="13"/>
-      <c r="S15" s="13"/>
-      <c r="T15" s="13"/>
-      <c r="U15" s="13"/>
-      <c r="V15" s="13"/>
-      <c r="W15" s="13"/>
-      <c r="X15" s="13"/>
-      <c r="Y15" s="13"/>
-      <c r="Z15" s="13"/>
-      <c r="AA15" s="13"/>
-      <c r="AB15" s="13"/>
-      <c r="AC15" s="13"/>
-      <c r="AD15" s="13"/>
-      <c r="AE15" s="13"/>
-      <c r="AF15" s="13"/>
-      <c r="AG15" s="13"/>
-      <c r="AH15" s="13"/>
-      <c r="AI15" s="13"/>
-      <c r="AJ15" s="13"/>
-      <c r="AK15" s="13"/>
-      <c r="AL15" s="13"/>
-      <c r="AM15" s="13"/>
-      <c r="AN15" s="14"/>
-      <c r="AO15" s="12"/>
-      <c r="AP15" s="13"/>
-      <c r="AQ15" s="13"/>
-      <c r="AR15" s="13"/>
-      <c r="AS15" s="13"/>
-      <c r="AT15" s="13"/>
-      <c r="AU15" s="13"/>
-      <c r="AV15" s="14"/>
+      <c r="A15" s="10"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="27"/>
+      <c r="L15" s="27"/>
+      <c r="M15" s="24"/>
+      <c r="N15" s="25"/>
+      <c r="O15" s="25"/>
+      <c r="P15" s="25"/>
+      <c r="Q15" s="25"/>
+      <c r="R15" s="25"/>
+      <c r="S15" s="25"/>
+      <c r="T15" s="25"/>
+      <c r="U15" s="25"/>
+      <c r="V15" s="25"/>
+      <c r="W15" s="25"/>
+      <c r="X15" s="25"/>
+      <c r="Y15" s="25"/>
+      <c r="Z15" s="25"/>
+      <c r="AA15" s="25"/>
+      <c r="AB15" s="25"/>
+      <c r="AC15" s="25"/>
+      <c r="AD15" s="25"/>
+      <c r="AE15" s="25"/>
+      <c r="AF15" s="25"/>
+      <c r="AG15" s="25"/>
+      <c r="AH15" s="25"/>
+      <c r="AI15" s="25"/>
+      <c r="AJ15" s="25"/>
+      <c r="AK15" s="25"/>
+      <c r="AL15" s="25"/>
+      <c r="AM15" s="25"/>
+      <c r="AN15" s="26"/>
+      <c r="AO15" s="24"/>
+      <c r="AP15" s="25"/>
+      <c r="AQ15" s="25"/>
+      <c r="AR15" s="25"/>
+      <c r="AS15" s="25"/>
+      <c r="AT15" s="25"/>
+      <c r="AU15" s="25"/>
+      <c r="AV15" s="26"/>
     </row>
     <row r="16" spans="1:59" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="11"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="15"/>
-      <c r="K16" s="15"/>
-      <c r="L16" s="15"/>
-      <c r="M16" s="12"/>
-      <c r="N16" s="13"/>
-      <c r="O16" s="13"/>
-      <c r="P16" s="13"/>
-      <c r="Q16" s="13"/>
-      <c r="R16" s="13"/>
-      <c r="S16" s="13"/>
-      <c r="T16" s="13"/>
-      <c r="U16" s="13"/>
-      <c r="V16" s="13"/>
-      <c r="W16" s="13"/>
-      <c r="X16" s="13"/>
-      <c r="Y16" s="13"/>
-      <c r="Z16" s="13"/>
-      <c r="AA16" s="13"/>
-      <c r="AB16" s="13"/>
-      <c r="AC16" s="13"/>
-      <c r="AD16" s="13"/>
-      <c r="AE16" s="13"/>
-      <c r="AF16" s="13"/>
-      <c r="AG16" s="13"/>
-      <c r="AH16" s="13"/>
-      <c r="AI16" s="13"/>
-      <c r="AJ16" s="13"/>
-      <c r="AK16" s="13"/>
-      <c r="AL16" s="13"/>
-      <c r="AM16" s="13"/>
-      <c r="AN16" s="14"/>
-      <c r="AO16" s="12"/>
-      <c r="AP16" s="13"/>
-      <c r="AQ16" s="13"/>
-      <c r="AR16" s="13"/>
-      <c r="AS16" s="13"/>
-      <c r="AT16" s="13"/>
-      <c r="AU16" s="13"/>
-      <c r="AV16" s="14"/>
+      <c r="A16" s="10"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="27"/>
+      <c r="K16" s="27"/>
+      <c r="L16" s="27"/>
+      <c r="M16" s="24"/>
+      <c r="N16" s="25"/>
+      <c r="O16" s="25"/>
+      <c r="P16" s="25"/>
+      <c r="Q16" s="25"/>
+      <c r="R16" s="25"/>
+      <c r="S16" s="25"/>
+      <c r="T16" s="25"/>
+      <c r="U16" s="25"/>
+      <c r="V16" s="25"/>
+      <c r="W16" s="25"/>
+      <c r="X16" s="25"/>
+      <c r="Y16" s="25"/>
+      <c r="Z16" s="25"/>
+      <c r="AA16" s="25"/>
+      <c r="AB16" s="25"/>
+      <c r="AC16" s="25"/>
+      <c r="AD16" s="25"/>
+      <c r="AE16" s="25"/>
+      <c r="AF16" s="25"/>
+      <c r="AG16" s="25"/>
+      <c r="AH16" s="25"/>
+      <c r="AI16" s="25"/>
+      <c r="AJ16" s="25"/>
+      <c r="AK16" s="25"/>
+      <c r="AL16" s="25"/>
+      <c r="AM16" s="25"/>
+      <c r="AN16" s="26"/>
+      <c r="AO16" s="24"/>
+      <c r="AP16" s="25"/>
+      <c r="AQ16" s="25"/>
+      <c r="AR16" s="25"/>
+      <c r="AS16" s="25"/>
+      <c r="AT16" s="25"/>
+      <c r="AU16" s="25"/>
+      <c r="AV16" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="67">
+    <mergeCell ref="AX2:BB2"/>
+    <mergeCell ref="AX3:BB3"/>
+    <mergeCell ref="BC2:BG2"/>
+    <mergeCell ref="BC3:BG3"/>
+    <mergeCell ref="AO10:AV10"/>
+    <mergeCell ref="AO6:AV6"/>
+    <mergeCell ref="AO7:AV7"/>
+    <mergeCell ref="AO8:AV8"/>
+    <mergeCell ref="AO9:AV9"/>
+    <mergeCell ref="AO16:AV16"/>
+    <mergeCell ref="AO11:AV11"/>
+    <mergeCell ref="AO12:AV12"/>
+    <mergeCell ref="AO13:AV13"/>
+    <mergeCell ref="AO14:AV14"/>
+    <mergeCell ref="AO15:AV15"/>
+    <mergeCell ref="I16:L16"/>
+    <mergeCell ref="M4:AN4"/>
+    <mergeCell ref="M5:AN5"/>
+    <mergeCell ref="M6:AN6"/>
+    <mergeCell ref="M7:AN7"/>
+    <mergeCell ref="M8:AN8"/>
+    <mergeCell ref="M9:AN9"/>
+    <mergeCell ref="M10:AN10"/>
+    <mergeCell ref="M11:AN11"/>
+    <mergeCell ref="M12:AN12"/>
+    <mergeCell ref="M13:AN13"/>
+    <mergeCell ref="M14:AN14"/>
+    <mergeCell ref="M15:AN15"/>
+    <mergeCell ref="M16:AN16"/>
+    <mergeCell ref="A16:H16"/>
+    <mergeCell ref="I4:L4"/>
+    <mergeCell ref="I5:L5"/>
+    <mergeCell ref="I6:L6"/>
+    <mergeCell ref="A15:H15"/>
+    <mergeCell ref="I15:L15"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="I14:L14"/>
+    <mergeCell ref="A13:H13"/>
+    <mergeCell ref="I13:L13"/>
+    <mergeCell ref="A12:H12"/>
+    <mergeCell ref="I12:L12"/>
+    <mergeCell ref="A11:H11"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="A10:H10"/>
+    <mergeCell ref="I10:L10"/>
+    <mergeCell ref="A9:H9"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="A8:H8"/>
+    <mergeCell ref="I8:L8"/>
+    <mergeCell ref="A7:H7"/>
+    <mergeCell ref="I7:L7"/>
     <mergeCell ref="A6:H6"/>
     <mergeCell ref="A5:H5"/>
     <mergeCell ref="AO2:AV2"/>
@@ -2699,57 +2925,6 @@
     <mergeCell ref="AG2:AN2"/>
     <mergeCell ref="AO4:AV4"/>
     <mergeCell ref="AO5:AV5"/>
-    <mergeCell ref="A9:H9"/>
-    <mergeCell ref="I9:L9"/>
-    <mergeCell ref="A8:H8"/>
-    <mergeCell ref="I8:L8"/>
-    <mergeCell ref="A7:H7"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="A16:H16"/>
-    <mergeCell ref="I4:L4"/>
-    <mergeCell ref="I5:L5"/>
-    <mergeCell ref="I6:L6"/>
-    <mergeCell ref="A15:H15"/>
-    <mergeCell ref="I15:L15"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="I14:L14"/>
-    <mergeCell ref="A13:H13"/>
-    <mergeCell ref="I13:L13"/>
-    <mergeCell ref="A12:H12"/>
-    <mergeCell ref="I12:L12"/>
-    <mergeCell ref="A11:H11"/>
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="A10:H10"/>
-    <mergeCell ref="I10:L10"/>
-    <mergeCell ref="I16:L16"/>
-    <mergeCell ref="M4:AN4"/>
-    <mergeCell ref="M5:AN5"/>
-    <mergeCell ref="M6:AN6"/>
-    <mergeCell ref="M7:AN7"/>
-    <mergeCell ref="M8:AN8"/>
-    <mergeCell ref="M9:AN9"/>
-    <mergeCell ref="M10:AN10"/>
-    <mergeCell ref="M11:AN11"/>
-    <mergeCell ref="M12:AN12"/>
-    <mergeCell ref="M13:AN13"/>
-    <mergeCell ref="M14:AN14"/>
-    <mergeCell ref="M15:AN15"/>
-    <mergeCell ref="M16:AN16"/>
-    <mergeCell ref="AO16:AV16"/>
-    <mergeCell ref="AO11:AV11"/>
-    <mergeCell ref="AO12:AV12"/>
-    <mergeCell ref="AO13:AV13"/>
-    <mergeCell ref="AO14:AV14"/>
-    <mergeCell ref="AO15:AV15"/>
-    <mergeCell ref="AX2:BB2"/>
-    <mergeCell ref="AX3:BB3"/>
-    <mergeCell ref="BC2:BG2"/>
-    <mergeCell ref="BC3:BG3"/>
-    <mergeCell ref="AO10:AV10"/>
-    <mergeCell ref="AO6:AV6"/>
-    <mergeCell ref="AO7:AV7"/>
-    <mergeCell ref="AO8:AV8"/>
-    <mergeCell ref="AO9:AV9"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2763,10 +2938,10 @@
   <dimension ref="A1:N36"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B23" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="C24" sqref="C24"/>
+      <selection pane="bottomRight" activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -2832,7 +3007,7 @@
     </row>
     <row r="4" spans="1:14" ht="126" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="3">
-        <f>IF(B4="","",ROW()-3)</f>
+        <f t="shared" ref="A4:A14" si="0">IF(B4="","",ROW()-3)</f>
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -2877,7 +3052,7 @@
     </row>
     <row r="5" spans="1:14" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="3">
-        <f t="shared" ref="A5:A36" si="0">IF(B5="","",ROW()-3)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -3016,14 +3191,30 @@
       <c r="F8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="6"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
+      <c r="G8" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="K8" s="8">
+        <v>43936</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="M8" s="8">
+        <v>43936</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="9" spans="1:14" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="3">
@@ -3045,18 +3236,34 @@
       <c r="F9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G9" s="6"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
+      <c r="G9" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="K9" s="8">
+        <v>43936</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="M9" s="8">
+        <v>43936</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="10" spans="1:14" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="3">
-        <f t="shared" ref="A10:A14" si="1">IF(B10="","",ROW()-3)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -3074,18 +3281,34 @@
       <c r="F10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G10" s="6"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
+      <c r="G10" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="K10" s="8">
+        <v>43936</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="M10" s="8">
+        <v>43936</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="11" spans="1:14" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -3112,15 +3335,25 @@
       <c r="I11" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="J11" s="6"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="J11" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="K11" s="8">
+        <v>43936</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="M11" s="8">
+        <v>43936</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B12" s="3" t="s">
@@ -3138,7 +3371,9 @@
       <c r="F12" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G12" s="6"/>
+      <c r="G12" s="6" t="s">
+        <v>105</v>
+      </c>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="6"/>
@@ -3149,7 +3384,7 @@
     </row>
     <row r="13" spans="1:14" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="3">
-        <f t="shared" ref="A13" si="2">IF(B13="","",ROW()-3)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B13" s="3" t="s">
@@ -3167,9 +3402,15 @@
       <c r="F13" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G13" s="6"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
+      <c r="G13" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>38</v>
+      </c>
       <c r="J13" s="6"/>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
@@ -3178,7 +3419,7 @@
     </row>
     <row r="14" spans="1:14" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -3223,7 +3464,7 @@
     </row>
     <row r="15" spans="1:14" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="3">
-        <f t="shared" ref="A15:A23" si="3">IF(B15="","",ROW()-3)</f>
+        <f t="shared" ref="A15:A23" si="1">IF(B15="","",ROW()-3)</f>
         <v>12</v>
       </c>
       <c r="B15" s="3" t="s">
@@ -3268,7 +3509,7 @@
     </row>
     <row r="16" spans="1:14" ht="126" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="B16" s="3" t="s">
@@ -3313,7 +3554,7 @@
     </row>
     <row r="17" spans="1:14" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -3358,7 +3599,7 @@
     </row>
     <row r="18" spans="1:14" ht="90" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="B18" s="3" t="s">
@@ -3403,7 +3644,7 @@
     </row>
     <row r="19" spans="1:14" ht="90" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="3">
-        <f t="shared" ref="A19:A21" si="4">IF(B19="","",ROW()-3)</f>
+        <f>IF(B19="","",ROW()-3)</f>
         <v>16</v>
       </c>
       <c r="B19" s="3" t="s">
@@ -3448,7 +3689,7 @@
     </row>
     <row r="20" spans="1:14" ht="108" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="3">
-        <f t="shared" si="4"/>
+        <f>IF(B20="","",ROW()-3)</f>
         <v>17</v>
       </c>
       <c r="B20" s="3" t="s">
@@ -3493,7 +3734,7 @@
     </row>
     <row r="21" spans="1:14" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="3">
-        <f t="shared" si="4"/>
+        <f>IF(B21="","",ROW()-3)</f>
         <v>18</v>
       </c>
       <c r="B21" s="3" t="s">
@@ -3520,7 +3761,9 @@
       <c r="I21" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="J21" s="6"/>
+      <c r="J21" s="6" t="s">
+        <v>107</v>
+      </c>
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
@@ -3528,7 +3771,7 @@
     </row>
     <row r="22" spans="1:14" ht="108" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="B22" s="7" t="s">
@@ -3573,7 +3816,7 @@
     </row>
     <row r="23" spans="1:14" ht="90" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="B23" s="7" t="s">
@@ -3618,7 +3861,7 @@
     </row>
     <row r="24" spans="1:14" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="3">
-        <f t="shared" ref="A24:A30" si="5">IF(B24="","",ROW()-3)</f>
+        <f t="shared" ref="A24:A30" si="2">IF(B24="","",ROW()-3)</f>
         <v>21</v>
       </c>
       <c r="B24" s="7" t="s">
@@ -3646,7 +3889,7 @@
         <v>39</v>
       </c>
       <c r="J24" s="6" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K24" s="8">
         <v>43935</v>
@@ -3661,9 +3904,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:14" ht="90" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>22</v>
       </c>
       <c r="B25" s="7" t="s">
@@ -3690,29 +3933,51 @@
       <c r="I25" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="J25" s="6"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
-      <c r="N25" s="3"/>
+      <c r="J25" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="K25" s="8">
+        <v>43936</v>
+      </c>
+      <c r="L25" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="M25" s="8">
+        <v>43936</v>
+      </c>
+      <c r="N25" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="26" spans="1:14" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>23</v>
       </c>
       <c r="B26" s="7" t="s">
         <v>84</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="D26" s="9"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
+        <v>96</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>38</v>
+      </c>
       <c r="J26" s="6"/>
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
@@ -3721,7 +3986,7 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="B27" s="7"/>
@@ -3740,7 +4005,7 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="B28" s="7"/>
@@ -3759,7 +4024,7 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="B29" s="7"/>
@@ -3778,7 +4043,7 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="B30" s="7"/>
@@ -3797,7 +4062,7 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="3" t="str">
-        <f t="shared" ref="A31:A34" si="6">IF(B31="","",ROW()-3)</f>
+        <f t="shared" ref="A31:A36" si="3">IF(B31="","",ROW()-3)</f>
         <v/>
       </c>
       <c r="B31" s="7"/>
@@ -3816,7 +4081,7 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B32" s="7"/>
@@ -3835,7 +4100,7 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B33" s="7"/>
@@ -3854,7 +4119,7 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B34" s="7"/>
@@ -3873,7 +4138,7 @@
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="3" t="str">
-        <f t="shared" ref="A35" si="7">IF(B35="","",ROW()-3)</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B35" s="7"/>
@@ -3892,7 +4157,7 @@
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="B36" s="7"/>
@@ -3920,13 +4185,13 @@
           <x14:formula1>
             <xm:f>選択項目!$B$2:$B$5</xm:f>
           </x14:formula1>
-          <xm:sqref>H12:H13 H4:H10 H23:H36</xm:sqref>
+          <xm:sqref>H4:H10 H12 H23:H36</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{382B28DD-E38A-4D72-8578-E33789A9419E}">
           <x14:formula1>
             <xm:f>選択項目!$C$2:$C$4</xm:f>
           </x14:formula1>
-          <xm:sqref>I12:I13 I4:I10 I24:I36</xm:sqref>
+          <xm:sqref>I4:I10 I12 I24:I36</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{AC995D69-40E2-41DE-B510-923F87571674}">
           <x14:formula1>
@@ -3938,7 +4203,7 @@
           <x14:formula1>
             <xm:f>選択項目!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>D14:D17 H11:I11 I14:I23 H14:H22</xm:sqref>
+          <xm:sqref>D14:D17 H11:I11 I14:I23 H14:H22 H13:I13</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/Doc/10品質記録/レビュー結果/課題管理表.xlsx
+++ b/Doc/10品質記録/レビュー結果/課題管理表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\MyCentOS\pythonGames\Doc\10品質記録\レビュー結果\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E8BB2A91-BF93-4582-A72D-D36CF6B2CB77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9C1B9F7-D484-420D-8213-851B3626DD70}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="1100" yWindow="1100" windowWidth="11100" windowHeight="7360" activeTab="1" xr2:uid="{CFAEB6AA-FC9D-49F8-8BE6-86D0FBA28B0C}"/>
+    <workbookView xWindow="6180" yWindow="2320" windowWidth="11100" windowHeight="7360" activeTab="1" xr2:uid="{CFAEB6AA-FC9D-49F8-8BE6-86D0FBA28B0C}"/>
   </bookViews>
   <sheets>
     <sheet name="改版履歴" sheetId="4" r:id="rId1"/>
@@ -22,7 +22,6 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">改版履歴!$A$1:$AV$16</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="119">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -1374,6 +1373,269 @@
     </rPh>
     <rPh sb="23" eb="24">
       <t>モトム</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>birthの値のパラメータ渡せない→mainloop使用クラスに値を投げる</t>
+    <rPh sb="6" eb="7">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ワタ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>signup</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①ウィンドウが二窓できる問題、②ウィンドウが表示されない問題</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>tk.Tkの継承をカット。Self.window = tk.Toplevel(parent)とした。また親画面parentをコンストラクタの引数に持たせる。</t>
+    <rPh sb="6" eb="8">
+      <t>ケイショウ</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>オヤ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="70" eb="72">
+      <t>ヒキスウ</t>
+    </rPh>
+    <rPh sb="73" eb="74">
+      <t>モ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>各フレームを以下のように修正
+×frame_week = tk.Frame(self)
+〇frame_week = tk.Frame(self.window)に修正。</t>
+    <rPh sb="0" eb="1">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="80" eb="82">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フレームで継承したtk.Tkを初期化したクラスを子画面としようとしていたため。
+↓親クラスでのクラス宣言を修正
+self.sub_root = cal.mycalendar(self.root)→
+self.sub_root = cal.mycalendar(self)
+これで子クラスでparentクラスをローカル変数に入れられる。</t>
+    <rPh sb="5" eb="7">
+      <t>ケイショウ</t>
+    </rPh>
+    <rPh sb="15" eb="18">
+      <t>ショキカ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>オヤ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>センゲン</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="139" eb="140">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="158" eb="160">
+      <t>ヘンスウ</t>
+    </rPh>
+    <rPh sb="161" eb="162">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①はtk.Tkを継承していため。親画面がTk.tkを継承しているので子画面のsignupではtk.tkを継承する必要がない、tk.Tkを継承するとtk.Tkを初期化する必要があるため（これだと別窓ができてしまう。）tk.Toplevelを使う場合は必要ない。②イベントでなく単純なメソッドの呼び出しでは画面が表示されない？</t>
+    <rPh sb="8" eb="10">
+      <t>ケイショウ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>オヤ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ケイショウ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>ケイショウ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t>ケイショウ</t>
+    </rPh>
+    <rPh sb="79" eb="82">
+      <t>ショキカ</t>
+    </rPh>
+    <rPh sb="84" eb="86">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="96" eb="97">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="97" eb="98">
+      <t>マド</t>
+    </rPh>
+    <rPh sb="119" eb="120">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="121" eb="123">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="124" eb="126">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="137" eb="139">
+      <t>タンジュン</t>
+    </rPh>
+    <rPh sb="145" eb="146">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="147" eb="148">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="151" eb="153">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="154" eb="156">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>子画面から渡された日付のパラメータが親画面で表示されない。</t>
+    <rPh sb="0" eb="1">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ワタ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>オヤ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>子画面でのself.parent.selected_date = select_dの単純な代入や親画面でのEntryのテキストのdelete/insertでは値の更新はされないから。</t>
+    <rPh sb="0" eb="1">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>タンジュン</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ダイニュウ</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>オヤ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="79" eb="80">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="81" eb="83">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>▼以下のように修正
+・親画面
+self.selected_date = ’’→
+self.selected_date = tk.StringVar()
+・子画面
+self.parent.selected_date = selected_date→
+self.parent.selected_date.set(selected_date)
+tk.StringVar()は値の更新用に使える！</t>
+    <rPh sb="1" eb="3">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>オヤ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="78" eb="79">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="79" eb="81">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="186" eb="187">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="188" eb="190">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="190" eb="191">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="192" eb="193">
+      <t>ツカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1640,8 +1902,44 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -1672,42 +1970,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2033,860 +2295,853 @@
   <sheetFormatPr defaultColWidth="3.08203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
     <row r="1" spans="1:59" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="14" t="str">
+      <c r="A1" s="26" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>改版履歴</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="18" t="s">
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="18" t="s">
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="18"/>
-      <c r="S1" s="18"/>
-      <c r="T1" s="18"/>
-      <c r="U1" s="18"/>
-      <c r="V1" s="18"/>
-      <c r="W1" s="18"/>
-      <c r="X1" s="18"/>
-      <c r="Y1" s="18" t="s">
+      <c r="R1" s="30"/>
+      <c r="S1" s="30"/>
+      <c r="T1" s="30"/>
+      <c r="U1" s="30"/>
+      <c r="V1" s="30"/>
+      <c r="W1" s="30"/>
+      <c r="X1" s="30"/>
+      <c r="Y1" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="Z1" s="18"/>
-      <c r="AA1" s="18"/>
-      <c r="AB1" s="18"/>
-      <c r="AC1" s="18"/>
-      <c r="AD1" s="18"/>
-      <c r="AE1" s="18"/>
-      <c r="AF1" s="18"/>
-      <c r="AG1" s="18" t="s">
+      <c r="Z1" s="30"/>
+      <c r="AA1" s="30"/>
+      <c r="AB1" s="30"/>
+      <c r="AC1" s="30"/>
+      <c r="AD1" s="30"/>
+      <c r="AE1" s="30"/>
+      <c r="AF1" s="30"/>
+      <c r="AG1" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="AH1" s="18"/>
-      <c r="AI1" s="18"/>
-      <c r="AJ1" s="18"/>
-      <c r="AK1" s="18"/>
-      <c r="AL1" s="18"/>
-      <c r="AM1" s="18"/>
-      <c r="AN1" s="18"/>
-      <c r="AO1" s="18" t="s">
+      <c r="AH1" s="30"/>
+      <c r="AI1" s="30"/>
+      <c r="AJ1" s="30"/>
+      <c r="AK1" s="30"/>
+      <c r="AL1" s="30"/>
+      <c r="AM1" s="30"/>
+      <c r="AN1" s="30"/>
+      <c r="AO1" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="AP1" s="18"/>
-      <c r="AQ1" s="18"/>
-      <c r="AR1" s="18"/>
-      <c r="AS1" s="18"/>
-      <c r="AT1" s="18"/>
-      <c r="AU1" s="18"/>
-      <c r="AV1" s="18"/>
+      <c r="AP1" s="30"/>
+      <c r="AQ1" s="30"/>
+      <c r="AR1" s="30"/>
+      <c r="AS1" s="30"/>
+      <c r="AT1" s="30"/>
+      <c r="AU1" s="30"/>
+      <c r="AV1" s="30"/>
     </row>
     <row r="2" spans="1:59" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="16"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="12" t="str">
+      <c r="A2" s="28"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="24" t="str">
         <f>AX3</f>
         <v>pythonGame</v>
       </c>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="19">
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="24"/>
+      <c r="Q2" s="31">
         <f ca="1">INDIRECT("A"&amp;(COUNTA(A:H)+2))</f>
         <v>43884</v>
       </c>
-      <c r="R2" s="19"/>
-      <c r="S2" s="19"/>
-      <c r="T2" s="19"/>
-      <c r="U2" s="19"/>
-      <c r="V2" s="19"/>
-      <c r="W2" s="19"/>
-      <c r="X2" s="19"/>
-      <c r="Y2" s="20" t="str">
+      <c r="R2" s="31"/>
+      <c r="S2" s="31"/>
+      <c r="T2" s="31"/>
+      <c r="U2" s="31"/>
+      <c r="V2" s="31"/>
+      <c r="W2" s="31"/>
+      <c r="X2" s="31"/>
+      <c r="Y2" s="32" t="str">
         <f ca="1">INDIRECT("AO"&amp;(COUNTA(AO:AV)+1))</f>
         <v>Giphe</v>
       </c>
-      <c r="Z2" s="20"/>
-      <c r="AA2" s="20"/>
-      <c r="AB2" s="20"/>
-      <c r="AC2" s="20"/>
-      <c r="AD2" s="20"/>
-      <c r="AE2" s="20"/>
-      <c r="AF2" s="20"/>
-      <c r="AG2" s="20" t="str">
+      <c r="Z2" s="32"/>
+      <c r="AA2" s="32"/>
+      <c r="AB2" s="32"/>
+      <c r="AC2" s="32"/>
+      <c r="AD2" s="32"/>
+      <c r="AE2" s="32"/>
+      <c r="AF2" s="32"/>
+      <c r="AG2" s="32" t="str">
         <f ca="1">INDIRECT("I"&amp;(COUNTA(I:L)+1))</f>
         <v>1.0</v>
       </c>
-      <c r="AH2" s="20"/>
-      <c r="AI2" s="20"/>
-      <c r="AJ2" s="20"/>
-      <c r="AK2" s="20"/>
-      <c r="AL2" s="20"/>
-      <c r="AM2" s="20"/>
-      <c r="AN2" s="20"/>
-      <c r="AO2" s="12" t="str">
+      <c r="AH2" s="32"/>
+      <c r="AI2" s="32"/>
+      <c r="AJ2" s="32"/>
+      <c r="AK2" s="32"/>
+      <c r="AL2" s="32"/>
+      <c r="AM2" s="32"/>
+      <c r="AN2" s="32"/>
+      <c r="AO2" s="24" t="str">
         <f>BC3</f>
         <v>詳細設計</v>
       </c>
-      <c r="AP2" s="12"/>
-      <c r="AQ2" s="12"/>
-      <c r="AR2" s="12"/>
-      <c r="AS2" s="12"/>
-      <c r="AT2" s="12"/>
-      <c r="AU2" s="12"/>
-      <c r="AV2" s="12"/>
-      <c r="AX2" s="32" t="s">
+      <c r="AP2" s="24"/>
+      <c r="AQ2" s="24"/>
+      <c r="AR2" s="24"/>
+      <c r="AS2" s="24"/>
+      <c r="AT2" s="24"/>
+      <c r="AU2" s="24"/>
+      <c r="AV2" s="24"/>
+      <c r="AX2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="AY2" s="32"/>
-      <c r="AZ2" s="32"/>
-      <c r="BA2" s="32"/>
-      <c r="BB2" s="32"/>
-      <c r="BC2" s="10" t="s">
+      <c r="AY2" s="10"/>
+      <c r="AZ2" s="10"/>
+      <c r="BA2" s="10"/>
+      <c r="BB2" s="10"/>
+      <c r="BC2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="BD2" s="10"/>
-      <c r="BE2" s="10"/>
-      <c r="BF2" s="10"/>
-      <c r="BG2" s="10"/>
+      <c r="BD2" s="11"/>
+      <c r="BE2" s="11"/>
+      <c r="BF2" s="11"/>
+      <c r="BG2" s="11"/>
     </row>
     <row r="3" spans="1:59" x14ac:dyDescent="0.55000000000000004">
-      <c r="AX3" s="32" t="s">
+      <c r="AX3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="AY3" s="32"/>
-      <c r="AZ3" s="32"/>
-      <c r="BA3" s="32"/>
-      <c r="BB3" s="32"/>
-      <c r="BC3" s="10" t="s">
+      <c r="AY3" s="10"/>
+      <c r="AZ3" s="10"/>
+      <c r="BA3" s="10"/>
+      <c r="BB3" s="10"/>
+      <c r="BC3" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="BD3" s="10"/>
-      <c r="BE3" s="10"/>
-      <c r="BF3" s="10"/>
-      <c r="BG3" s="10"/>
+      <c r="BD3" s="11"/>
+      <c r="BE3" s="11"/>
+      <c r="BF3" s="11"/>
+      <c r="BG3" s="11"/>
     </row>
     <row r="4" spans="1:59" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="28" t="s">
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="29"/>
-      <c r="K4" s="29"/>
-      <c r="L4" s="30"/>
-      <c r="M4" s="21" t="s">
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="N4" s="22"/>
-      <c r="O4" s="22"/>
-      <c r="P4" s="22"/>
-      <c r="Q4" s="22"/>
-      <c r="R4" s="22"/>
-      <c r="S4" s="22"/>
-      <c r="T4" s="22"/>
-      <c r="U4" s="22"/>
-      <c r="V4" s="22"/>
-      <c r="W4" s="22"/>
-      <c r="X4" s="22"/>
-      <c r="Y4" s="22"/>
-      <c r="Z4" s="22"/>
-      <c r="AA4" s="22"/>
-      <c r="AB4" s="22"/>
-      <c r="AC4" s="22"/>
-      <c r="AD4" s="22"/>
-      <c r="AE4" s="22"/>
-      <c r="AF4" s="22"/>
-      <c r="AG4" s="22"/>
-      <c r="AH4" s="22"/>
-      <c r="AI4" s="22"/>
-      <c r="AJ4" s="22"/>
-      <c r="AK4" s="22"/>
-      <c r="AL4" s="22"/>
-      <c r="AM4" s="22"/>
-      <c r="AN4" s="23"/>
-      <c r="AO4" s="21" t="s">
+      <c r="N4" s="17"/>
+      <c r="O4" s="17"/>
+      <c r="P4" s="17"/>
+      <c r="Q4" s="17"/>
+      <c r="R4" s="17"/>
+      <c r="S4" s="17"/>
+      <c r="T4" s="17"/>
+      <c r="U4" s="17"/>
+      <c r="V4" s="17"/>
+      <c r="W4" s="17"/>
+      <c r="X4" s="17"/>
+      <c r="Y4" s="17"/>
+      <c r="Z4" s="17"/>
+      <c r="AA4" s="17"/>
+      <c r="AB4" s="17"/>
+      <c r="AC4" s="17"/>
+      <c r="AD4" s="17"/>
+      <c r="AE4" s="17"/>
+      <c r="AF4" s="17"/>
+      <c r="AG4" s="17"/>
+      <c r="AH4" s="17"/>
+      <c r="AI4" s="17"/>
+      <c r="AJ4" s="17"/>
+      <c r="AK4" s="17"/>
+      <c r="AL4" s="17"/>
+      <c r="AM4" s="17"/>
+      <c r="AN4" s="18"/>
+      <c r="AO4" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="AP4" s="22"/>
-      <c r="AQ4" s="22"/>
-      <c r="AR4" s="22"/>
-      <c r="AS4" s="22"/>
-      <c r="AT4" s="22"/>
-      <c r="AU4" s="22"/>
-      <c r="AV4" s="23"/>
+      <c r="AP4" s="17"/>
+      <c r="AQ4" s="17"/>
+      <c r="AR4" s="17"/>
+      <c r="AS4" s="17"/>
+      <c r="AT4" s="17"/>
+      <c r="AU4" s="17"/>
+      <c r="AV4" s="18"/>
     </row>
     <row r="5" spans="1:59" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="11">
+      <c r="A5" s="23">
         <v>43884</v>
       </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="31" t="s">
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="31"/>
-      <c r="K5" s="31"/>
-      <c r="L5" s="31"/>
-      <c r="M5" s="24" t="s">
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="N5" s="25"/>
-      <c r="O5" s="25"/>
-      <c r="P5" s="25"/>
-      <c r="Q5" s="25"/>
-      <c r="R5" s="25"/>
-      <c r="S5" s="25"/>
-      <c r="T5" s="25"/>
-      <c r="U5" s="25"/>
-      <c r="V5" s="25"/>
-      <c r="W5" s="25"/>
-      <c r="X5" s="25"/>
-      <c r="Y5" s="25"/>
-      <c r="Z5" s="25"/>
-      <c r="AA5" s="25"/>
-      <c r="AB5" s="25"/>
-      <c r="AC5" s="25"/>
-      <c r="AD5" s="25"/>
-      <c r="AE5" s="25"/>
-      <c r="AF5" s="25"/>
-      <c r="AG5" s="25"/>
-      <c r="AH5" s="25"/>
-      <c r="AI5" s="25"/>
-      <c r="AJ5" s="25"/>
-      <c r="AK5" s="25"/>
-      <c r="AL5" s="25"/>
-      <c r="AM5" s="25"/>
-      <c r="AN5" s="26"/>
-      <c r="AO5" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="AP5" s="25"/>
-      <c r="AQ5" s="25"/>
-      <c r="AR5" s="25"/>
-      <c r="AS5" s="25"/>
-      <c r="AT5" s="25"/>
-      <c r="AU5" s="25"/>
-      <c r="AV5" s="26"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="13"/>
+      <c r="P5" s="13"/>
+      <c r="Q5" s="13"/>
+      <c r="R5" s="13"/>
+      <c r="S5" s="13"/>
+      <c r="T5" s="13"/>
+      <c r="U5" s="13"/>
+      <c r="V5" s="13"/>
+      <c r="W5" s="13"/>
+      <c r="X5" s="13"/>
+      <c r="Y5" s="13"/>
+      <c r="Z5" s="13"/>
+      <c r="AA5" s="13"/>
+      <c r="AB5" s="13"/>
+      <c r="AC5" s="13"/>
+      <c r="AD5" s="13"/>
+      <c r="AE5" s="13"/>
+      <c r="AF5" s="13"/>
+      <c r="AG5" s="13"/>
+      <c r="AH5" s="13"/>
+      <c r="AI5" s="13"/>
+      <c r="AJ5" s="13"/>
+      <c r="AK5" s="13"/>
+      <c r="AL5" s="13"/>
+      <c r="AM5" s="13"/>
+      <c r="AN5" s="14"/>
+      <c r="AO5" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="AP5" s="13"/>
+      <c r="AQ5" s="13"/>
+      <c r="AR5" s="13"/>
+      <c r="AS5" s="13"/>
+      <c r="AT5" s="13"/>
+      <c r="AU5" s="13"/>
+      <c r="AV5" s="14"/>
     </row>
     <row r="6" spans="1:59" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="27"/>
-      <c r="J6" s="27"/>
-      <c r="K6" s="27"/>
-      <c r="L6" s="27"/>
-      <c r="M6" s="24"/>
-      <c r="N6" s="25"/>
-      <c r="O6" s="25"/>
-      <c r="P6" s="25"/>
-      <c r="Q6" s="25"/>
-      <c r="R6" s="25"/>
-      <c r="S6" s="25"/>
-      <c r="T6" s="25"/>
-      <c r="U6" s="25"/>
-      <c r="V6" s="25"/>
-      <c r="W6" s="25"/>
-      <c r="X6" s="25"/>
-      <c r="Y6" s="25"/>
-      <c r="Z6" s="25"/>
-      <c r="AA6" s="25"/>
-      <c r="AB6" s="25"/>
-      <c r="AC6" s="25"/>
-      <c r="AD6" s="25"/>
-      <c r="AE6" s="25"/>
-      <c r="AF6" s="25"/>
-      <c r="AG6" s="25"/>
-      <c r="AH6" s="25"/>
-      <c r="AI6" s="25"/>
-      <c r="AJ6" s="25"/>
-      <c r="AK6" s="25"/>
-      <c r="AL6" s="25"/>
-      <c r="AM6" s="25"/>
-      <c r="AN6" s="26"/>
-      <c r="AO6" s="24"/>
-      <c r="AP6" s="25"/>
-      <c r="AQ6" s="25"/>
-      <c r="AR6" s="25"/>
-      <c r="AS6" s="25"/>
-      <c r="AT6" s="25"/>
-      <c r="AU6" s="25"/>
-      <c r="AV6" s="26"/>
+      <c r="A6" s="11"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="13"/>
+      <c r="Q6" s="13"/>
+      <c r="R6" s="13"/>
+      <c r="S6" s="13"/>
+      <c r="T6" s="13"/>
+      <c r="U6" s="13"/>
+      <c r="V6" s="13"/>
+      <c r="W6" s="13"/>
+      <c r="X6" s="13"/>
+      <c r="Y6" s="13"/>
+      <c r="Z6" s="13"/>
+      <c r="AA6" s="13"/>
+      <c r="AB6" s="13"/>
+      <c r="AC6" s="13"/>
+      <c r="AD6" s="13"/>
+      <c r="AE6" s="13"/>
+      <c r="AF6" s="13"/>
+      <c r="AG6" s="13"/>
+      <c r="AH6" s="13"/>
+      <c r="AI6" s="13"/>
+      <c r="AJ6" s="13"/>
+      <c r="AK6" s="13"/>
+      <c r="AL6" s="13"/>
+      <c r="AM6" s="13"/>
+      <c r="AN6" s="14"/>
+      <c r="AO6" s="12"/>
+      <c r="AP6" s="13"/>
+      <c r="AQ6" s="13"/>
+      <c r="AR6" s="13"/>
+      <c r="AS6" s="13"/>
+      <c r="AT6" s="13"/>
+      <c r="AU6" s="13"/>
+      <c r="AV6" s="14"/>
     </row>
     <row r="7" spans="1:59" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="10"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="27"/>
-      <c r="J7" s="27"/>
-      <c r="K7" s="27"/>
-      <c r="L7" s="27"/>
-      <c r="M7" s="24"/>
-      <c r="N7" s="25"/>
-      <c r="O7" s="25"/>
-      <c r="P7" s="25"/>
-      <c r="Q7" s="25"/>
-      <c r="R7" s="25"/>
-      <c r="S7" s="25"/>
-      <c r="T7" s="25"/>
-      <c r="U7" s="25"/>
-      <c r="V7" s="25"/>
-      <c r="W7" s="25"/>
-      <c r="X7" s="25"/>
-      <c r="Y7" s="25"/>
-      <c r="Z7" s="25"/>
-      <c r="AA7" s="25"/>
-      <c r="AB7" s="25"/>
-      <c r="AC7" s="25"/>
-      <c r="AD7" s="25"/>
-      <c r="AE7" s="25"/>
-      <c r="AF7" s="25"/>
-      <c r="AG7" s="25"/>
-      <c r="AH7" s="25"/>
-      <c r="AI7" s="25"/>
-      <c r="AJ7" s="25"/>
-      <c r="AK7" s="25"/>
-      <c r="AL7" s="25"/>
-      <c r="AM7" s="25"/>
-      <c r="AN7" s="26"/>
-      <c r="AO7" s="24"/>
-      <c r="AP7" s="25"/>
-      <c r="AQ7" s="25"/>
-      <c r="AR7" s="25"/>
-      <c r="AS7" s="25"/>
-      <c r="AT7" s="25"/>
-      <c r="AU7" s="25"/>
-      <c r="AV7" s="26"/>
+      <c r="A7" s="11"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="13"/>
+      <c r="P7" s="13"/>
+      <c r="Q7" s="13"/>
+      <c r="R7" s="13"/>
+      <c r="S7" s="13"/>
+      <c r="T7" s="13"/>
+      <c r="U7" s="13"/>
+      <c r="V7" s="13"/>
+      <c r="W7" s="13"/>
+      <c r="X7" s="13"/>
+      <c r="Y7" s="13"/>
+      <c r="Z7" s="13"/>
+      <c r="AA7" s="13"/>
+      <c r="AB7" s="13"/>
+      <c r="AC7" s="13"/>
+      <c r="AD7" s="13"/>
+      <c r="AE7" s="13"/>
+      <c r="AF7" s="13"/>
+      <c r="AG7" s="13"/>
+      <c r="AH7" s="13"/>
+      <c r="AI7" s="13"/>
+      <c r="AJ7" s="13"/>
+      <c r="AK7" s="13"/>
+      <c r="AL7" s="13"/>
+      <c r="AM7" s="13"/>
+      <c r="AN7" s="14"/>
+      <c r="AO7" s="12"/>
+      <c r="AP7" s="13"/>
+      <c r="AQ7" s="13"/>
+      <c r="AR7" s="13"/>
+      <c r="AS7" s="13"/>
+      <c r="AT7" s="13"/>
+      <c r="AU7" s="13"/>
+      <c r="AV7" s="14"/>
     </row>
     <row r="8" spans="1:59" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="10"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="27"/>
-      <c r="J8" s="27"/>
-      <c r="K8" s="27"/>
-      <c r="L8" s="27"/>
-      <c r="M8" s="24"/>
-      <c r="N8" s="25"/>
-      <c r="O8" s="25"/>
-      <c r="P8" s="25"/>
-      <c r="Q8" s="25"/>
-      <c r="R8" s="25"/>
-      <c r="S8" s="25"/>
-      <c r="T8" s="25"/>
-      <c r="U8" s="25"/>
-      <c r="V8" s="25"/>
-      <c r="W8" s="25"/>
-      <c r="X8" s="25"/>
-      <c r="Y8" s="25"/>
-      <c r="Z8" s="25"/>
-      <c r="AA8" s="25"/>
-      <c r="AB8" s="25"/>
-      <c r="AC8" s="25"/>
-      <c r="AD8" s="25"/>
-      <c r="AE8" s="25"/>
-      <c r="AF8" s="25"/>
-      <c r="AG8" s="25"/>
-      <c r="AH8" s="25"/>
-      <c r="AI8" s="25"/>
-      <c r="AJ8" s="25"/>
-      <c r="AK8" s="25"/>
-      <c r="AL8" s="25"/>
-      <c r="AM8" s="25"/>
-      <c r="AN8" s="26"/>
-      <c r="AO8" s="24"/>
-      <c r="AP8" s="25"/>
-      <c r="AQ8" s="25"/>
-      <c r="AR8" s="25"/>
-      <c r="AS8" s="25"/>
-      <c r="AT8" s="25"/>
-      <c r="AU8" s="25"/>
-      <c r="AV8" s="26"/>
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="13"/>
+      <c r="P8" s="13"/>
+      <c r="Q8" s="13"/>
+      <c r="R8" s="13"/>
+      <c r="S8" s="13"/>
+      <c r="T8" s="13"/>
+      <c r="U8" s="13"/>
+      <c r="V8" s="13"/>
+      <c r="W8" s="13"/>
+      <c r="X8" s="13"/>
+      <c r="Y8" s="13"/>
+      <c r="Z8" s="13"/>
+      <c r="AA8" s="13"/>
+      <c r="AB8" s="13"/>
+      <c r="AC8" s="13"/>
+      <c r="AD8" s="13"/>
+      <c r="AE8" s="13"/>
+      <c r="AF8" s="13"/>
+      <c r="AG8" s="13"/>
+      <c r="AH8" s="13"/>
+      <c r="AI8" s="13"/>
+      <c r="AJ8" s="13"/>
+      <c r="AK8" s="13"/>
+      <c r="AL8" s="13"/>
+      <c r="AM8" s="13"/>
+      <c r="AN8" s="14"/>
+      <c r="AO8" s="12"/>
+      <c r="AP8" s="13"/>
+      <c r="AQ8" s="13"/>
+      <c r="AR8" s="13"/>
+      <c r="AS8" s="13"/>
+      <c r="AT8" s="13"/>
+      <c r="AU8" s="13"/>
+      <c r="AV8" s="14"/>
     </row>
     <row r="9" spans="1:59" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="10"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="27"/>
-      <c r="K9" s="27"/>
-      <c r="L9" s="27"/>
-      <c r="M9" s="24"/>
-      <c r="N9" s="25"/>
-      <c r="O9" s="25"/>
-      <c r="P9" s="25"/>
-      <c r="Q9" s="25"/>
-      <c r="R9" s="25"/>
-      <c r="S9" s="25"/>
-      <c r="T9" s="25"/>
-      <c r="U9" s="25"/>
-      <c r="V9" s="25"/>
-      <c r="W9" s="25"/>
-      <c r="X9" s="25"/>
-      <c r="Y9" s="25"/>
-      <c r="Z9" s="25"/>
-      <c r="AA9" s="25"/>
-      <c r="AB9" s="25"/>
-      <c r="AC9" s="25"/>
-      <c r="AD9" s="25"/>
-      <c r="AE9" s="25"/>
-      <c r="AF9" s="25"/>
-      <c r="AG9" s="25"/>
-      <c r="AH9" s="25"/>
-      <c r="AI9" s="25"/>
-      <c r="AJ9" s="25"/>
-      <c r="AK9" s="25"/>
-      <c r="AL9" s="25"/>
-      <c r="AM9" s="25"/>
-      <c r="AN9" s="26"/>
-      <c r="AO9" s="24"/>
-      <c r="AP9" s="25"/>
-      <c r="AQ9" s="25"/>
-      <c r="AR9" s="25"/>
-      <c r="AS9" s="25"/>
-      <c r="AT9" s="25"/>
-      <c r="AU9" s="25"/>
-      <c r="AV9" s="26"/>
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="13"/>
+      <c r="O9" s="13"/>
+      <c r="P9" s="13"/>
+      <c r="Q9" s="13"/>
+      <c r="R9" s="13"/>
+      <c r="S9" s="13"/>
+      <c r="T9" s="13"/>
+      <c r="U9" s="13"/>
+      <c r="V9" s="13"/>
+      <c r="W9" s="13"/>
+      <c r="X9" s="13"/>
+      <c r="Y9" s="13"/>
+      <c r="Z9" s="13"/>
+      <c r="AA9" s="13"/>
+      <c r="AB9" s="13"/>
+      <c r="AC9" s="13"/>
+      <c r="AD9" s="13"/>
+      <c r="AE9" s="13"/>
+      <c r="AF9" s="13"/>
+      <c r="AG9" s="13"/>
+      <c r="AH9" s="13"/>
+      <c r="AI9" s="13"/>
+      <c r="AJ9" s="13"/>
+      <c r="AK9" s="13"/>
+      <c r="AL9" s="13"/>
+      <c r="AM9" s="13"/>
+      <c r="AN9" s="14"/>
+      <c r="AO9" s="12"/>
+      <c r="AP9" s="13"/>
+      <c r="AQ9" s="13"/>
+      <c r="AR9" s="13"/>
+      <c r="AS9" s="13"/>
+      <c r="AT9" s="13"/>
+      <c r="AU9" s="13"/>
+      <c r="AV9" s="14"/>
     </row>
     <row r="10" spans="1:59" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="10"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="27"/>
-      <c r="J10" s="27"/>
-      <c r="K10" s="27"/>
-      <c r="L10" s="27"/>
-      <c r="M10" s="24"/>
-      <c r="N10" s="25"/>
-      <c r="O10" s="25"/>
-      <c r="P10" s="25"/>
-      <c r="Q10" s="25"/>
-      <c r="R10" s="25"/>
-      <c r="S10" s="25"/>
-      <c r="T10" s="25"/>
-      <c r="U10" s="25"/>
-      <c r="V10" s="25"/>
-      <c r="W10" s="25"/>
-      <c r="X10" s="25"/>
-      <c r="Y10" s="25"/>
-      <c r="Z10" s="25"/>
-      <c r="AA10" s="25"/>
-      <c r="AB10" s="25"/>
-      <c r="AC10" s="25"/>
-      <c r="AD10" s="25"/>
-      <c r="AE10" s="25"/>
-      <c r="AF10" s="25"/>
-      <c r="AG10" s="25"/>
-      <c r="AH10" s="25"/>
-      <c r="AI10" s="25"/>
-      <c r="AJ10" s="25"/>
-      <c r="AK10" s="25"/>
-      <c r="AL10" s="25"/>
-      <c r="AM10" s="25"/>
-      <c r="AN10" s="26"/>
-      <c r="AO10" s="24"/>
-      <c r="AP10" s="25"/>
-      <c r="AQ10" s="25"/>
-      <c r="AR10" s="25"/>
-      <c r="AS10" s="25"/>
-      <c r="AT10" s="25"/>
-      <c r="AU10" s="25"/>
-      <c r="AV10" s="26"/>
+      <c r="A10" s="11"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="13"/>
+      <c r="P10" s="13"/>
+      <c r="Q10" s="13"/>
+      <c r="R10" s="13"/>
+      <c r="S10" s="13"/>
+      <c r="T10" s="13"/>
+      <c r="U10" s="13"/>
+      <c r="V10" s="13"/>
+      <c r="W10" s="13"/>
+      <c r="X10" s="13"/>
+      <c r="Y10" s="13"/>
+      <c r="Z10" s="13"/>
+      <c r="AA10" s="13"/>
+      <c r="AB10" s="13"/>
+      <c r="AC10" s="13"/>
+      <c r="AD10" s="13"/>
+      <c r="AE10" s="13"/>
+      <c r="AF10" s="13"/>
+      <c r="AG10" s="13"/>
+      <c r="AH10" s="13"/>
+      <c r="AI10" s="13"/>
+      <c r="AJ10" s="13"/>
+      <c r="AK10" s="13"/>
+      <c r="AL10" s="13"/>
+      <c r="AM10" s="13"/>
+      <c r="AN10" s="14"/>
+      <c r="AO10" s="12"/>
+      <c r="AP10" s="13"/>
+      <c r="AQ10" s="13"/>
+      <c r="AR10" s="13"/>
+      <c r="AS10" s="13"/>
+      <c r="AT10" s="13"/>
+      <c r="AU10" s="13"/>
+      <c r="AV10" s="14"/>
     </row>
     <row r="11" spans="1:59" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="10"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="27"/>
-      <c r="J11" s="27"/>
-      <c r="K11" s="27"/>
-      <c r="L11" s="27"/>
-      <c r="M11" s="24"/>
-      <c r="N11" s="25"/>
-      <c r="O11" s="25"/>
-      <c r="P11" s="25"/>
-      <c r="Q11" s="25"/>
-      <c r="R11" s="25"/>
-      <c r="S11" s="25"/>
-      <c r="T11" s="25"/>
-      <c r="U11" s="25"/>
-      <c r="V11" s="25"/>
-      <c r="W11" s="25"/>
-      <c r="X11" s="25"/>
-      <c r="Y11" s="25"/>
-      <c r="Z11" s="25"/>
-      <c r="AA11" s="25"/>
-      <c r="AB11" s="25"/>
-      <c r="AC11" s="25"/>
-      <c r="AD11" s="25"/>
-      <c r="AE11" s="25"/>
-      <c r="AF11" s="25"/>
-      <c r="AG11" s="25"/>
-      <c r="AH11" s="25"/>
-      <c r="AI11" s="25"/>
-      <c r="AJ11" s="25"/>
-      <c r="AK11" s="25"/>
-      <c r="AL11" s="25"/>
-      <c r="AM11" s="25"/>
-      <c r="AN11" s="26"/>
-      <c r="AO11" s="24"/>
-      <c r="AP11" s="25"/>
-      <c r="AQ11" s="25"/>
-      <c r="AR11" s="25"/>
-      <c r="AS11" s="25"/>
-      <c r="AT11" s="25"/>
-      <c r="AU11" s="25"/>
-      <c r="AV11" s="26"/>
+      <c r="A11" s="11"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="13"/>
+      <c r="O11" s="13"/>
+      <c r="P11" s="13"/>
+      <c r="Q11" s="13"/>
+      <c r="R11" s="13"/>
+      <c r="S11" s="13"/>
+      <c r="T11" s="13"/>
+      <c r="U11" s="13"/>
+      <c r="V11" s="13"/>
+      <c r="W11" s="13"/>
+      <c r="X11" s="13"/>
+      <c r="Y11" s="13"/>
+      <c r="Z11" s="13"/>
+      <c r="AA11" s="13"/>
+      <c r="AB11" s="13"/>
+      <c r="AC11" s="13"/>
+      <c r="AD11" s="13"/>
+      <c r="AE11" s="13"/>
+      <c r="AF11" s="13"/>
+      <c r="AG11" s="13"/>
+      <c r="AH11" s="13"/>
+      <c r="AI11" s="13"/>
+      <c r="AJ11" s="13"/>
+      <c r="AK11" s="13"/>
+      <c r="AL11" s="13"/>
+      <c r="AM11" s="13"/>
+      <c r="AN11" s="14"/>
+      <c r="AO11" s="12"/>
+      <c r="AP11" s="13"/>
+      <c r="AQ11" s="13"/>
+      <c r="AR11" s="13"/>
+      <c r="AS11" s="13"/>
+      <c r="AT11" s="13"/>
+      <c r="AU11" s="13"/>
+      <c r="AV11" s="14"/>
     </row>
     <row r="12" spans="1:59" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="10"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="27"/>
-      <c r="J12" s="27"/>
-      <c r="K12" s="27"/>
-      <c r="L12" s="27"/>
-      <c r="M12" s="24"/>
-      <c r="N12" s="25"/>
-      <c r="O12" s="25"/>
-      <c r="P12" s="25"/>
-      <c r="Q12" s="25"/>
-      <c r="R12" s="25"/>
-      <c r="S12" s="25"/>
-      <c r="T12" s="25"/>
-      <c r="U12" s="25"/>
-      <c r="V12" s="25"/>
-      <c r="W12" s="25"/>
-      <c r="X12" s="25"/>
-      <c r="Y12" s="25"/>
-      <c r="Z12" s="25"/>
-      <c r="AA12" s="25"/>
-      <c r="AB12" s="25"/>
-      <c r="AC12" s="25"/>
-      <c r="AD12" s="25"/>
-      <c r="AE12" s="25"/>
-      <c r="AF12" s="25"/>
-      <c r="AG12" s="25"/>
-      <c r="AH12" s="25"/>
-      <c r="AI12" s="25"/>
-      <c r="AJ12" s="25"/>
-      <c r="AK12" s="25"/>
-      <c r="AL12" s="25"/>
-      <c r="AM12" s="25"/>
-      <c r="AN12" s="26"/>
-      <c r="AO12" s="24"/>
-      <c r="AP12" s="25"/>
-      <c r="AQ12" s="25"/>
-      <c r="AR12" s="25"/>
-      <c r="AS12" s="25"/>
-      <c r="AT12" s="25"/>
-      <c r="AU12" s="25"/>
-      <c r="AV12" s="26"/>
+      <c r="A12" s="11"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="13"/>
+      <c r="O12" s="13"/>
+      <c r="P12" s="13"/>
+      <c r="Q12" s="13"/>
+      <c r="R12" s="13"/>
+      <c r="S12" s="13"/>
+      <c r="T12" s="13"/>
+      <c r="U12" s="13"/>
+      <c r="V12" s="13"/>
+      <c r="W12" s="13"/>
+      <c r="X12" s="13"/>
+      <c r="Y12" s="13"/>
+      <c r="Z12" s="13"/>
+      <c r="AA12" s="13"/>
+      <c r="AB12" s="13"/>
+      <c r="AC12" s="13"/>
+      <c r="AD12" s="13"/>
+      <c r="AE12" s="13"/>
+      <c r="AF12" s="13"/>
+      <c r="AG12" s="13"/>
+      <c r="AH12" s="13"/>
+      <c r="AI12" s="13"/>
+      <c r="AJ12" s="13"/>
+      <c r="AK12" s="13"/>
+      <c r="AL12" s="13"/>
+      <c r="AM12" s="13"/>
+      <c r="AN12" s="14"/>
+      <c r="AO12" s="12"/>
+      <c r="AP12" s="13"/>
+      <c r="AQ12" s="13"/>
+      <c r="AR12" s="13"/>
+      <c r="AS12" s="13"/>
+      <c r="AT12" s="13"/>
+      <c r="AU12" s="13"/>
+      <c r="AV12" s="14"/>
     </row>
     <row r="13" spans="1:59" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="10"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="27"/>
-      <c r="K13" s="27"/>
-      <c r="L13" s="27"/>
-      <c r="M13" s="24"/>
-      <c r="N13" s="25"/>
-      <c r="O13" s="25"/>
-      <c r="P13" s="25"/>
-      <c r="Q13" s="25"/>
-      <c r="R13" s="25"/>
-      <c r="S13" s="25"/>
-      <c r="T13" s="25"/>
-      <c r="U13" s="25"/>
-      <c r="V13" s="25"/>
-      <c r="W13" s="25"/>
-      <c r="X13" s="25"/>
-      <c r="Y13" s="25"/>
-      <c r="Z13" s="25"/>
-      <c r="AA13" s="25"/>
-      <c r="AB13" s="25"/>
-      <c r="AC13" s="25"/>
-      <c r="AD13" s="25"/>
-      <c r="AE13" s="25"/>
-      <c r="AF13" s="25"/>
-      <c r="AG13" s="25"/>
-      <c r="AH13" s="25"/>
-      <c r="AI13" s="25"/>
-      <c r="AJ13" s="25"/>
-      <c r="AK13" s="25"/>
-      <c r="AL13" s="25"/>
-      <c r="AM13" s="25"/>
-      <c r="AN13" s="26"/>
-      <c r="AO13" s="24"/>
-      <c r="AP13" s="25"/>
-      <c r="AQ13" s="25"/>
-      <c r="AR13" s="25"/>
-      <c r="AS13" s="25"/>
-      <c r="AT13" s="25"/>
-      <c r="AU13" s="25"/>
-      <c r="AV13" s="26"/>
+      <c r="A13" s="11"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="13"/>
+      <c r="O13" s="13"/>
+      <c r="P13" s="13"/>
+      <c r="Q13" s="13"/>
+      <c r="R13" s="13"/>
+      <c r="S13" s="13"/>
+      <c r="T13" s="13"/>
+      <c r="U13" s="13"/>
+      <c r="V13" s="13"/>
+      <c r="W13" s="13"/>
+      <c r="X13" s="13"/>
+      <c r="Y13" s="13"/>
+      <c r="Z13" s="13"/>
+      <c r="AA13" s="13"/>
+      <c r="AB13" s="13"/>
+      <c r="AC13" s="13"/>
+      <c r="AD13" s="13"/>
+      <c r="AE13" s="13"/>
+      <c r="AF13" s="13"/>
+      <c r="AG13" s="13"/>
+      <c r="AH13" s="13"/>
+      <c r="AI13" s="13"/>
+      <c r="AJ13" s="13"/>
+      <c r="AK13" s="13"/>
+      <c r="AL13" s="13"/>
+      <c r="AM13" s="13"/>
+      <c r="AN13" s="14"/>
+      <c r="AO13" s="12"/>
+      <c r="AP13" s="13"/>
+      <c r="AQ13" s="13"/>
+      <c r="AR13" s="13"/>
+      <c r="AS13" s="13"/>
+      <c r="AT13" s="13"/>
+      <c r="AU13" s="13"/>
+      <c r="AV13" s="14"/>
     </row>
     <row r="14" spans="1:59" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="10"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="27"/>
-      <c r="J14" s="27"/>
-      <c r="K14" s="27"/>
-      <c r="L14" s="27"/>
-      <c r="M14" s="24"/>
-      <c r="N14" s="25"/>
-      <c r="O14" s="25"/>
-      <c r="P14" s="25"/>
-      <c r="Q14" s="25"/>
-      <c r="R14" s="25"/>
-      <c r="S14" s="25"/>
-      <c r="T14" s="25"/>
-      <c r="U14" s="25"/>
-      <c r="V14" s="25"/>
-      <c r="W14" s="25"/>
-      <c r="X14" s="25"/>
-      <c r="Y14" s="25"/>
-      <c r="Z14" s="25"/>
-      <c r="AA14" s="25"/>
-      <c r="AB14" s="25"/>
-      <c r="AC14" s="25"/>
-      <c r="AD14" s="25"/>
-      <c r="AE14" s="25"/>
-      <c r="AF14" s="25"/>
-      <c r="AG14" s="25"/>
-      <c r="AH14" s="25"/>
-      <c r="AI14" s="25"/>
-      <c r="AJ14" s="25"/>
-      <c r="AK14" s="25"/>
-      <c r="AL14" s="25"/>
-      <c r="AM14" s="25"/>
-      <c r="AN14" s="26"/>
-      <c r="AO14" s="24"/>
-      <c r="AP14" s="25"/>
-      <c r="AQ14" s="25"/>
-      <c r="AR14" s="25"/>
-      <c r="AS14" s="25"/>
-      <c r="AT14" s="25"/>
-      <c r="AU14" s="25"/>
-      <c r="AV14" s="26"/>
+      <c r="A14" s="11"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="13"/>
+      <c r="O14" s="13"/>
+      <c r="P14" s="13"/>
+      <c r="Q14" s="13"/>
+      <c r="R14" s="13"/>
+      <c r="S14" s="13"/>
+      <c r="T14" s="13"/>
+      <c r="U14" s="13"/>
+      <c r="V14" s="13"/>
+      <c r="W14" s="13"/>
+      <c r="X14" s="13"/>
+      <c r="Y14" s="13"/>
+      <c r="Z14" s="13"/>
+      <c r="AA14" s="13"/>
+      <c r="AB14" s="13"/>
+      <c r="AC14" s="13"/>
+      <c r="AD14" s="13"/>
+      <c r="AE14" s="13"/>
+      <c r="AF14" s="13"/>
+      <c r="AG14" s="13"/>
+      <c r="AH14" s="13"/>
+      <c r="AI14" s="13"/>
+      <c r="AJ14" s="13"/>
+      <c r="AK14" s="13"/>
+      <c r="AL14" s="13"/>
+      <c r="AM14" s="13"/>
+      <c r="AN14" s="14"/>
+      <c r="AO14" s="12"/>
+      <c r="AP14" s="13"/>
+      <c r="AQ14" s="13"/>
+      <c r="AR14" s="13"/>
+      <c r="AS14" s="13"/>
+      <c r="AT14" s="13"/>
+      <c r="AU14" s="13"/>
+      <c r="AV14" s="14"/>
     </row>
     <row r="15" spans="1:59" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="10"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="27"/>
-      <c r="J15" s="27"/>
-      <c r="K15" s="27"/>
-      <c r="L15" s="27"/>
-      <c r="M15" s="24"/>
-      <c r="N15" s="25"/>
-      <c r="O15" s="25"/>
-      <c r="P15" s="25"/>
-      <c r="Q15" s="25"/>
-      <c r="R15" s="25"/>
-      <c r="S15" s="25"/>
-      <c r="T15" s="25"/>
-      <c r="U15" s="25"/>
-      <c r="V15" s="25"/>
-      <c r="W15" s="25"/>
-      <c r="X15" s="25"/>
-      <c r="Y15" s="25"/>
-      <c r="Z15" s="25"/>
-      <c r="AA15" s="25"/>
-      <c r="AB15" s="25"/>
-      <c r="AC15" s="25"/>
-      <c r="AD15" s="25"/>
-      <c r="AE15" s="25"/>
-      <c r="AF15" s="25"/>
-      <c r="AG15" s="25"/>
-      <c r="AH15" s="25"/>
-      <c r="AI15" s="25"/>
-      <c r="AJ15" s="25"/>
-      <c r="AK15" s="25"/>
-      <c r="AL15" s="25"/>
-      <c r="AM15" s="25"/>
-      <c r="AN15" s="26"/>
-      <c r="AO15" s="24"/>
-      <c r="AP15" s="25"/>
-      <c r="AQ15" s="25"/>
-      <c r="AR15" s="25"/>
-      <c r="AS15" s="25"/>
-      <c r="AT15" s="25"/>
-      <c r="AU15" s="25"/>
-      <c r="AV15" s="26"/>
+      <c r="A15" s="11"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="13"/>
+      <c r="O15" s="13"/>
+      <c r="P15" s="13"/>
+      <c r="Q15" s="13"/>
+      <c r="R15" s="13"/>
+      <c r="S15" s="13"/>
+      <c r="T15" s="13"/>
+      <c r="U15" s="13"/>
+      <c r="V15" s="13"/>
+      <c r="W15" s="13"/>
+      <c r="X15" s="13"/>
+      <c r="Y15" s="13"/>
+      <c r="Z15" s="13"/>
+      <c r="AA15" s="13"/>
+      <c r="AB15" s="13"/>
+      <c r="AC15" s="13"/>
+      <c r="AD15" s="13"/>
+      <c r="AE15" s="13"/>
+      <c r="AF15" s="13"/>
+      <c r="AG15" s="13"/>
+      <c r="AH15" s="13"/>
+      <c r="AI15" s="13"/>
+      <c r="AJ15" s="13"/>
+      <c r="AK15" s="13"/>
+      <c r="AL15" s="13"/>
+      <c r="AM15" s="13"/>
+      <c r="AN15" s="14"/>
+      <c r="AO15" s="12"/>
+      <c r="AP15" s="13"/>
+      <c r="AQ15" s="13"/>
+      <c r="AR15" s="13"/>
+      <c r="AS15" s="13"/>
+      <c r="AT15" s="13"/>
+      <c r="AU15" s="13"/>
+      <c r="AV15" s="14"/>
     </row>
     <row r="16" spans="1:59" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="10"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="27"/>
-      <c r="J16" s="27"/>
-      <c r="K16" s="27"/>
-      <c r="L16" s="27"/>
-      <c r="M16" s="24"/>
-      <c r="N16" s="25"/>
-      <c r="O16" s="25"/>
-      <c r="P16" s="25"/>
-      <c r="Q16" s="25"/>
-      <c r="R16" s="25"/>
-      <c r="S16" s="25"/>
-      <c r="T16" s="25"/>
-      <c r="U16" s="25"/>
-      <c r="V16" s="25"/>
-      <c r="W16" s="25"/>
-      <c r="X16" s="25"/>
-      <c r="Y16" s="25"/>
-      <c r="Z16" s="25"/>
-      <c r="AA16" s="25"/>
-      <c r="AB16" s="25"/>
-      <c r="AC16" s="25"/>
-      <c r="AD16" s="25"/>
-      <c r="AE16" s="25"/>
-      <c r="AF16" s="25"/>
-      <c r="AG16" s="25"/>
-      <c r="AH16" s="25"/>
-      <c r="AI16" s="25"/>
-      <c r="AJ16" s="25"/>
-      <c r="AK16" s="25"/>
-      <c r="AL16" s="25"/>
-      <c r="AM16" s="25"/>
-      <c r="AN16" s="26"/>
-      <c r="AO16" s="24"/>
-      <c r="AP16" s="25"/>
-      <c r="AQ16" s="25"/>
-      <c r="AR16" s="25"/>
-      <c r="AS16" s="25"/>
-      <c r="AT16" s="25"/>
-      <c r="AU16" s="25"/>
-      <c r="AV16" s="26"/>
+      <c r="A16" s="11"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="15"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="13"/>
+      <c r="O16" s="13"/>
+      <c r="P16" s="13"/>
+      <c r="Q16" s="13"/>
+      <c r="R16" s="13"/>
+      <c r="S16" s="13"/>
+      <c r="T16" s="13"/>
+      <c r="U16" s="13"/>
+      <c r="V16" s="13"/>
+      <c r="W16" s="13"/>
+      <c r="X16" s="13"/>
+      <c r="Y16" s="13"/>
+      <c r="Z16" s="13"/>
+      <c r="AA16" s="13"/>
+      <c r="AB16" s="13"/>
+      <c r="AC16" s="13"/>
+      <c r="AD16" s="13"/>
+      <c r="AE16" s="13"/>
+      <c r="AF16" s="13"/>
+      <c r="AG16" s="13"/>
+      <c r="AH16" s="13"/>
+      <c r="AI16" s="13"/>
+      <c r="AJ16" s="13"/>
+      <c r="AK16" s="13"/>
+      <c r="AL16" s="13"/>
+      <c r="AM16" s="13"/>
+      <c r="AN16" s="14"/>
+      <c r="AO16" s="12"/>
+      <c r="AP16" s="13"/>
+      <c r="AQ16" s="13"/>
+      <c r="AR16" s="13"/>
+      <c r="AS16" s="13"/>
+      <c r="AT16" s="13"/>
+      <c r="AU16" s="13"/>
+      <c r="AV16" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="67">
-    <mergeCell ref="AX2:BB2"/>
-    <mergeCell ref="AX3:BB3"/>
-    <mergeCell ref="BC2:BG2"/>
-    <mergeCell ref="BC3:BG3"/>
-    <mergeCell ref="AO10:AV10"/>
-    <mergeCell ref="AO6:AV6"/>
-    <mergeCell ref="AO7:AV7"/>
-    <mergeCell ref="AO8:AV8"/>
-    <mergeCell ref="AO9:AV9"/>
-    <mergeCell ref="AO16:AV16"/>
-    <mergeCell ref="AO11:AV11"/>
-    <mergeCell ref="AO12:AV12"/>
-    <mergeCell ref="AO13:AV13"/>
-    <mergeCell ref="AO14:AV14"/>
-    <mergeCell ref="AO15:AV15"/>
-    <mergeCell ref="I16:L16"/>
-    <mergeCell ref="M4:AN4"/>
-    <mergeCell ref="M5:AN5"/>
-    <mergeCell ref="M6:AN6"/>
-    <mergeCell ref="M7:AN7"/>
-    <mergeCell ref="M8:AN8"/>
-    <mergeCell ref="M9:AN9"/>
-    <mergeCell ref="M10:AN10"/>
-    <mergeCell ref="M11:AN11"/>
-    <mergeCell ref="M12:AN12"/>
-    <mergeCell ref="M13:AN13"/>
-    <mergeCell ref="M14:AN14"/>
-    <mergeCell ref="M15:AN15"/>
-    <mergeCell ref="M16:AN16"/>
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="A5:H5"/>
+    <mergeCell ref="AO2:AV2"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="I1:P1"/>
+    <mergeCell ref="Q1:X1"/>
+    <mergeCell ref="Y1:AF1"/>
+    <mergeCell ref="AG1:AN1"/>
+    <mergeCell ref="AO1:AV1"/>
+    <mergeCell ref="I2:P2"/>
+    <mergeCell ref="Q2:X2"/>
+    <mergeCell ref="Y2:AF2"/>
+    <mergeCell ref="AG2:AN2"/>
+    <mergeCell ref="AO4:AV4"/>
+    <mergeCell ref="AO5:AV5"/>
+    <mergeCell ref="A9:H9"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="A8:H8"/>
+    <mergeCell ref="I8:L8"/>
+    <mergeCell ref="A7:H7"/>
+    <mergeCell ref="I7:L7"/>
     <mergeCell ref="A16:H16"/>
     <mergeCell ref="I4:L4"/>
     <mergeCell ref="I5:L5"/>
@@ -2903,28 +3158,35 @@
     <mergeCell ref="I11:L11"/>
     <mergeCell ref="A10:H10"/>
     <mergeCell ref="I10:L10"/>
-    <mergeCell ref="A9:H9"/>
-    <mergeCell ref="I9:L9"/>
-    <mergeCell ref="A8:H8"/>
-    <mergeCell ref="I8:L8"/>
-    <mergeCell ref="A7:H7"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="A6:H6"/>
-    <mergeCell ref="A5:H5"/>
-    <mergeCell ref="AO2:AV2"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="A1:H2"/>
-    <mergeCell ref="I1:P1"/>
-    <mergeCell ref="Q1:X1"/>
-    <mergeCell ref="Y1:AF1"/>
-    <mergeCell ref="AG1:AN1"/>
-    <mergeCell ref="AO1:AV1"/>
-    <mergeCell ref="I2:P2"/>
-    <mergeCell ref="Q2:X2"/>
-    <mergeCell ref="Y2:AF2"/>
-    <mergeCell ref="AG2:AN2"/>
-    <mergeCell ref="AO4:AV4"/>
-    <mergeCell ref="AO5:AV5"/>
+    <mergeCell ref="I16:L16"/>
+    <mergeCell ref="M4:AN4"/>
+    <mergeCell ref="M5:AN5"/>
+    <mergeCell ref="M6:AN6"/>
+    <mergeCell ref="M7:AN7"/>
+    <mergeCell ref="M8:AN8"/>
+    <mergeCell ref="M9:AN9"/>
+    <mergeCell ref="M10:AN10"/>
+    <mergeCell ref="M11:AN11"/>
+    <mergeCell ref="M12:AN12"/>
+    <mergeCell ref="M13:AN13"/>
+    <mergeCell ref="M14:AN14"/>
+    <mergeCell ref="M15:AN15"/>
+    <mergeCell ref="M16:AN16"/>
+    <mergeCell ref="AO16:AV16"/>
+    <mergeCell ref="AO11:AV11"/>
+    <mergeCell ref="AO12:AV12"/>
+    <mergeCell ref="AO13:AV13"/>
+    <mergeCell ref="AO14:AV14"/>
+    <mergeCell ref="AO15:AV15"/>
+    <mergeCell ref="AX2:BB2"/>
+    <mergeCell ref="AX3:BB3"/>
+    <mergeCell ref="BC2:BG2"/>
+    <mergeCell ref="BC3:BG3"/>
+    <mergeCell ref="AO10:AV10"/>
+    <mergeCell ref="AO6:AV6"/>
+    <mergeCell ref="AO7:AV7"/>
+    <mergeCell ref="AO8:AV8"/>
+    <mergeCell ref="AO9:AV9"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2938,10 +3200,10 @@
   <dimension ref="A1:N36"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B24" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="G28" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="C25" sqref="C25"/>
+      <selection pane="bottomRight" activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -2951,7 +3213,7 @@
     <col min="4" max="5" width="8.83203125" customWidth="1"/>
     <col min="6" max="6" width="8.25" customWidth="1"/>
     <col min="7" max="7" width="40.33203125" customWidth="1"/>
-    <col min="10" max="10" width="36.58203125" customWidth="1"/>
+    <col min="10" max="10" width="38.4140625" customWidth="1"/>
     <col min="11" max="11" width="10" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10" bestFit="1" customWidth="1"/>
   </cols>
@@ -3955,7 +4217,7 @@
         <v>23</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>84</v>
+        <v>110</v>
       </c>
       <c r="C26" s="7" t="s">
         <v>96</v>
@@ -3984,62 +4246,140 @@
       <c r="M26" s="3"/>
       <c r="N26" s="3"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="3" t="str">
+    <row r="27" spans="1:14" ht="126" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="3">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="6"/>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="3" t="str">
+        <v>24</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J27" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="K27" s="8">
+        <v>43941</v>
+      </c>
+      <c r="L27" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="M27" s="8">
+        <v>43941</v>
+      </c>
+      <c r="N27" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="126" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="3">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="6"/>
-      <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
-      <c r="M28" s="3"/>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="3" t="str">
+        <v>25</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J28" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="K28" s="8">
+        <v>43941</v>
+      </c>
+      <c r="L28" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="M28" s="8">
+        <v>43941</v>
+      </c>
+      <c r="N28" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="180" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="3">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="6"/>
-      <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
-      <c r="M29" s="3"/>
-      <c r="N29" s="3"/>
+        <v>26</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J29" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="K29" s="8">
+        <v>43941</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="M29" s="8">
+        <v>43941</v>
+      </c>
+      <c r="N29" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="3" t="str">

--- a/Doc/10品質記録/レビュー結果/課題管理表.xlsx
+++ b/Doc/10品質記録/レビュー結果/課題管理表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\MyCentOS\pythonGames\Doc\10品質記録\レビュー結果\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9C1B9F7-D484-420D-8213-851B3626DD70}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17DE3AF1-F2B7-4FBB-A8F6-945C77822761}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6180" yWindow="2320" windowWidth="11100" windowHeight="7360" activeTab="1" xr2:uid="{CFAEB6AA-FC9D-49F8-8BE6-86D0FBA28B0C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{CFAEB6AA-FC9D-49F8-8BE6-86D0FBA28B0C}"/>
   </bookViews>
   <sheets>
     <sheet name="改版履歴" sheetId="4" r:id="rId1"/>
@@ -1902,44 +1902,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -1970,6 +1934,42 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2295,831 +2295,882 @@
   <sheetFormatPr defaultColWidth="3.08203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
     <row r="1" spans="1:59" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="26" t="str">
+      <c r="A1" s="14" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>改版履歴</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="30" t="s">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
-      <c r="O1" s="30"/>
-      <c r="P1" s="30"/>
-      <c r="Q1" s="30" t="s">
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="30"/>
-      <c r="S1" s="30"/>
-      <c r="T1" s="30"/>
-      <c r="U1" s="30"/>
-      <c r="V1" s="30"/>
-      <c r="W1" s="30"/>
-      <c r="X1" s="30"/>
-      <c r="Y1" s="30" t="s">
+      <c r="R1" s="18"/>
+      <c r="S1" s="18"/>
+      <c r="T1" s="18"/>
+      <c r="U1" s="18"/>
+      <c r="V1" s="18"/>
+      <c r="W1" s="18"/>
+      <c r="X1" s="18"/>
+      <c r="Y1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="Z1" s="30"/>
-      <c r="AA1" s="30"/>
-      <c r="AB1" s="30"/>
-      <c r="AC1" s="30"/>
-      <c r="AD1" s="30"/>
-      <c r="AE1" s="30"/>
-      <c r="AF1" s="30"/>
-      <c r="AG1" s="30" t="s">
+      <c r="Z1" s="18"/>
+      <c r="AA1" s="18"/>
+      <c r="AB1" s="18"/>
+      <c r="AC1" s="18"/>
+      <c r="AD1" s="18"/>
+      <c r="AE1" s="18"/>
+      <c r="AF1" s="18"/>
+      <c r="AG1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="AH1" s="30"/>
-      <c r="AI1" s="30"/>
-      <c r="AJ1" s="30"/>
-      <c r="AK1" s="30"/>
-      <c r="AL1" s="30"/>
-      <c r="AM1" s="30"/>
-      <c r="AN1" s="30"/>
-      <c r="AO1" s="30" t="s">
+      <c r="AH1" s="18"/>
+      <c r="AI1" s="18"/>
+      <c r="AJ1" s="18"/>
+      <c r="AK1" s="18"/>
+      <c r="AL1" s="18"/>
+      <c r="AM1" s="18"/>
+      <c r="AN1" s="18"/>
+      <c r="AO1" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="AP1" s="30"/>
-      <c r="AQ1" s="30"/>
-      <c r="AR1" s="30"/>
-      <c r="AS1" s="30"/>
-      <c r="AT1" s="30"/>
-      <c r="AU1" s="30"/>
-      <c r="AV1" s="30"/>
+      <c r="AP1" s="18"/>
+      <c r="AQ1" s="18"/>
+      <c r="AR1" s="18"/>
+      <c r="AS1" s="18"/>
+      <c r="AT1" s="18"/>
+      <c r="AU1" s="18"/>
+      <c r="AV1" s="18"/>
     </row>
     <row r="2" spans="1:59" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="28"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="24" t="str">
+      <c r="A2" s="16"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="12" t="str">
         <f>AX3</f>
         <v>pythonGame</v>
       </c>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="31">
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="19">
         <f ca="1">INDIRECT("A"&amp;(COUNTA(A:H)+2))</f>
         <v>43884</v>
       </c>
-      <c r="R2" s="31"/>
-      <c r="S2" s="31"/>
-      <c r="T2" s="31"/>
-      <c r="U2" s="31"/>
-      <c r="V2" s="31"/>
-      <c r="W2" s="31"/>
-      <c r="X2" s="31"/>
-      <c r="Y2" s="32" t="str">
+      <c r="R2" s="19"/>
+      <c r="S2" s="19"/>
+      <c r="T2" s="19"/>
+      <c r="U2" s="19"/>
+      <c r="V2" s="19"/>
+      <c r="W2" s="19"/>
+      <c r="X2" s="19"/>
+      <c r="Y2" s="20" t="str">
         <f ca="1">INDIRECT("AO"&amp;(COUNTA(AO:AV)+1))</f>
         <v>Giphe</v>
       </c>
-      <c r="Z2" s="32"/>
-      <c r="AA2" s="32"/>
-      <c r="AB2" s="32"/>
-      <c r="AC2" s="32"/>
-      <c r="AD2" s="32"/>
-      <c r="AE2" s="32"/>
-      <c r="AF2" s="32"/>
-      <c r="AG2" s="32" t="str">
+      <c r="Z2" s="20"/>
+      <c r="AA2" s="20"/>
+      <c r="AB2" s="20"/>
+      <c r="AC2" s="20"/>
+      <c r="AD2" s="20"/>
+      <c r="AE2" s="20"/>
+      <c r="AF2" s="20"/>
+      <c r="AG2" s="20" t="str">
         <f ca="1">INDIRECT("I"&amp;(COUNTA(I:L)+1))</f>
         <v>1.0</v>
       </c>
-      <c r="AH2" s="32"/>
-      <c r="AI2" s="32"/>
-      <c r="AJ2" s="32"/>
-      <c r="AK2" s="32"/>
-      <c r="AL2" s="32"/>
-      <c r="AM2" s="32"/>
-      <c r="AN2" s="32"/>
-      <c r="AO2" s="24" t="str">
+      <c r="AH2" s="20"/>
+      <c r="AI2" s="20"/>
+      <c r="AJ2" s="20"/>
+      <c r="AK2" s="20"/>
+      <c r="AL2" s="20"/>
+      <c r="AM2" s="20"/>
+      <c r="AN2" s="20"/>
+      <c r="AO2" s="12" t="str">
         <f>BC3</f>
         <v>詳細設計</v>
       </c>
-      <c r="AP2" s="24"/>
-      <c r="AQ2" s="24"/>
-      <c r="AR2" s="24"/>
-      <c r="AS2" s="24"/>
-      <c r="AT2" s="24"/>
-      <c r="AU2" s="24"/>
-      <c r="AV2" s="24"/>
-      <c r="AX2" s="10" t="s">
+      <c r="AP2" s="12"/>
+      <c r="AQ2" s="12"/>
+      <c r="AR2" s="12"/>
+      <c r="AS2" s="12"/>
+      <c r="AT2" s="12"/>
+      <c r="AU2" s="12"/>
+      <c r="AV2" s="12"/>
+      <c r="AX2" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="AY2" s="10"/>
-      <c r="AZ2" s="10"/>
-      <c r="BA2" s="10"/>
-      <c r="BB2" s="10"/>
-      <c r="BC2" s="11" t="s">
+      <c r="AY2" s="32"/>
+      <c r="AZ2" s="32"/>
+      <c r="BA2" s="32"/>
+      <c r="BB2" s="32"/>
+      <c r="BC2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="BD2" s="11"/>
-      <c r="BE2" s="11"/>
-      <c r="BF2" s="11"/>
-      <c r="BG2" s="11"/>
+      <c r="BD2" s="10"/>
+      <c r="BE2" s="10"/>
+      <c r="BF2" s="10"/>
+      <c r="BG2" s="10"/>
     </row>
     <row r="3" spans="1:59" x14ac:dyDescent="0.55000000000000004">
-      <c r="AX3" s="10" t="s">
+      <c r="AX3" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="AY3" s="10"/>
-      <c r="AZ3" s="10"/>
-      <c r="BA3" s="10"/>
-      <c r="BB3" s="10"/>
-      <c r="BC3" s="11" t="s">
+      <c r="AY3" s="32"/>
+      <c r="AZ3" s="32"/>
+      <c r="BA3" s="32"/>
+      <c r="BB3" s="32"/>
+      <c r="BC3" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="BD3" s="11"/>
-      <c r="BE3" s="11"/>
-      <c r="BF3" s="11"/>
-      <c r="BG3" s="11"/>
+      <c r="BD3" s="10"/>
+      <c r="BE3" s="10"/>
+      <c r="BF3" s="10"/>
+      <c r="BG3" s="10"/>
     </row>
     <row r="4" spans="1:59" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="19" t="s">
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="20"/>
-      <c r="K4" s="20"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="16" t="s">
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="30"/>
+      <c r="M4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="N4" s="17"/>
-      <c r="O4" s="17"/>
-      <c r="P4" s="17"/>
-      <c r="Q4" s="17"/>
-      <c r="R4" s="17"/>
-      <c r="S4" s="17"/>
-      <c r="T4" s="17"/>
-      <c r="U4" s="17"/>
-      <c r="V4" s="17"/>
-      <c r="W4" s="17"/>
-      <c r="X4" s="17"/>
-      <c r="Y4" s="17"/>
-      <c r="Z4" s="17"/>
-      <c r="AA4" s="17"/>
-      <c r="AB4" s="17"/>
-      <c r="AC4" s="17"/>
-      <c r="AD4" s="17"/>
-      <c r="AE4" s="17"/>
-      <c r="AF4" s="17"/>
-      <c r="AG4" s="17"/>
-      <c r="AH4" s="17"/>
-      <c r="AI4" s="17"/>
-      <c r="AJ4" s="17"/>
-      <c r="AK4" s="17"/>
-      <c r="AL4" s="17"/>
-      <c r="AM4" s="17"/>
-      <c r="AN4" s="18"/>
-      <c r="AO4" s="16" t="s">
+      <c r="N4" s="22"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="22"/>
+      <c r="Q4" s="22"/>
+      <c r="R4" s="22"/>
+      <c r="S4" s="22"/>
+      <c r="T4" s="22"/>
+      <c r="U4" s="22"/>
+      <c r="V4" s="22"/>
+      <c r="W4" s="22"/>
+      <c r="X4" s="22"/>
+      <c r="Y4" s="22"/>
+      <c r="Z4" s="22"/>
+      <c r="AA4" s="22"/>
+      <c r="AB4" s="22"/>
+      <c r="AC4" s="22"/>
+      <c r="AD4" s="22"/>
+      <c r="AE4" s="22"/>
+      <c r="AF4" s="22"/>
+      <c r="AG4" s="22"/>
+      <c r="AH4" s="22"/>
+      <c r="AI4" s="22"/>
+      <c r="AJ4" s="22"/>
+      <c r="AK4" s="22"/>
+      <c r="AL4" s="22"/>
+      <c r="AM4" s="22"/>
+      <c r="AN4" s="23"/>
+      <c r="AO4" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="AP4" s="17"/>
-      <c r="AQ4" s="17"/>
-      <c r="AR4" s="17"/>
-      <c r="AS4" s="17"/>
-      <c r="AT4" s="17"/>
-      <c r="AU4" s="17"/>
-      <c r="AV4" s="18"/>
+      <c r="AP4" s="22"/>
+      <c r="AQ4" s="22"/>
+      <c r="AR4" s="22"/>
+      <c r="AS4" s="22"/>
+      <c r="AT4" s="22"/>
+      <c r="AU4" s="22"/>
+      <c r="AV4" s="23"/>
     </row>
     <row r="5" spans="1:59" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="23">
+      <c r="A5" s="11">
         <v>43884</v>
       </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="22" t="s">
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="22"/>
-      <c r="M5" s="12" t="s">
+      <c r="J5" s="31"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="31"/>
+      <c r="M5" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="N5" s="13"/>
-      <c r="O5" s="13"/>
-      <c r="P5" s="13"/>
-      <c r="Q5" s="13"/>
-      <c r="R5" s="13"/>
-      <c r="S5" s="13"/>
-      <c r="T5" s="13"/>
-      <c r="U5" s="13"/>
-      <c r="V5" s="13"/>
-      <c r="W5" s="13"/>
-      <c r="X5" s="13"/>
-      <c r="Y5" s="13"/>
-      <c r="Z5" s="13"/>
-      <c r="AA5" s="13"/>
-      <c r="AB5" s="13"/>
-      <c r="AC5" s="13"/>
-      <c r="AD5" s="13"/>
-      <c r="AE5" s="13"/>
-      <c r="AF5" s="13"/>
-      <c r="AG5" s="13"/>
-      <c r="AH5" s="13"/>
-      <c r="AI5" s="13"/>
-      <c r="AJ5" s="13"/>
-      <c r="AK5" s="13"/>
-      <c r="AL5" s="13"/>
-      <c r="AM5" s="13"/>
-      <c r="AN5" s="14"/>
-      <c r="AO5" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="AP5" s="13"/>
-      <c r="AQ5" s="13"/>
-      <c r="AR5" s="13"/>
-      <c r="AS5" s="13"/>
-      <c r="AT5" s="13"/>
-      <c r="AU5" s="13"/>
-      <c r="AV5" s="14"/>
+      <c r="N5" s="25"/>
+      <c r="O5" s="25"/>
+      <c r="P5" s="25"/>
+      <c r="Q5" s="25"/>
+      <c r="R5" s="25"/>
+      <c r="S5" s="25"/>
+      <c r="T5" s="25"/>
+      <c r="U5" s="25"/>
+      <c r="V5" s="25"/>
+      <c r="W5" s="25"/>
+      <c r="X5" s="25"/>
+      <c r="Y5" s="25"/>
+      <c r="Z5" s="25"/>
+      <c r="AA5" s="25"/>
+      <c r="AB5" s="25"/>
+      <c r="AC5" s="25"/>
+      <c r="AD5" s="25"/>
+      <c r="AE5" s="25"/>
+      <c r="AF5" s="25"/>
+      <c r="AG5" s="25"/>
+      <c r="AH5" s="25"/>
+      <c r="AI5" s="25"/>
+      <c r="AJ5" s="25"/>
+      <c r="AK5" s="25"/>
+      <c r="AL5" s="25"/>
+      <c r="AM5" s="25"/>
+      <c r="AN5" s="26"/>
+      <c r="AO5" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="AP5" s="25"/>
+      <c r="AQ5" s="25"/>
+      <c r="AR5" s="25"/>
+      <c r="AS5" s="25"/>
+      <c r="AT5" s="25"/>
+      <c r="AU5" s="25"/>
+      <c r="AV5" s="26"/>
     </row>
     <row r="6" spans="1:59" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="11"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="13"/>
-      <c r="O6" s="13"/>
-      <c r="P6" s="13"/>
-      <c r="Q6" s="13"/>
-      <c r="R6" s="13"/>
-      <c r="S6" s="13"/>
-      <c r="T6" s="13"/>
-      <c r="U6" s="13"/>
-      <c r="V6" s="13"/>
-      <c r="W6" s="13"/>
-      <c r="X6" s="13"/>
-      <c r="Y6" s="13"/>
-      <c r="Z6" s="13"/>
-      <c r="AA6" s="13"/>
-      <c r="AB6" s="13"/>
-      <c r="AC6" s="13"/>
-      <c r="AD6" s="13"/>
-      <c r="AE6" s="13"/>
-      <c r="AF6" s="13"/>
-      <c r="AG6" s="13"/>
-      <c r="AH6" s="13"/>
-      <c r="AI6" s="13"/>
-      <c r="AJ6" s="13"/>
-      <c r="AK6" s="13"/>
-      <c r="AL6" s="13"/>
-      <c r="AM6" s="13"/>
-      <c r="AN6" s="14"/>
-      <c r="AO6" s="12"/>
-      <c r="AP6" s="13"/>
-      <c r="AQ6" s="13"/>
-      <c r="AR6" s="13"/>
-      <c r="AS6" s="13"/>
-      <c r="AT6" s="13"/>
-      <c r="AU6" s="13"/>
-      <c r="AV6" s="14"/>
+      <c r="A6" s="10"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="27"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="24"/>
+      <c r="N6" s="25"/>
+      <c r="O6" s="25"/>
+      <c r="P6" s="25"/>
+      <c r="Q6" s="25"/>
+      <c r="R6" s="25"/>
+      <c r="S6" s="25"/>
+      <c r="T6" s="25"/>
+      <c r="U6" s="25"/>
+      <c r="V6" s="25"/>
+      <c r="W6" s="25"/>
+      <c r="X6" s="25"/>
+      <c r="Y6" s="25"/>
+      <c r="Z6" s="25"/>
+      <c r="AA6" s="25"/>
+      <c r="AB6" s="25"/>
+      <c r="AC6" s="25"/>
+      <c r="AD6" s="25"/>
+      <c r="AE6" s="25"/>
+      <c r="AF6" s="25"/>
+      <c r="AG6" s="25"/>
+      <c r="AH6" s="25"/>
+      <c r="AI6" s="25"/>
+      <c r="AJ6" s="25"/>
+      <c r="AK6" s="25"/>
+      <c r="AL6" s="25"/>
+      <c r="AM6" s="25"/>
+      <c r="AN6" s="26"/>
+      <c r="AO6" s="24"/>
+      <c r="AP6" s="25"/>
+      <c r="AQ6" s="25"/>
+      <c r="AR6" s="25"/>
+      <c r="AS6" s="25"/>
+      <c r="AT6" s="25"/>
+      <c r="AU6" s="25"/>
+      <c r="AV6" s="26"/>
     </row>
     <row r="7" spans="1:59" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="11"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="13"/>
-      <c r="O7" s="13"/>
-      <c r="P7" s="13"/>
-      <c r="Q7" s="13"/>
-      <c r="R7" s="13"/>
-      <c r="S7" s="13"/>
-      <c r="T7" s="13"/>
-      <c r="U7" s="13"/>
-      <c r="V7" s="13"/>
-      <c r="W7" s="13"/>
-      <c r="X7" s="13"/>
-      <c r="Y7" s="13"/>
-      <c r="Z7" s="13"/>
-      <c r="AA7" s="13"/>
-      <c r="AB7" s="13"/>
-      <c r="AC7" s="13"/>
-      <c r="AD7" s="13"/>
-      <c r="AE7" s="13"/>
-      <c r="AF7" s="13"/>
-      <c r="AG7" s="13"/>
-      <c r="AH7" s="13"/>
-      <c r="AI7" s="13"/>
-      <c r="AJ7" s="13"/>
-      <c r="AK7" s="13"/>
-      <c r="AL7" s="13"/>
-      <c r="AM7" s="13"/>
-      <c r="AN7" s="14"/>
-      <c r="AO7" s="12"/>
-      <c r="AP7" s="13"/>
-      <c r="AQ7" s="13"/>
-      <c r="AR7" s="13"/>
-      <c r="AS7" s="13"/>
-      <c r="AT7" s="13"/>
-      <c r="AU7" s="13"/>
-      <c r="AV7" s="14"/>
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="24"/>
+      <c r="N7" s="25"/>
+      <c r="O7" s="25"/>
+      <c r="P7" s="25"/>
+      <c r="Q7" s="25"/>
+      <c r="R7" s="25"/>
+      <c r="S7" s="25"/>
+      <c r="T7" s="25"/>
+      <c r="U7" s="25"/>
+      <c r="V7" s="25"/>
+      <c r="W7" s="25"/>
+      <c r="X7" s="25"/>
+      <c r="Y7" s="25"/>
+      <c r="Z7" s="25"/>
+      <c r="AA7" s="25"/>
+      <c r="AB7" s="25"/>
+      <c r="AC7" s="25"/>
+      <c r="AD7" s="25"/>
+      <c r="AE7" s="25"/>
+      <c r="AF7" s="25"/>
+      <c r="AG7" s="25"/>
+      <c r="AH7" s="25"/>
+      <c r="AI7" s="25"/>
+      <c r="AJ7" s="25"/>
+      <c r="AK7" s="25"/>
+      <c r="AL7" s="25"/>
+      <c r="AM7" s="25"/>
+      <c r="AN7" s="26"/>
+      <c r="AO7" s="24"/>
+      <c r="AP7" s="25"/>
+      <c r="AQ7" s="25"/>
+      <c r="AR7" s="25"/>
+      <c r="AS7" s="25"/>
+      <c r="AT7" s="25"/>
+      <c r="AU7" s="25"/>
+      <c r="AV7" s="26"/>
     </row>
     <row r="8" spans="1:59" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="13"/>
-      <c r="O8" s="13"/>
-      <c r="P8" s="13"/>
-      <c r="Q8" s="13"/>
-      <c r="R8" s="13"/>
-      <c r="S8" s="13"/>
-      <c r="T8" s="13"/>
-      <c r="U8" s="13"/>
-      <c r="V8" s="13"/>
-      <c r="W8" s="13"/>
-      <c r="X8" s="13"/>
-      <c r="Y8" s="13"/>
-      <c r="Z8" s="13"/>
-      <c r="AA8" s="13"/>
-      <c r="AB8" s="13"/>
-      <c r="AC8" s="13"/>
-      <c r="AD8" s="13"/>
-      <c r="AE8" s="13"/>
-      <c r="AF8" s="13"/>
-      <c r="AG8" s="13"/>
-      <c r="AH8" s="13"/>
-      <c r="AI8" s="13"/>
-      <c r="AJ8" s="13"/>
-      <c r="AK8" s="13"/>
-      <c r="AL8" s="13"/>
-      <c r="AM8" s="13"/>
-      <c r="AN8" s="14"/>
-      <c r="AO8" s="12"/>
-      <c r="AP8" s="13"/>
-      <c r="AQ8" s="13"/>
-      <c r="AR8" s="13"/>
-      <c r="AS8" s="13"/>
-      <c r="AT8" s="13"/>
-      <c r="AU8" s="13"/>
-      <c r="AV8" s="14"/>
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="27"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="24"/>
+      <c r="N8" s="25"/>
+      <c r="O8" s="25"/>
+      <c r="P8" s="25"/>
+      <c r="Q8" s="25"/>
+      <c r="R8" s="25"/>
+      <c r="S8" s="25"/>
+      <c r="T8" s="25"/>
+      <c r="U8" s="25"/>
+      <c r="V8" s="25"/>
+      <c r="W8" s="25"/>
+      <c r="X8" s="25"/>
+      <c r="Y8" s="25"/>
+      <c r="Z8" s="25"/>
+      <c r="AA8" s="25"/>
+      <c r="AB8" s="25"/>
+      <c r="AC8" s="25"/>
+      <c r="AD8" s="25"/>
+      <c r="AE8" s="25"/>
+      <c r="AF8" s="25"/>
+      <c r="AG8" s="25"/>
+      <c r="AH8" s="25"/>
+      <c r="AI8" s="25"/>
+      <c r="AJ8" s="25"/>
+      <c r="AK8" s="25"/>
+      <c r="AL8" s="25"/>
+      <c r="AM8" s="25"/>
+      <c r="AN8" s="26"/>
+      <c r="AO8" s="24"/>
+      <c r="AP8" s="25"/>
+      <c r="AQ8" s="25"/>
+      <c r="AR8" s="25"/>
+      <c r="AS8" s="25"/>
+      <c r="AT8" s="25"/>
+      <c r="AU8" s="25"/>
+      <c r="AV8" s="26"/>
     </row>
     <row r="9" spans="1:59" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="13"/>
-      <c r="O9" s="13"/>
-      <c r="P9" s="13"/>
-      <c r="Q9" s="13"/>
-      <c r="R9" s="13"/>
-      <c r="S9" s="13"/>
-      <c r="T9" s="13"/>
-      <c r="U9" s="13"/>
-      <c r="V9" s="13"/>
-      <c r="W9" s="13"/>
-      <c r="X9" s="13"/>
-      <c r="Y9" s="13"/>
-      <c r="Z9" s="13"/>
-      <c r="AA9" s="13"/>
-      <c r="AB9" s="13"/>
-      <c r="AC9" s="13"/>
-      <c r="AD9" s="13"/>
-      <c r="AE9" s="13"/>
-      <c r="AF9" s="13"/>
-      <c r="AG9" s="13"/>
-      <c r="AH9" s="13"/>
-      <c r="AI9" s="13"/>
-      <c r="AJ9" s="13"/>
-      <c r="AK9" s="13"/>
-      <c r="AL9" s="13"/>
-      <c r="AM9" s="13"/>
-      <c r="AN9" s="14"/>
-      <c r="AO9" s="12"/>
-      <c r="AP9" s="13"/>
-      <c r="AQ9" s="13"/>
-      <c r="AR9" s="13"/>
-      <c r="AS9" s="13"/>
-      <c r="AT9" s="13"/>
-      <c r="AU9" s="13"/>
-      <c r="AV9" s="14"/>
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="27"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="24"/>
+      <c r="N9" s="25"/>
+      <c r="O9" s="25"/>
+      <c r="P9" s="25"/>
+      <c r="Q9" s="25"/>
+      <c r="R9" s="25"/>
+      <c r="S9" s="25"/>
+      <c r="T9" s="25"/>
+      <c r="U9" s="25"/>
+      <c r="V9" s="25"/>
+      <c r="W9" s="25"/>
+      <c r="X9" s="25"/>
+      <c r="Y9" s="25"/>
+      <c r="Z9" s="25"/>
+      <c r="AA9" s="25"/>
+      <c r="AB9" s="25"/>
+      <c r="AC9" s="25"/>
+      <c r="AD9" s="25"/>
+      <c r="AE9" s="25"/>
+      <c r="AF9" s="25"/>
+      <c r="AG9" s="25"/>
+      <c r="AH9" s="25"/>
+      <c r="AI9" s="25"/>
+      <c r="AJ9" s="25"/>
+      <c r="AK9" s="25"/>
+      <c r="AL9" s="25"/>
+      <c r="AM9" s="25"/>
+      <c r="AN9" s="26"/>
+      <c r="AO9" s="24"/>
+      <c r="AP9" s="25"/>
+      <c r="AQ9" s="25"/>
+      <c r="AR9" s="25"/>
+      <c r="AS9" s="25"/>
+      <c r="AT9" s="25"/>
+      <c r="AU9" s="25"/>
+      <c r="AV9" s="26"/>
     </row>
     <row r="10" spans="1:59" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="11"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="13"/>
-      <c r="O10" s="13"/>
-      <c r="P10" s="13"/>
-      <c r="Q10" s="13"/>
-      <c r="R10" s="13"/>
-      <c r="S10" s="13"/>
-      <c r="T10" s="13"/>
-      <c r="U10" s="13"/>
-      <c r="V10" s="13"/>
-      <c r="W10" s="13"/>
-      <c r="X10" s="13"/>
-      <c r="Y10" s="13"/>
-      <c r="Z10" s="13"/>
-      <c r="AA10" s="13"/>
-      <c r="AB10" s="13"/>
-      <c r="AC10" s="13"/>
-      <c r="AD10" s="13"/>
-      <c r="AE10" s="13"/>
-      <c r="AF10" s="13"/>
-      <c r="AG10" s="13"/>
-      <c r="AH10" s="13"/>
-      <c r="AI10" s="13"/>
-      <c r="AJ10" s="13"/>
-      <c r="AK10" s="13"/>
-      <c r="AL10" s="13"/>
-      <c r="AM10" s="13"/>
-      <c r="AN10" s="14"/>
-      <c r="AO10" s="12"/>
-      <c r="AP10" s="13"/>
-      <c r="AQ10" s="13"/>
-      <c r="AR10" s="13"/>
-      <c r="AS10" s="13"/>
-      <c r="AT10" s="13"/>
-      <c r="AU10" s="13"/>
-      <c r="AV10" s="14"/>
+      <c r="A10" s="10"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="24"/>
+      <c r="N10" s="25"/>
+      <c r="O10" s="25"/>
+      <c r="P10" s="25"/>
+      <c r="Q10" s="25"/>
+      <c r="R10" s="25"/>
+      <c r="S10" s="25"/>
+      <c r="T10" s="25"/>
+      <c r="U10" s="25"/>
+      <c r="V10" s="25"/>
+      <c r="W10" s="25"/>
+      <c r="X10" s="25"/>
+      <c r="Y10" s="25"/>
+      <c r="Z10" s="25"/>
+      <c r="AA10" s="25"/>
+      <c r="AB10" s="25"/>
+      <c r="AC10" s="25"/>
+      <c r="AD10" s="25"/>
+      <c r="AE10" s="25"/>
+      <c r="AF10" s="25"/>
+      <c r="AG10" s="25"/>
+      <c r="AH10" s="25"/>
+      <c r="AI10" s="25"/>
+      <c r="AJ10" s="25"/>
+      <c r="AK10" s="25"/>
+      <c r="AL10" s="25"/>
+      <c r="AM10" s="25"/>
+      <c r="AN10" s="26"/>
+      <c r="AO10" s="24"/>
+      <c r="AP10" s="25"/>
+      <c r="AQ10" s="25"/>
+      <c r="AR10" s="25"/>
+      <c r="AS10" s="25"/>
+      <c r="AT10" s="25"/>
+      <c r="AU10" s="25"/>
+      <c r="AV10" s="26"/>
     </row>
     <row r="11" spans="1:59" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="11"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="15"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="13"/>
-      <c r="O11" s="13"/>
-      <c r="P11" s="13"/>
-      <c r="Q11" s="13"/>
-      <c r="R11" s="13"/>
-      <c r="S11" s="13"/>
-      <c r="T11" s="13"/>
-      <c r="U11" s="13"/>
-      <c r="V11" s="13"/>
-      <c r="W11" s="13"/>
-      <c r="X11" s="13"/>
-      <c r="Y11" s="13"/>
-      <c r="Z11" s="13"/>
-      <c r="AA11" s="13"/>
-      <c r="AB11" s="13"/>
-      <c r="AC11" s="13"/>
-      <c r="AD11" s="13"/>
-      <c r="AE11" s="13"/>
-      <c r="AF11" s="13"/>
-      <c r="AG11" s="13"/>
-      <c r="AH11" s="13"/>
-      <c r="AI11" s="13"/>
-      <c r="AJ11" s="13"/>
-      <c r="AK11" s="13"/>
-      <c r="AL11" s="13"/>
-      <c r="AM11" s="13"/>
-      <c r="AN11" s="14"/>
-      <c r="AO11" s="12"/>
-      <c r="AP11" s="13"/>
-      <c r="AQ11" s="13"/>
-      <c r="AR11" s="13"/>
-      <c r="AS11" s="13"/>
-      <c r="AT11" s="13"/>
-      <c r="AU11" s="13"/>
-      <c r="AV11" s="14"/>
+      <c r="A11" s="10"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="27"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="24"/>
+      <c r="N11" s="25"/>
+      <c r="O11" s="25"/>
+      <c r="P11" s="25"/>
+      <c r="Q11" s="25"/>
+      <c r="R11" s="25"/>
+      <c r="S11" s="25"/>
+      <c r="T11" s="25"/>
+      <c r="U11" s="25"/>
+      <c r="V11" s="25"/>
+      <c r="W11" s="25"/>
+      <c r="X11" s="25"/>
+      <c r="Y11" s="25"/>
+      <c r="Z11" s="25"/>
+      <c r="AA11" s="25"/>
+      <c r="AB11" s="25"/>
+      <c r="AC11" s="25"/>
+      <c r="AD11" s="25"/>
+      <c r="AE11" s="25"/>
+      <c r="AF11" s="25"/>
+      <c r="AG11" s="25"/>
+      <c r="AH11" s="25"/>
+      <c r="AI11" s="25"/>
+      <c r="AJ11" s="25"/>
+      <c r="AK11" s="25"/>
+      <c r="AL11" s="25"/>
+      <c r="AM11" s="25"/>
+      <c r="AN11" s="26"/>
+      <c r="AO11" s="24"/>
+      <c r="AP11" s="25"/>
+      <c r="AQ11" s="25"/>
+      <c r="AR11" s="25"/>
+      <c r="AS11" s="25"/>
+      <c r="AT11" s="25"/>
+      <c r="AU11" s="25"/>
+      <c r="AV11" s="26"/>
     </row>
     <row r="12" spans="1:59" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="11"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="15"/>
-      <c r="M12" s="12"/>
-      <c r="N12" s="13"/>
-      <c r="O12" s="13"/>
-      <c r="P12" s="13"/>
-      <c r="Q12" s="13"/>
-      <c r="R12" s="13"/>
-      <c r="S12" s="13"/>
-      <c r="T12" s="13"/>
-      <c r="U12" s="13"/>
-      <c r="V12" s="13"/>
-      <c r="W12" s="13"/>
-      <c r="X12" s="13"/>
-      <c r="Y12" s="13"/>
-      <c r="Z12" s="13"/>
-      <c r="AA12" s="13"/>
-      <c r="AB12" s="13"/>
-      <c r="AC12" s="13"/>
-      <c r="AD12" s="13"/>
-      <c r="AE12" s="13"/>
-      <c r="AF12" s="13"/>
-      <c r="AG12" s="13"/>
-      <c r="AH12" s="13"/>
-      <c r="AI12" s="13"/>
-      <c r="AJ12" s="13"/>
-      <c r="AK12" s="13"/>
-      <c r="AL12" s="13"/>
-      <c r="AM12" s="13"/>
-      <c r="AN12" s="14"/>
-      <c r="AO12" s="12"/>
-      <c r="AP12" s="13"/>
-      <c r="AQ12" s="13"/>
-      <c r="AR12" s="13"/>
-      <c r="AS12" s="13"/>
-      <c r="AT12" s="13"/>
-      <c r="AU12" s="13"/>
-      <c r="AV12" s="14"/>
+      <c r="A12" s="10"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="27"/>
+      <c r="L12" s="27"/>
+      <c r="M12" s="24"/>
+      <c r="N12" s="25"/>
+      <c r="O12" s="25"/>
+      <c r="P12" s="25"/>
+      <c r="Q12" s="25"/>
+      <c r="R12" s="25"/>
+      <c r="S12" s="25"/>
+      <c r="T12" s="25"/>
+      <c r="U12" s="25"/>
+      <c r="V12" s="25"/>
+      <c r="W12" s="25"/>
+      <c r="X12" s="25"/>
+      <c r="Y12" s="25"/>
+      <c r="Z12" s="25"/>
+      <c r="AA12" s="25"/>
+      <c r="AB12" s="25"/>
+      <c r="AC12" s="25"/>
+      <c r="AD12" s="25"/>
+      <c r="AE12" s="25"/>
+      <c r="AF12" s="25"/>
+      <c r="AG12" s="25"/>
+      <c r="AH12" s="25"/>
+      <c r="AI12" s="25"/>
+      <c r="AJ12" s="25"/>
+      <c r="AK12" s="25"/>
+      <c r="AL12" s="25"/>
+      <c r="AM12" s="25"/>
+      <c r="AN12" s="26"/>
+      <c r="AO12" s="24"/>
+      <c r="AP12" s="25"/>
+      <c r="AQ12" s="25"/>
+      <c r="AR12" s="25"/>
+      <c r="AS12" s="25"/>
+      <c r="AT12" s="25"/>
+      <c r="AU12" s="25"/>
+      <c r="AV12" s="26"/>
     </row>
     <row r="13" spans="1:59" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="11"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="15"/>
-      <c r="L13" s="15"/>
-      <c r="M13" s="12"/>
-      <c r="N13" s="13"/>
-      <c r="O13" s="13"/>
-      <c r="P13" s="13"/>
-      <c r="Q13" s="13"/>
-      <c r="R13" s="13"/>
-      <c r="S13" s="13"/>
-      <c r="T13" s="13"/>
-      <c r="U13" s="13"/>
-      <c r="V13" s="13"/>
-      <c r="W13" s="13"/>
-      <c r="X13" s="13"/>
-      <c r="Y13" s="13"/>
-      <c r="Z13" s="13"/>
-      <c r="AA13" s="13"/>
-      <c r="AB13" s="13"/>
-      <c r="AC13" s="13"/>
-      <c r="AD13" s="13"/>
-      <c r="AE13" s="13"/>
-      <c r="AF13" s="13"/>
-      <c r="AG13" s="13"/>
-      <c r="AH13" s="13"/>
-      <c r="AI13" s="13"/>
-      <c r="AJ13" s="13"/>
-      <c r="AK13" s="13"/>
-      <c r="AL13" s="13"/>
-      <c r="AM13" s="13"/>
-      <c r="AN13" s="14"/>
-      <c r="AO13" s="12"/>
-      <c r="AP13" s="13"/>
-      <c r="AQ13" s="13"/>
-      <c r="AR13" s="13"/>
-      <c r="AS13" s="13"/>
-      <c r="AT13" s="13"/>
-      <c r="AU13" s="13"/>
-      <c r="AV13" s="14"/>
+      <c r="A13" s="10"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="27"/>
+      <c r="M13" s="24"/>
+      <c r="N13" s="25"/>
+      <c r="O13" s="25"/>
+      <c r="P13" s="25"/>
+      <c r="Q13" s="25"/>
+      <c r="R13" s="25"/>
+      <c r="S13" s="25"/>
+      <c r="T13" s="25"/>
+      <c r="U13" s="25"/>
+      <c r="V13" s="25"/>
+      <c r="W13" s="25"/>
+      <c r="X13" s="25"/>
+      <c r="Y13" s="25"/>
+      <c r="Z13" s="25"/>
+      <c r="AA13" s="25"/>
+      <c r="AB13" s="25"/>
+      <c r="AC13" s="25"/>
+      <c r="AD13" s="25"/>
+      <c r="AE13" s="25"/>
+      <c r="AF13" s="25"/>
+      <c r="AG13" s="25"/>
+      <c r="AH13" s="25"/>
+      <c r="AI13" s="25"/>
+      <c r="AJ13" s="25"/>
+      <c r="AK13" s="25"/>
+      <c r="AL13" s="25"/>
+      <c r="AM13" s="25"/>
+      <c r="AN13" s="26"/>
+      <c r="AO13" s="24"/>
+      <c r="AP13" s="25"/>
+      <c r="AQ13" s="25"/>
+      <c r="AR13" s="25"/>
+      <c r="AS13" s="25"/>
+      <c r="AT13" s="25"/>
+      <c r="AU13" s="25"/>
+      <c r="AV13" s="26"/>
     </row>
     <row r="14" spans="1:59" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="11"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="15"/>
-      <c r="K14" s="15"/>
-      <c r="L14" s="15"/>
-      <c r="M14" s="12"/>
-      <c r="N14" s="13"/>
-      <c r="O14" s="13"/>
-      <c r="P14" s="13"/>
-      <c r="Q14" s="13"/>
-      <c r="R14" s="13"/>
-      <c r="S14" s="13"/>
-      <c r="T14" s="13"/>
-      <c r="U14" s="13"/>
-      <c r="V14" s="13"/>
-      <c r="W14" s="13"/>
-      <c r="X14" s="13"/>
-      <c r="Y14" s="13"/>
-      <c r="Z14" s="13"/>
-      <c r="AA14" s="13"/>
-      <c r="AB14" s="13"/>
-      <c r="AC14" s="13"/>
-      <c r="AD14" s="13"/>
-      <c r="AE14" s="13"/>
-      <c r="AF14" s="13"/>
-      <c r="AG14" s="13"/>
-      <c r="AH14" s="13"/>
-      <c r="AI14" s="13"/>
-      <c r="AJ14" s="13"/>
-      <c r="AK14" s="13"/>
-      <c r="AL14" s="13"/>
-      <c r="AM14" s="13"/>
-      <c r="AN14" s="14"/>
-      <c r="AO14" s="12"/>
-      <c r="AP14" s="13"/>
-      <c r="AQ14" s="13"/>
-      <c r="AR14" s="13"/>
-      <c r="AS14" s="13"/>
-      <c r="AT14" s="13"/>
-      <c r="AU14" s="13"/>
-      <c r="AV14" s="14"/>
+      <c r="A14" s="10"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="27"/>
+      <c r="L14" s="27"/>
+      <c r="M14" s="24"/>
+      <c r="N14" s="25"/>
+      <c r="O14" s="25"/>
+      <c r="P14" s="25"/>
+      <c r="Q14" s="25"/>
+      <c r="R14" s="25"/>
+      <c r="S14" s="25"/>
+      <c r="T14" s="25"/>
+      <c r="U14" s="25"/>
+      <c r="V14" s="25"/>
+      <c r="W14" s="25"/>
+      <c r="X14" s="25"/>
+      <c r="Y14" s="25"/>
+      <c r="Z14" s="25"/>
+      <c r="AA14" s="25"/>
+      <c r="AB14" s="25"/>
+      <c r="AC14" s="25"/>
+      <c r="AD14" s="25"/>
+      <c r="AE14" s="25"/>
+      <c r="AF14" s="25"/>
+      <c r="AG14" s="25"/>
+      <c r="AH14" s="25"/>
+      <c r="AI14" s="25"/>
+      <c r="AJ14" s="25"/>
+      <c r="AK14" s="25"/>
+      <c r="AL14" s="25"/>
+      <c r="AM14" s="25"/>
+      <c r="AN14" s="26"/>
+      <c r="AO14" s="24"/>
+      <c r="AP14" s="25"/>
+      <c r="AQ14" s="25"/>
+      <c r="AR14" s="25"/>
+      <c r="AS14" s="25"/>
+      <c r="AT14" s="25"/>
+      <c r="AU14" s="25"/>
+      <c r="AV14" s="26"/>
     </row>
     <row r="15" spans="1:59" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="11"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="15"/>
-      <c r="K15" s="15"/>
-      <c r="L15" s="15"/>
-      <c r="M15" s="12"/>
-      <c r="N15" s="13"/>
-      <c r="O15" s="13"/>
-      <c r="P15" s="13"/>
-      <c r="Q15" s="13"/>
-      <c r="R15" s="13"/>
-      <c r="S15" s="13"/>
-      <c r="T15" s="13"/>
-      <c r="U15" s="13"/>
-      <c r="V15" s="13"/>
-      <c r="W15" s="13"/>
-      <c r="X15" s="13"/>
-      <c r="Y15" s="13"/>
-      <c r="Z15" s="13"/>
-      <c r="AA15" s="13"/>
-      <c r="AB15" s="13"/>
-      <c r="AC15" s="13"/>
-      <c r="AD15" s="13"/>
-      <c r="AE15" s="13"/>
-      <c r="AF15" s="13"/>
-      <c r="AG15" s="13"/>
-      <c r="AH15" s="13"/>
-      <c r="AI15" s="13"/>
-      <c r="AJ15" s="13"/>
-      <c r="AK15" s="13"/>
-      <c r="AL15" s="13"/>
-      <c r="AM15" s="13"/>
-      <c r="AN15" s="14"/>
-      <c r="AO15" s="12"/>
-      <c r="AP15" s="13"/>
-      <c r="AQ15" s="13"/>
-      <c r="AR15" s="13"/>
-      <c r="AS15" s="13"/>
-      <c r="AT15" s="13"/>
-      <c r="AU15" s="13"/>
-      <c r="AV15" s="14"/>
+      <c r="A15" s="10"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="27"/>
+      <c r="L15" s="27"/>
+      <c r="M15" s="24"/>
+      <c r="N15" s="25"/>
+      <c r="O15" s="25"/>
+      <c r="P15" s="25"/>
+      <c r="Q15" s="25"/>
+      <c r="R15" s="25"/>
+      <c r="S15" s="25"/>
+      <c r="T15" s="25"/>
+      <c r="U15" s="25"/>
+      <c r="V15" s="25"/>
+      <c r="W15" s="25"/>
+      <c r="X15" s="25"/>
+      <c r="Y15" s="25"/>
+      <c r="Z15" s="25"/>
+      <c r="AA15" s="25"/>
+      <c r="AB15" s="25"/>
+      <c r="AC15" s="25"/>
+      <c r="AD15" s="25"/>
+      <c r="AE15" s="25"/>
+      <c r="AF15" s="25"/>
+      <c r="AG15" s="25"/>
+      <c r="AH15" s="25"/>
+      <c r="AI15" s="25"/>
+      <c r="AJ15" s="25"/>
+      <c r="AK15" s="25"/>
+      <c r="AL15" s="25"/>
+      <c r="AM15" s="25"/>
+      <c r="AN15" s="26"/>
+      <c r="AO15" s="24"/>
+      <c r="AP15" s="25"/>
+      <c r="AQ15" s="25"/>
+      <c r="AR15" s="25"/>
+      <c r="AS15" s="25"/>
+      <c r="AT15" s="25"/>
+      <c r="AU15" s="25"/>
+      <c r="AV15" s="26"/>
     </row>
     <row r="16" spans="1:59" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="11"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="15"/>
-      <c r="K16" s="15"/>
-      <c r="L16" s="15"/>
-      <c r="M16" s="12"/>
-      <c r="N16" s="13"/>
-      <c r="O16" s="13"/>
-      <c r="P16" s="13"/>
-      <c r="Q16" s="13"/>
-      <c r="R16" s="13"/>
-      <c r="S16" s="13"/>
-      <c r="T16" s="13"/>
-      <c r="U16" s="13"/>
-      <c r="V16" s="13"/>
-      <c r="W16" s="13"/>
-      <c r="X16" s="13"/>
-      <c r="Y16" s="13"/>
-      <c r="Z16" s="13"/>
-      <c r="AA16" s="13"/>
-      <c r="AB16" s="13"/>
-      <c r="AC16" s="13"/>
-      <c r="AD16" s="13"/>
-      <c r="AE16" s="13"/>
-      <c r="AF16" s="13"/>
-      <c r="AG16" s="13"/>
-      <c r="AH16" s="13"/>
-      <c r="AI16" s="13"/>
-      <c r="AJ16" s="13"/>
-      <c r="AK16" s="13"/>
-      <c r="AL16" s="13"/>
-      <c r="AM16" s="13"/>
-      <c r="AN16" s="14"/>
-      <c r="AO16" s="12"/>
-      <c r="AP16" s="13"/>
-      <c r="AQ16" s="13"/>
-      <c r="AR16" s="13"/>
-      <c r="AS16" s="13"/>
-      <c r="AT16" s="13"/>
-      <c r="AU16" s="13"/>
-      <c r="AV16" s="14"/>
+      <c r="A16" s="10"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="27"/>
+      <c r="K16" s="27"/>
+      <c r="L16" s="27"/>
+      <c r="M16" s="24"/>
+      <c r="N16" s="25"/>
+      <c r="O16" s="25"/>
+      <c r="P16" s="25"/>
+      <c r="Q16" s="25"/>
+      <c r="R16" s="25"/>
+      <c r="S16" s="25"/>
+      <c r="T16" s="25"/>
+      <c r="U16" s="25"/>
+      <c r="V16" s="25"/>
+      <c r="W16" s="25"/>
+      <c r="X16" s="25"/>
+      <c r="Y16" s="25"/>
+      <c r="Z16" s="25"/>
+      <c r="AA16" s="25"/>
+      <c r="AB16" s="25"/>
+      <c r="AC16" s="25"/>
+      <c r="AD16" s="25"/>
+      <c r="AE16" s="25"/>
+      <c r="AF16" s="25"/>
+      <c r="AG16" s="25"/>
+      <c r="AH16" s="25"/>
+      <c r="AI16" s="25"/>
+      <c r="AJ16" s="25"/>
+      <c r="AK16" s="25"/>
+      <c r="AL16" s="25"/>
+      <c r="AM16" s="25"/>
+      <c r="AN16" s="26"/>
+      <c r="AO16" s="24"/>
+      <c r="AP16" s="25"/>
+      <c r="AQ16" s="25"/>
+      <c r="AR16" s="25"/>
+      <c r="AS16" s="25"/>
+      <c r="AT16" s="25"/>
+      <c r="AU16" s="25"/>
+      <c r="AV16" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="67">
+    <mergeCell ref="AX2:BB2"/>
+    <mergeCell ref="AX3:BB3"/>
+    <mergeCell ref="BC2:BG2"/>
+    <mergeCell ref="BC3:BG3"/>
+    <mergeCell ref="AO10:AV10"/>
+    <mergeCell ref="AO6:AV6"/>
+    <mergeCell ref="AO7:AV7"/>
+    <mergeCell ref="AO8:AV8"/>
+    <mergeCell ref="AO9:AV9"/>
+    <mergeCell ref="AO16:AV16"/>
+    <mergeCell ref="AO11:AV11"/>
+    <mergeCell ref="AO12:AV12"/>
+    <mergeCell ref="AO13:AV13"/>
+    <mergeCell ref="AO14:AV14"/>
+    <mergeCell ref="AO15:AV15"/>
+    <mergeCell ref="I16:L16"/>
+    <mergeCell ref="M4:AN4"/>
+    <mergeCell ref="M5:AN5"/>
+    <mergeCell ref="M6:AN6"/>
+    <mergeCell ref="M7:AN7"/>
+    <mergeCell ref="M8:AN8"/>
+    <mergeCell ref="M9:AN9"/>
+    <mergeCell ref="M10:AN10"/>
+    <mergeCell ref="M11:AN11"/>
+    <mergeCell ref="M12:AN12"/>
+    <mergeCell ref="M13:AN13"/>
+    <mergeCell ref="M14:AN14"/>
+    <mergeCell ref="M15:AN15"/>
+    <mergeCell ref="M16:AN16"/>
+    <mergeCell ref="A16:H16"/>
+    <mergeCell ref="I4:L4"/>
+    <mergeCell ref="I5:L5"/>
+    <mergeCell ref="I6:L6"/>
+    <mergeCell ref="A15:H15"/>
+    <mergeCell ref="I15:L15"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="I14:L14"/>
+    <mergeCell ref="A13:H13"/>
+    <mergeCell ref="I13:L13"/>
+    <mergeCell ref="A12:H12"/>
+    <mergeCell ref="I12:L12"/>
+    <mergeCell ref="A11:H11"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="A10:H10"/>
+    <mergeCell ref="I10:L10"/>
+    <mergeCell ref="A9:H9"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="A8:H8"/>
+    <mergeCell ref="I8:L8"/>
+    <mergeCell ref="A7:H7"/>
+    <mergeCell ref="I7:L7"/>
     <mergeCell ref="A6:H6"/>
     <mergeCell ref="A5:H5"/>
     <mergeCell ref="AO2:AV2"/>
@@ -3136,57 +3187,6 @@
     <mergeCell ref="AG2:AN2"/>
     <mergeCell ref="AO4:AV4"/>
     <mergeCell ref="AO5:AV5"/>
-    <mergeCell ref="A9:H9"/>
-    <mergeCell ref="I9:L9"/>
-    <mergeCell ref="A8:H8"/>
-    <mergeCell ref="I8:L8"/>
-    <mergeCell ref="A7:H7"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="A16:H16"/>
-    <mergeCell ref="I4:L4"/>
-    <mergeCell ref="I5:L5"/>
-    <mergeCell ref="I6:L6"/>
-    <mergeCell ref="A15:H15"/>
-    <mergeCell ref="I15:L15"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="I14:L14"/>
-    <mergeCell ref="A13:H13"/>
-    <mergeCell ref="I13:L13"/>
-    <mergeCell ref="A12:H12"/>
-    <mergeCell ref="I12:L12"/>
-    <mergeCell ref="A11:H11"/>
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="A10:H10"/>
-    <mergeCell ref="I10:L10"/>
-    <mergeCell ref="I16:L16"/>
-    <mergeCell ref="M4:AN4"/>
-    <mergeCell ref="M5:AN5"/>
-    <mergeCell ref="M6:AN6"/>
-    <mergeCell ref="M7:AN7"/>
-    <mergeCell ref="M8:AN8"/>
-    <mergeCell ref="M9:AN9"/>
-    <mergeCell ref="M10:AN10"/>
-    <mergeCell ref="M11:AN11"/>
-    <mergeCell ref="M12:AN12"/>
-    <mergeCell ref="M13:AN13"/>
-    <mergeCell ref="M14:AN14"/>
-    <mergeCell ref="M15:AN15"/>
-    <mergeCell ref="M16:AN16"/>
-    <mergeCell ref="AO16:AV16"/>
-    <mergeCell ref="AO11:AV11"/>
-    <mergeCell ref="AO12:AV12"/>
-    <mergeCell ref="AO13:AV13"/>
-    <mergeCell ref="AO14:AV14"/>
-    <mergeCell ref="AO15:AV15"/>
-    <mergeCell ref="AX2:BB2"/>
-    <mergeCell ref="AX3:BB3"/>
-    <mergeCell ref="BC2:BG2"/>
-    <mergeCell ref="BC3:BG3"/>
-    <mergeCell ref="AO10:AV10"/>
-    <mergeCell ref="AO6:AV6"/>
-    <mergeCell ref="AO7:AV7"/>
-    <mergeCell ref="AO8:AV8"/>
-    <mergeCell ref="AO9:AV9"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4076,7 +4076,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="90" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:14" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="3">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -4166,7 +4166,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="90" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:14" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="3">
         <f t="shared" si="2"/>
         <v>22</v>

--- a/Doc/10品質記録/レビュー結果/課題管理表.xlsx
+++ b/Doc/10品質記録/レビュー結果/課題管理表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\MyCentOS\pythonGames\Doc\10品質記録\レビュー結果\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17DE3AF1-F2B7-4FBB-A8F6-945C77822761}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C03B817C-824D-407A-97BF-085EC6F3E339}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{CFAEB6AA-FC9D-49F8-8BE6-86D0FBA28B0C}"/>
+    <workbookView xWindow="4830" yWindow="1020" windowWidth="14400" windowHeight="7510" activeTab="1" xr2:uid="{CFAEB6AA-FC9D-49F8-8BE6-86D0FBA28B0C}"/>
   </bookViews>
   <sheets>
     <sheet name="改版履歴" sheetId="4" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="127">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -1636,6 +1636,105 @@
     </rPh>
     <rPh sb="192" eb="193">
       <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>上の階層の呼び方がわからない。</t>
+    <rPh sb="0" eb="1">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カイソウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>カタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>autoloaderを実装したい→importで階層フリーにしたい
+import autoload</t>
+    <rPh sb="11" eb="13">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>カイソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DbAccessアクセスを実装→SQLを受け取り、実行するだけの処理（exec_sql)でfetchall()?</t>
+    <rPh sb="13" eb="15">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>無理→+M16頑張って書く+K25:N25</t>
+    <rPh sb="0" eb="2">
+      <t>ムリ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガンバ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>無理→ちまちま書く</t>
+    <rPh sb="0" eb="2">
+      <t>ムリ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2020/4/15+K25:N25</t>
+    <rPh sb="0" eb="2">
+      <t>ムリ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>__init__.pyで解決（必要ないのかもしれないが）</t>
+    <rPh sb="12" eb="14">
+      <t>カイケツ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2020/4/20+N29K29:P29K29:N29J3K29:N29</t>
+    <rPh sb="12" eb="14">
+      <t>カイケツ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヒツヨウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3200,10 +3299,10 @@
   <dimension ref="A1:N36"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="G28" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="G29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="G28" sqref="G28"/>
+      <selection pane="bottomRight" activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -3636,8 +3735,12 @@
       <c r="G12" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
+      <c r="H12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>38</v>
+      </c>
       <c r="J12" s="6"/>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
@@ -3673,11 +3776,21 @@
       <c r="I13" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="J13" s="6"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
+      <c r="J13" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="K13" s="8">
+        <v>43947</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="M13" s="8">
+        <v>43936</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="14" spans="1:14" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="3">
@@ -3807,8 +3920,8 @@
       <c r="L16" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="M16" s="8">
-        <v>43925</v>
+      <c r="M16" s="8" t="s">
+        <v>122</v>
       </c>
       <c r="N16" s="3" t="s">
         <v>9</v>
@@ -4198,8 +4311,8 @@
       <c r="J25" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="K25" s="8">
-        <v>43936</v>
+      <c r="K25" s="8" t="s">
+        <v>124</v>
       </c>
       <c r="L25" s="3" t="s">
         <v>9</v>
@@ -4240,11 +4353,21 @@
       <c r="I26" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="J26" s="6"/>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
-      <c r="N26" s="3"/>
+      <c r="J26" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="K26" s="8">
+        <v>43947</v>
+      </c>
+      <c r="L26" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="M26" s="8">
+        <v>43947</v>
+      </c>
+      <c r="N26" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="27" spans="1:14" ht="126" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="3">
@@ -4368,8 +4491,8 @@
       <c r="J29" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="K29" s="8">
-        <v>43941</v>
+      <c r="K29" s="8" t="s">
+        <v>126</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>9</v>
@@ -4381,24 +4504,50 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="3" t="str">
+    <row r="30" spans="1:14" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="3">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="6"/>
-      <c r="K30" s="3"/>
-      <c r="L30" s="3"/>
-      <c r="M30" s="3"/>
-      <c r="N30" s="3"/>
+        <v>27</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J30" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="K30" s="8">
+        <v>43947</v>
+      </c>
+      <c r="L30" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="M30" s="8">
+        <v>43947</v>
+      </c>
+      <c r="N30" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="3" t="str">
@@ -4520,18 +4669,18 @@
   <pageSetup paperSize="9" scale="40" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="4">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{5B0C26C8-9A90-41F1-927D-A31BB229A117}">
           <x14:formula1>
             <xm:f>選択項目!$B$2:$B$5</xm:f>
           </x14:formula1>
-          <xm:sqref>H4:H10 H12 H23:H36</xm:sqref>
+          <xm:sqref>H4:H10 H23:H36</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{382B28DD-E38A-4D72-8578-E33789A9419E}">
           <x14:formula1>
             <xm:f>選択項目!$C$2:$C$4</xm:f>
           </x14:formula1>
-          <xm:sqref>I4:I10 I12 I24:I36</xm:sqref>
+          <xm:sqref>I4:I10 I24:I36</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{AC995D69-40E2-41DE-B510-923F87571674}">
           <x14:formula1>
@@ -4543,7 +4692,7 @@
           <x14:formula1>
             <xm:f>選択項目!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>D14:D17 H11:I11 I14:I23 H14:H22 H13:I13</xm:sqref>
+          <xm:sqref>D14:D17 I14:I23 H14:H22 H11:I13</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
